--- a/resources/master/nababan-sandarnagodang.xlsx
+++ b/resources/master/nababan-sandarnagodang.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="374">
   <si>
     <t>TOGA SIHOMBING</t>
   </si>
@@ -1143,6 +1143,12 @@
   </si>
   <si>
     <t>Esra</t>
+  </si>
+  <si>
+    <t>Anak</t>
+  </si>
+  <si>
+    <t>Boru</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1158,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1235,8 +1241,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFF4FEF5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF4FEF5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1287,13 +1323,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FF663300"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1618,7 +1648,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="390">
+  <cellXfs count="394">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2136,357 +2166,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2516,18 +2195,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2542,79 +2209,454 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2627,10 +2669,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF663300"/>
+      <color rgb="FFF4FEF5"/>
       <color rgb="FFA8F2F6"/>
+      <color rgb="FF0066FF"/>
       <color rgb="FFD0FC80"/>
       <color rgb="FFBBFDD1"/>
-      <color rgb="FFF4FEF5"/>
       <color rgb="FFF3E2FE"/>
     </mruColors>
   </colors>
@@ -3152,11 +3196,11 @@
       </c>
     </row>
     <row r="17" spans="2:73" ht="15.75" thickBot="1">
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="247" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="242"/>
-      <c r="D17" s="243"/>
+      <c r="C17" s="248"/>
+      <c r="D17" s="249"/>
       <c r="E17" s="2"/>
       <c r="U17" s="36"/>
       <c r="V17" s="10" t="s">
@@ -3183,9 +3227,9 @@
       </c>
     </row>
     <row r="18" spans="2:73" ht="15.75" thickBot="1">
-      <c r="B18" s="244"/>
-      <c r="C18" s="245"/>
-      <c r="D18" s="246"/>
+      <c r="B18" s="250"/>
+      <c r="C18" s="251"/>
+      <c r="D18" s="252"/>
       <c r="E18" s="2"/>
       <c r="U18" s="37"/>
       <c r="V18" s="7"/>
@@ -3208,9 +3252,9 @@
       </c>
     </row>
     <row r="19" spans="2:73" ht="15.75" thickBot="1">
-      <c r="B19" s="244"/>
-      <c r="C19" s="245"/>
-      <c r="D19" s="246"/>
+      <c r="B19" s="250"/>
+      <c r="C19" s="251"/>
+      <c r="D19" s="252"/>
       <c r="E19" s="2"/>
       <c r="U19" s="37"/>
       <c r="V19" s="6">
@@ -3233,9 +3277,9 @@
       </c>
     </row>
     <row r="20" spans="2:73" ht="15.75" thickBot="1">
-      <c r="B20" s="247"/>
-      <c r="C20" s="248"/>
-      <c r="D20" s="249"/>
+      <c r="B20" s="253"/>
+      <c r="C20" s="254"/>
+      <c r="D20" s="255"/>
       <c r="E20" s="2"/>
       <c r="U20" s="26"/>
       <c r="V20" s="10" t="s">
@@ -3296,10 +3340,10 @@
     <row r="22" spans="2:73" ht="15.75" thickBot="1">
       <c r="B22" s="2"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="236" t="s">
+      <c r="D22" s="256" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="237"/>
+      <c r="E22" s="257"/>
       <c r="U22" s="37"/>
       <c r="V22" s="6">
         <v>8</v>
@@ -3335,10 +3379,10 @@
     <row r="23" spans="2:73" ht="15.75" thickBot="1">
       <c r="B23" s="2"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="234" t="s">
+      <c r="D23" s="245" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="235"/>
+      <c r="E23" s="246"/>
       <c r="U23" s="26"/>
       <c r="V23" s="10" t="s">
         <v>20</v>
@@ -3411,10 +3455,10 @@
     <row r="25" spans="2:73" ht="15.75" thickBot="1">
       <c r="B25" s="2"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="236" t="s">
+      <c r="D25" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="237"/>
+      <c r="E25" s="257"/>
       <c r="U25" s="37"/>
       <c r="AA25" s="37"/>
       <c r="AB25" s="22"/>
@@ -3444,10 +3488,10 @@
     <row r="26" spans="2:73" ht="15.75" thickBot="1">
       <c r="B26" s="2"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="234" t="s">
+      <c r="D26" s="245" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="235"/>
+      <c r="E26" s="246"/>
       <c r="U26" s="37"/>
       <c r="AA26" s="35"/>
       <c r="AB26" s="48"/>
@@ -3529,10 +3573,10 @@
     <row r="28" spans="2:73" ht="15.75" thickBot="1">
       <c r="B28" s="2"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="252">
+      <c r="D28" s="260">
         <v>1</v>
       </c>
-      <c r="E28" s="252"/>
+      <c r="E28" s="260"/>
       <c r="U28" s="37"/>
       <c r="V28" s="22"/>
       <c r="AA28" s="37"/>
@@ -3570,10 +3614,10 @@
     </row>
     <row r="29" spans="2:73" ht="21.75" thickBot="1">
       <c r="C29" s="9"/>
-      <c r="D29" s="232" t="s">
+      <c r="D29" s="264" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="233"/>
+      <c r="E29" s="265"/>
       <c r="F29" s="2"/>
       <c r="G29" s="6">
         <v>2</v>
@@ -3645,10 +3689,10 @@
     </row>
     <row r="30" spans="2:73" ht="20.25" customHeight="1" thickBot="1">
       <c r="C30" s="7"/>
-      <c r="D30" s="230" t="s">
+      <c r="D30" s="262" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="231"/>
+      <c r="E30" s="263"/>
       <c r="F30" s="7"/>
       <c r="G30" s="10" t="s">
         <v>7</v>
@@ -3719,10 +3763,10 @@
     </row>
     <row r="31" spans="2:73" ht="18.75" customHeight="1" thickBot="1">
       <c r="C31" s="8"/>
-      <c r="D31" s="230" t="s">
+      <c r="D31" s="262" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="231"/>
+      <c r="E31" s="263"/>
       <c r="F31" s="2"/>
       <c r="G31" s="7" t="s">
         <v>15</v>
@@ -3788,8 +3832,8 @@
     </row>
     <row r="32" spans="2:73" ht="16.5" customHeight="1" thickBot="1">
       <c r="C32" s="8"/>
-      <c r="D32" s="238"/>
-      <c r="E32" s="239"/>
+      <c r="D32" s="266"/>
+      <c r="E32" s="267"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -3847,8 +3891,8 @@
     </row>
     <row r="33" spans="3:73" ht="20.25" customHeight="1" thickBot="1">
       <c r="C33" s="8"/>
-      <c r="D33" s="250"/>
-      <c r="E33" s="251"/>
+      <c r="D33" s="258"/>
+      <c r="E33" s="259"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -3958,10 +4002,10 @@
     </row>
     <row r="35" spans="3:73" ht="15.75" thickBot="1">
       <c r="C35" s="7"/>
-      <c r="D35" s="236" t="s">
+      <c r="D35" s="256" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="237"/>
+      <c r="E35" s="257"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -4021,10 +4065,10 @@
     </row>
     <row r="36" spans="3:73" ht="15.75" thickBot="1">
       <c r="C36" s="11"/>
-      <c r="D36" s="234" t="s">
+      <c r="D36" s="245" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="235"/>
+      <c r="E36" s="246"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -5309,7 +5353,7 @@
       <c r="BQ59" s="53"/>
       <c r="BR59" s="53"/>
       <c r="BS59" s="53"/>
-      <c r="BT59" s="240"/>
+      <c r="BT59" s="244"/>
       <c r="BU59" s="53"/>
     </row>
     <row r="60" spans="15:73" ht="15.75" thickBot="1">
@@ -5382,7 +5426,7 @@
       <c r="BQ60" s="53"/>
       <c r="BR60" s="53"/>
       <c r="BS60" s="53"/>
-      <c r="BT60" s="240"/>
+      <c r="BT60" s="244"/>
       <c r="BU60" s="53"/>
     </row>
     <row r="61" spans="15:73" ht="15.75" thickBot="1">
@@ -9307,9 +9351,9 @@
       <c r="AD151" s="20"/>
       <c r="AE151" s="20"/>
       <c r="AF151" s="11"/>
-      <c r="AG151" s="229"/>
-      <c r="AH151" s="229"/>
-      <c r="AI151" s="229"/>
+      <c r="AG151" s="261"/>
+      <c r="AH151" s="261"/>
+      <c r="AI151" s="261"/>
     </row>
     <row r="152" spans="15:35">
       <c r="O152" s="37"/>
@@ -10172,11 +10216,11 @@
       <c r="V192" s="20"/>
       <c r="W192" s="20"/>
       <c r="X192" s="20"/>
-      <c r="Y192" s="229"/>
-      <c r="Z192" s="229"/>
-      <c r="AA192" s="229"/>
-      <c r="AB192" s="229"/>
-      <c r="AC192" s="229"/>
+      <c r="Y192" s="261"/>
+      <c r="Z192" s="261"/>
+      <c r="AA192" s="261"/>
+      <c r="AB192" s="261"/>
+      <c r="AC192" s="261"/>
       <c r="AD192" s="20"/>
       <c r="AE192" s="22"/>
     </row>
@@ -11408,6 +11452,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="Y192:AC192"/>
+    <mergeCell ref="AG151:AI151"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D31:E31"/>
     <mergeCell ref="BT59:BT60"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="B17:D20"/>
@@ -11416,14 +11468,6 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D28:E28"/>
-    <mergeCell ref="Y192:AC192"/>
-    <mergeCell ref="AG151:AI151"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11545,7 +11589,7 @@
       </c>
       <c r="AB3" s="22"/>
       <c r="AC3" s="36"/>
-      <c r="AD3" s="253" t="s">
+      <c r="AD3" s="268" t="s">
         <v>191</v>
       </c>
       <c r="AE3" s="69"/>
@@ -11571,7 +11615,7 @@
       <c r="AA4" s="29"/>
       <c r="AB4" s="22"/>
       <c r="AC4" s="37"/>
-      <c r="AD4" s="254"/>
+      <c r="AD4" s="269"/>
       <c r="AE4" s="69"/>
       <c r="AF4" s="53"/>
     </row>
@@ -11626,7 +11670,7 @@
       </c>
       <c r="AB6" s="22"/>
       <c r="AC6" s="26"/>
-      <c r="AD6" s="253" t="s">
+      <c r="AD6" s="268" t="s">
         <v>184</v>
       </c>
       <c r="AE6" s="69"/>
@@ -11649,7 +11693,7 @@
       <c r="AA7" s="29"/>
       <c r="AB7" s="22"/>
       <c r="AC7" s="37"/>
-      <c r="AD7" s="254"/>
+      <c r="AD7" s="269"/>
       <c r="AE7" s="69"/>
       <c r="AF7" s="53"/>
     </row>
@@ -11700,7 +11744,7 @@
       <c r="AA9" s="22"/>
       <c r="AB9" s="22"/>
       <c r="AC9" s="26"/>
-      <c r="AD9" s="253" t="s">
+      <c r="AD9" s="268" t="s">
         <v>185</v>
       </c>
       <c r="AE9" s="69"/>
@@ -11730,7 +11774,7 @@
       <c r="AA10" s="22"/>
       <c r="AB10" s="22"/>
       <c r="AC10" s="37"/>
-      <c r="AD10" s="254"/>
+      <c r="AD10" s="269"/>
       <c r="AE10" s="69"/>
       <c r="AF10" s="53"/>
     </row>
@@ -11802,7 +11846,7 @@
       </c>
       <c r="AB12" s="35"/>
       <c r="AC12" s="26"/>
-      <c r="AD12" s="253" t="s">
+      <c r="AD12" s="268" t="s">
         <v>186</v>
       </c>
       <c r="AE12" s="69"/>
@@ -11837,7 +11881,7 @@
       </c>
       <c r="AB13" s="22"/>
       <c r="AC13" s="22"/>
-      <c r="AD13" s="254"/>
+      <c r="AD13" s="269"/>
       <c r="AE13" s="69"/>
       <c r="AF13" s="53"/>
     </row>
@@ -11909,7 +11953,7 @@
       </c>
       <c r="AB15" s="35"/>
       <c r="AC15" s="36"/>
-      <c r="AD15" s="253" t="s">
+      <c r="AD15" s="268" t="s">
         <v>189</v>
       </c>
       <c r="AE15" s="69"/>
@@ -11944,7 +11988,7 @@
       </c>
       <c r="AB16" s="22"/>
       <c r="AC16" s="22"/>
-      <c r="AD16" s="254"/>
+      <c r="AD16" s="269"/>
       <c r="AE16" s="69"/>
       <c r="AF16" s="53"/>
     </row>
@@ -12021,7 +12065,7 @@
       </c>
       <c r="AB18" s="35"/>
       <c r="AC18" s="36"/>
-      <c r="AD18" s="253" t="s">
+      <c r="AD18" s="268" t="s">
         <v>187</v>
       </c>
       <c r="AE18" s="53"/>
@@ -12060,7 +12104,7 @@
         <v>148</v>
       </c>
       <c r="AC19" s="22"/>
-      <c r="AD19" s="254"/>
+      <c r="AD19" s="269"/>
       <c r="AE19" s="53"/>
       <c r="AF19" s="53"/>
     </row>
@@ -12247,7 +12291,7 @@
       </c>
       <c r="AB24" s="35"/>
       <c r="AC24" s="36"/>
-      <c r="AD24" s="253" t="s">
+      <c r="AD24" s="268" t="s">
         <v>188</v>
       </c>
       <c r="AE24" s="1"/>
@@ -12283,7 +12327,7 @@
       <c r="AA25" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="AD25" s="254"/>
+      <c r="AD25" s="269"/>
     </row>
     <row r="26" spans="2:32" ht="15.75" thickBot="1">
       <c r="C26" s="22"/>
@@ -13352,8 +13396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AS89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L88" sqref="L88"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:AT85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13363,9 +13407,9 @@
     <col min="3" max="3" width="1.85546875" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="1.85546875" customWidth="1"/>
-    <col min="7" max="7" width="1.140625" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="1.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" customWidth="1"/>
     <col min="10" max="10" width="2" customWidth="1"/>
     <col min="11" max="11" width="1.28515625" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" customWidth="1"/>
@@ -13410,12 +13454,15 @@
     <row r="3" spans="2:25" ht="15.75" thickBot="1">
       <c r="D3" s="133"/>
       <c r="E3" s="133"/>
-      <c r="H3" s="269" t="s">
+      <c r="H3" s="388" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="270"/>
+      <c r="I3" s="389"/>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
+      <c r="T3" s="390" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="4" spans="2:25" ht="15.75" thickBot="1">
       <c r="E4" s="48"/>
@@ -13433,7 +13480,9 @@
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
       <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
+      <c r="T4" s="391" t="s">
+        <v>373</v>
+      </c>
       <c r="U4" s="22"/>
       <c r="V4" s="22"/>
       <c r="W4" s="22"/>
@@ -13460,61 +13509,61 @@
       <c r="Y5" s="22"/>
     </row>
     <row r="6" spans="2:25">
-      <c r="B6" s="255">
+      <c r="B6" s="275">
         <v>1</v>
       </c>
       <c r="C6" s="202"/>
-      <c r="D6" s="263" t="s">
+      <c r="D6" s="277" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="264"/>
+      <c r="E6" s="278"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
-      <c r="H6" s="263" t="s">
+      <c r="H6" s="277" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="264"/>
+      <c r="I6" s="278"/>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
-      <c r="L6" s="383" t="s">
+      <c r="L6" s="366" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="384"/>
+      <c r="M6" s="367"/>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
-      <c r="P6" s="263" t="s">
+      <c r="P6" s="277" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="264"/>
+      <c r="Q6" s="278"/>
       <c r="R6" s="22"/>
       <c r="S6" s="22"/>
       <c r="Y6" s="22"/>
     </row>
     <row r="7" spans="2:25" ht="15.75" thickBot="1">
-      <c r="B7" s="256"/>
+      <c r="B7" s="276"/>
       <c r="C7" s="59"/>
-      <c r="D7" s="271" t="s">
+      <c r="D7" s="279" t="s">
         <v>262</v>
       </c>
-      <c r="E7" s="272"/>
+      <c r="E7" s="280"/>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
-      <c r="H7" s="271" t="s">
+      <c r="H7" s="279" t="s">
         <v>261</v>
       </c>
-      <c r="I7" s="272"/>
+      <c r="I7" s="280"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
-      <c r="L7" s="385" t="s">
+      <c r="L7" s="378" t="s">
         <v>260</v>
       </c>
-      <c r="M7" s="386"/>
+      <c r="M7" s="379"/>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
-      <c r="P7" s="271" t="s">
+      <c r="P7" s="279" t="s">
         <v>263</v>
       </c>
-      <c r="Q7" s="272"/>
+      <c r="Q7" s="280"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
     </row>
@@ -13527,16 +13576,16 @@
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
-      <c r="L8" s="387" t="s">
+      <c r="L8" s="368" t="s">
         <v>243</v>
       </c>
-      <c r="M8" s="388"/>
+      <c r="M8" s="369"/>
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
-      <c r="X8" s="275"/>
-      <c r="Y8" s="275"/>
+      <c r="X8" s="287"/>
+      <c r="Y8" s="287"/>
     </row>
     <row r="9" spans="2:25" ht="15.75" thickBot="1">
       <c r="D9" s="22"/>
@@ -13554,7 +13603,7 @@
       <c r="W9" s="22"/>
     </row>
     <row r="10" spans="2:25">
-      <c r="B10" s="255">
+      <c r="B10" s="275">
         <v>2</v>
       </c>
       <c r="C10" s="201"/>
@@ -13566,10 +13615,10 @@
       <c r="I10" s="199"/>
       <c r="J10" s="199"/>
       <c r="K10" s="200"/>
-      <c r="L10" s="365" t="s">
+      <c r="L10" s="366" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="366"/>
+      <c r="M10" s="367"/>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
       <c r="R10" s="22"/>
@@ -13580,7 +13629,7 @@
       <c r="W10" s="22"/>
     </row>
     <row r="11" spans="2:25" ht="15.75" thickBot="1">
-      <c r="B11" s="256"/>
+      <c r="B11" s="276"/>
       <c r="C11" s="37"/>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -13590,10 +13639,10 @@
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
       <c r="K11" s="161"/>
-      <c r="L11" s="374" t="s">
+      <c r="L11" s="368" t="s">
         <v>259</v>
       </c>
-      <c r="M11" s="368"/>
+      <c r="M11" s="369"/>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
       <c r="R11" s="22"/>
@@ -13626,7 +13675,7 @@
       <c r="W12" s="22"/>
     </row>
     <row r="13" spans="2:25">
-      <c r="B13" s="255">
+      <c r="B13" s="275">
         <v>3</v>
       </c>
       <c r="C13" s="201"/>
@@ -13638,10 +13687,10 @@
       <c r="I13" s="199"/>
       <c r="J13" s="199"/>
       <c r="K13" s="200"/>
-      <c r="L13" s="365" t="s">
+      <c r="L13" s="366" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="366"/>
+      <c r="M13" s="367"/>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
       <c r="R13" s="22"/>
@@ -13652,7 +13701,7 @@
       <c r="W13" s="22"/>
     </row>
     <row r="14" spans="2:25" ht="15.75" thickBot="1">
-      <c r="B14" s="256"/>
+      <c r="B14" s="276"/>
       <c r="C14" s="37"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -13662,10 +13711,10 @@
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
       <c r="K14" s="161"/>
-      <c r="L14" s="374" t="s">
+      <c r="L14" s="368" t="s">
         <v>259</v>
       </c>
-      <c r="M14" s="368"/>
+      <c r="M14" s="369"/>
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
       <c r="R14" s="22"/>
@@ -13698,7 +13747,7 @@
       <c r="W15" s="22"/>
     </row>
     <row r="16" spans="2:25">
-      <c r="B16" s="255">
+      <c r="B16" s="275">
         <v>4</v>
       </c>
       <c r="C16" s="201"/>
@@ -13710,10 +13759,10 @@
       <c r="I16" s="199"/>
       <c r="J16" s="199"/>
       <c r="K16" s="200"/>
-      <c r="L16" s="365" t="s">
+      <c r="L16" s="366" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="366"/>
+      <c r="M16" s="367"/>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
       <c r="R16" s="22"/>
@@ -13724,7 +13773,7 @@
       <c r="W16" s="22"/>
     </row>
     <row r="17" spans="2:41" ht="15.75" thickBot="1">
-      <c r="B17" s="256"/>
+      <c r="B17" s="276"/>
       <c r="C17" s="37"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
@@ -13734,10 +13783,10 @@
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
       <c r="K17" s="161"/>
-      <c r="L17" s="374" t="s">
+      <c r="L17" s="368" t="s">
         <v>258</v>
       </c>
-      <c r="M17" s="368"/>
+      <c r="M17" s="369"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
       <c r="R17" s="22"/>
@@ -13770,7 +13819,7 @@
       <c r="W18" s="22"/>
     </row>
     <row r="19" spans="2:41">
-      <c r="B19" s="255">
+      <c r="B19" s="275">
         <v>5</v>
       </c>
       <c r="C19" s="201"/>
@@ -13782,10 +13831,10 @@
       <c r="I19" s="199"/>
       <c r="J19" s="199"/>
       <c r="K19" s="200"/>
-      <c r="L19" s="365" t="s">
+      <c r="L19" s="366" t="s">
         <v>257</v>
       </c>
-      <c r="M19" s="366"/>
+      <c r="M19" s="367"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
       <c r="R19" s="22"/>
@@ -13801,7 +13850,7 @@
       <c r="AB19" s="22"/>
     </row>
     <row r="20" spans="2:41" ht="15.75" thickBot="1">
-      <c r="B20" s="256"/>
+      <c r="B20" s="276"/>
       <c r="C20" s="37"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
@@ -13811,10 +13860,10 @@
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
       <c r="K20" s="161"/>
-      <c r="L20" s="374" t="s">
+      <c r="L20" s="368" t="s">
         <v>88</v>
       </c>
-      <c r="M20" s="368"/>
+      <c r="M20" s="369"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
       <c r="R20" s="22"/>
@@ -13891,7 +13940,7 @@
       <c r="AG22" s="22"/>
     </row>
     <row r="23" spans="2:41">
-      <c r="B23" s="255">
+      <c r="B23" s="275">
         <v>6</v>
       </c>
       <c r="C23" s="201"/>
@@ -13899,19 +13948,19 @@
       <c r="E23" s="199"/>
       <c r="F23" s="199"/>
       <c r="G23" s="200"/>
-      <c r="H23" s="365" t="s">
+      <c r="H23" s="366" t="s">
         <v>293</v>
       </c>
-      <c r="I23" s="366"/>
+      <c r="I23" s="367"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
       <c r="M23" s="22"/>
       <c r="N23" s="22"/>
       <c r="O23" s="22"/>
-      <c r="P23" s="263" t="s">
+      <c r="P23" s="277" t="s">
         <v>292</v>
       </c>
-      <c r="Q23" s="264"/>
+      <c r="Q23" s="278"/>
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
       <c r="T23" s="22"/>
@@ -13928,22 +13977,22 @@
       <c r="AG23" s="22"/>
     </row>
     <row r="24" spans="2:41" ht="15.75" thickBot="1">
-      <c r="B24" s="256"/>
+      <c r="B24" s="276"/>
       <c r="C24" s="37"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="161"/>
-      <c r="H24" s="374" t="s">
+      <c r="H24" s="368" t="s">
         <v>87</v>
       </c>
-      <c r="I24" s="368"/>
+      <c r="I24" s="369"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
-      <c r="P24" s="273" t="s">
+      <c r="P24" s="281" t="s">
         <v>256</v>
       </c>
-      <c r="Q24" s="274"/>
+      <c r="Q24" s="282"/>
       <c r="X24" s="22"/>
       <c r="Y24" s="22"/>
       <c r="Z24" s="22"/>
@@ -14027,20 +14076,20 @@
       <c r="AK26" s="22"/>
     </row>
     <row r="27" spans="2:41">
-      <c r="B27" s="255">
+      <c r="B27" s="275">
         <v>7</v>
       </c>
       <c r="C27" s="202"/>
-      <c r="D27" s="263" t="s">
+      <c r="D27" s="277" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="264"/>
+      <c r="E27" s="278"/>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="L27" s="365" t="s">
+      <c r="L27" s="366" t="s">
         <v>24</v>
       </c>
-      <c r="M27" s="366"/>
+      <c r="M27" s="367"/>
       <c r="W27" s="22"/>
       <c r="X27" s="133"/>
       <c r="Y27" s="133"/>
@@ -14054,22 +14103,22 @@
       <c r="AG27" s="133"/>
       <c r="AH27" s="22"/>
       <c r="AI27" s="22"/>
-      <c r="AJ27" s="275"/>
-      <c r="AK27" s="275"/>
+      <c r="AJ27" s="287"/>
+      <c r="AK27" s="287"/>
     </row>
     <row r="28" spans="2:41" ht="15.75" thickBot="1">
-      <c r="B28" s="256"/>
+      <c r="B28" s="276"/>
       <c r="C28" s="59"/>
-      <c r="D28" s="273" t="s">
+      <c r="D28" s="281" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="274"/>
+      <c r="E28" s="282"/>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
-      <c r="L28" s="381" t="s">
+      <c r="L28" s="380" t="s">
         <v>72</v>
       </c>
-      <c r="M28" s="382"/>
+      <c r="M28" s="381"/>
       <c r="T28" s="22"/>
       <c r="U28" s="22"/>
       <c r="X28" s="133"/>
@@ -14084,8 +14133,8 @@
       <c r="AG28" s="133"/>
       <c r="AH28" s="22"/>
       <c r="AI28" s="22"/>
-      <c r="AJ28" s="275"/>
-      <c r="AK28" s="275"/>
+      <c r="AJ28" s="287"/>
+      <c r="AK28" s="287"/>
     </row>
     <row r="29" spans="2:41" ht="15.75" thickBot="1">
       <c r="D29" s="22"/>
@@ -14093,10 +14142,10 @@
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
       <c r="I29" s="22"/>
-      <c r="L29" s="374" t="s">
+      <c r="L29" s="368" t="s">
         <v>73</v>
       </c>
-      <c r="M29" s="368"/>
+      <c r="M29" s="369"/>
       <c r="T29" s="22"/>
       <c r="U29" s="22"/>
       <c r="V29" s="22"/>
@@ -14201,38 +14250,38 @@
       <c r="AO31" s="22"/>
     </row>
     <row r="32" spans="2:41">
-      <c r="B32" s="255">
+      <c r="B32" s="275">
         <v>8</v>
       </c>
       <c r="C32" s="202"/>
-      <c r="D32" s="263" t="s">
+      <c r="D32" s="277" t="s">
         <v>255</v>
       </c>
-      <c r="E32" s="264"/>
+      <c r="E32" s="278"/>
       <c r="F32" s="152"/>
       <c r="G32" s="152"/>
-      <c r="H32" s="365" t="s">
+      <c r="H32" s="366" t="s">
         <v>31</v>
       </c>
-      <c r="I32" s="366"/>
+      <c r="I32" s="367"/>
       <c r="J32" s="152"/>
       <c r="K32" s="152"/>
-      <c r="L32" s="263" t="s">
+      <c r="L32" s="277" t="s">
         <v>35</v>
       </c>
-      <c r="M32" s="264"/>
+      <c r="M32" s="278"/>
       <c r="N32" s="152"/>
       <c r="O32" s="152"/>
-      <c r="P32" s="263" t="s">
+      <c r="P32" s="277" t="s">
         <v>36</v>
       </c>
-      <c r="Q32" s="264"/>
+      <c r="Q32" s="278"/>
       <c r="R32" s="153"/>
       <c r="S32" s="153"/>
-      <c r="T32" s="263" t="s">
+      <c r="T32" s="277" t="s">
         <v>208</v>
       </c>
-      <c r="U32" s="264"/>
+      <c r="U32" s="278"/>
       <c r="X32" s="133"/>
       <c r="Y32" s="133"/>
       <c r="AB32" s="22"/>
@@ -14251,28 +14300,28 @@
       <c r="AO32" s="22"/>
     </row>
     <row r="33" spans="2:41" ht="15.75" thickBot="1">
-      <c r="B33" s="256"/>
+      <c r="B33" s="276"/>
       <c r="C33" s="59"/>
-      <c r="D33" s="273" t="s">
+      <c r="D33" s="281" t="s">
         <v>88</v>
       </c>
-      <c r="E33" s="274"/>
+      <c r="E33" s="282"/>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="381" t="s">
+      <c r="H33" s="380" t="s">
         <v>84</v>
       </c>
-      <c r="I33" s="382"/>
+      <c r="I33" s="381"/>
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
-      <c r="L33" s="267"/>
-      <c r="M33" s="268"/>
+      <c r="L33" s="285"/>
+      <c r="M33" s="286"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
-      <c r="P33" s="267"/>
-      <c r="Q33" s="268"/>
-      <c r="T33" s="267"/>
-      <c r="U33" s="268"/>
+      <c r="P33" s="285"/>
+      <c r="Q33" s="286"/>
+      <c r="T33" s="285"/>
+      <c r="U33" s="286"/>
       <c r="X33" s="133"/>
       <c r="Y33" s="133"/>
       <c r="AB33" s="22"/>
@@ -14295,10 +14344,10 @@
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="374" t="s">
+      <c r="H34" s="368" t="s">
         <v>86</v>
       </c>
-      <c r="I34" s="368"/>
+      <c r="I34" s="369"/>
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
       <c r="M34" s="22"/>
@@ -14375,26 +14424,26 @@
       <c r="AF36" s="22"/>
     </row>
     <row r="37" spans="2:41">
-      <c r="B37" s="255">
+      <c r="B37" s="275">
         <v>9</v>
       </c>
       <c r="C37" s="202"/>
-      <c r="D37" s="263" t="s">
+      <c r="D37" s="277" t="s">
         <v>254</v>
       </c>
-      <c r="E37" s="264"/>
+      <c r="E37" s="278"/>
       <c r="F37" s="152"/>
       <c r="G37" s="152"/>
-      <c r="H37" s="365" t="s">
+      <c r="H37" s="366" t="s">
         <v>33</v>
       </c>
-      <c r="I37" s="366"/>
+      <c r="I37" s="367"/>
       <c r="J37" s="152"/>
       <c r="K37" s="152"/>
-      <c r="L37" s="263" t="s">
+      <c r="L37" s="277" t="s">
         <v>34</v>
       </c>
-      <c r="M37" s="264"/>
+      <c r="M37" s="278"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
       <c r="P37" s="22"/>
@@ -14414,24 +14463,24 @@
       <c r="AF37" s="22"/>
     </row>
     <row r="38" spans="2:41" ht="15.75" thickBot="1">
-      <c r="B38" s="256"/>
+      <c r="B38" s="276"/>
       <c r="C38" s="59"/>
-      <c r="D38" s="265" t="s">
+      <c r="D38" s="283" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="266"/>
+      <c r="E38" s="284"/>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
-      <c r="H38" s="379" t="s">
+      <c r="H38" s="382" t="s">
         <v>84</v>
       </c>
-      <c r="I38" s="380"/>
+      <c r="I38" s="383"/>
       <c r="J38" s="22"/>
       <c r="K38" s="22"/>
-      <c r="L38" s="273" t="s">
+      <c r="L38" s="281" t="s">
         <v>85</v>
       </c>
-      <c r="M38" s="274"/>
+      <c r="M38" s="282"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
       <c r="T38" s="22"/>
@@ -14449,10 +14498,10 @@
       <c r="AF38" s="22"/>
     </row>
     <row r="39" spans="2:41" ht="15.75" thickBot="1">
-      <c r="D39" s="273" t="s">
+      <c r="D39" s="281" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="274"/>
+      <c r="E39" s="282"/>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
       <c r="I39" s="45"/>
@@ -14462,8 +14511,8 @@
       <c r="M39" s="133"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
-      <c r="P39" s="275"/>
-      <c r="Q39" s="275"/>
+      <c r="P39" s="287"/>
+      <c r="Q39" s="287"/>
       <c r="T39" s="22"/>
       <c r="U39" s="22"/>
       <c r="V39" s="22"/>
@@ -14534,26 +14583,26 @@
       <c r="AE41" s="22"/>
     </row>
     <row r="42" spans="2:41">
-      <c r="B42" s="255">
+      <c r="B42" s="275">
         <v>10</v>
       </c>
       <c r="C42" s="202"/>
-      <c r="D42" s="263" t="s">
+      <c r="D42" s="277" t="s">
         <v>50</v>
       </c>
-      <c r="E42" s="264"/>
+      <c r="E42" s="278"/>
       <c r="F42" s="152"/>
       <c r="G42" s="152"/>
-      <c r="H42" s="263" t="s">
+      <c r="H42" s="277" t="s">
         <v>48</v>
       </c>
-      <c r="I42" s="264"/>
+      <c r="I42" s="278"/>
       <c r="J42" s="152"/>
       <c r="K42" s="152"/>
-      <c r="L42" s="365" t="s">
+      <c r="L42" s="366" t="s">
         <v>295</v>
       </c>
-      <c r="M42" s="366"/>
+      <c r="M42" s="367"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
       <c r="R42" s="22"/>
@@ -14572,18 +14621,18 @@
       <c r="AE42" s="22"/>
     </row>
     <row r="43" spans="2:41" ht="15.75" thickBot="1">
-      <c r="B43" s="256"/>
+      <c r="B43" s="276"/>
       <c r="C43" s="59"/>
-      <c r="D43" s="271"/>
-      <c r="E43" s="272"/>
+      <c r="D43" s="279"/>
+      <c r="E43" s="280"/>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="271"/>
-      <c r="I43" s="272"/>
+      <c r="H43" s="279"/>
+      <c r="I43" s="280"/>
       <c r="J43" s="22"/>
       <c r="K43" s="22"/>
-      <c r="L43" s="377"/>
-      <c r="M43" s="378"/>
+      <c r="L43" s="384"/>
+      <c r="M43" s="385"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
       <c r="R43" s="22"/>
@@ -14656,7 +14705,7 @@
       <c r="AF45" s="22"/>
     </row>
     <row r="46" spans="2:41">
-      <c r="B46" s="255">
+      <c r="B46" s="275">
         <v>11</v>
       </c>
       <c r="C46" s="201"/>
@@ -14668,10 +14717,10 @@
       <c r="I46" s="203"/>
       <c r="J46" s="203"/>
       <c r="K46" s="204"/>
-      <c r="L46" s="365" t="s">
+      <c r="L46" s="366" t="s">
         <v>54</v>
       </c>
-      <c r="M46" s="366"/>
+      <c r="M46" s="367"/>
       <c r="N46" s="56"/>
       <c r="AB46" s="22"/>
       <c r="AC46" s="22"/>
@@ -14680,7 +14729,7 @@
       <c r="AF46" s="22"/>
     </row>
     <row r="47" spans="2:41" ht="15.75" thickBot="1">
-      <c r="B47" s="256"/>
+      <c r="B47" s="276"/>
       <c r="C47" s="37"/>
       <c r="D47" s="22"/>
       <c r="E47" s="22"/>
@@ -14690,8 +14739,8 @@
       <c r="I47" s="53"/>
       <c r="J47" s="53"/>
       <c r="K47" s="162"/>
-      <c r="L47" s="375"/>
-      <c r="M47" s="376"/>
+      <c r="L47" s="386"/>
+      <c r="M47" s="387"/>
       <c r="N47" s="56"/>
     </row>
     <row r="48" spans="2:41" ht="15.75" thickBot="1">
@@ -14708,7 +14757,7 @@
       <c r="N48" s="56"/>
     </row>
     <row r="49" spans="2:31">
-      <c r="B49" s="255">
+      <c r="B49" s="275">
         <v>12</v>
       </c>
       <c r="C49" s="201"/>
@@ -14720,16 +14769,16 @@
       <c r="I49" s="203"/>
       <c r="J49" s="203"/>
       <c r="K49" s="204"/>
-      <c r="L49" s="365" t="s">
+      <c r="L49" s="366" t="s">
         <v>133</v>
       </c>
-      <c r="M49" s="366"/>
+      <c r="M49" s="367"/>
       <c r="N49" s="56"/>
       <c r="P49" s="22"/>
       <c r="Q49" s="22"/>
     </row>
     <row r="50" spans="2:31" ht="15.75" thickBot="1">
-      <c r="B50" s="256"/>
+      <c r="B50" s="276"/>
       <c r="C50" s="37"/>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
@@ -14739,8 +14788,8 @@
       <c r="I50" s="53"/>
       <c r="J50" s="53"/>
       <c r="K50" s="162"/>
-      <c r="L50" s="375"/>
-      <c r="M50" s="376"/>
+      <c r="L50" s="386"/>
+      <c r="M50" s="387"/>
       <c r="N50" s="56"/>
       <c r="P50" s="22"/>
       <c r="Q50" s="22"/>
@@ -14779,7 +14828,7 @@
       <c r="R52" s="22"/>
     </row>
     <row r="53" spans="2:31">
-      <c r="B53" s="255">
+      <c r="B53" s="275">
         <v>13</v>
       </c>
       <c r="C53" s="201"/>
@@ -14787,41 +14836,41 @@
       <c r="E53" s="199"/>
       <c r="F53" s="199"/>
       <c r="G53" s="200"/>
-      <c r="H53" s="263" t="s">
+      <c r="H53" s="277" t="s">
         <v>56</v>
       </c>
-      <c r="I53" s="264"/>
+      <c r="I53" s="278"/>
       <c r="J53" s="152"/>
       <c r="K53" s="152"/>
       <c r="L53" s="153"/>
       <c r="M53" s="152"/>
       <c r="N53" s="153"/>
       <c r="O53" s="153"/>
-      <c r="P53" s="365" t="s">
+      <c r="P53" s="366" t="s">
         <v>321</v>
       </c>
-      <c r="Q53" s="366"/>
+      <c r="Q53" s="367"/>
       <c r="R53" s="22"/>
     </row>
     <row r="54" spans="2:31" ht="15.75" thickBot="1">
-      <c r="B54" s="256"/>
+      <c r="B54" s="276"/>
       <c r="C54" s="37"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
       <c r="G54" s="161"/>
-      <c r="H54" s="273" t="s">
+      <c r="H54" s="281" t="s">
         <v>63</v>
       </c>
-      <c r="I54" s="274"/>
+      <c r="I54" s="282"/>
       <c r="J54" s="22"/>
       <c r="K54" s="22"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
-      <c r="P54" s="374" t="s">
+      <c r="P54" s="368" t="s">
         <v>64</v>
       </c>
-      <c r="Q54" s="368"/>
+      <c r="Q54" s="369"/>
     </row>
     <row r="55" spans="2:31" ht="15.75" thickBot="1">
       <c r="D55" s="22"/>
@@ -14858,7 +14907,7 @@
       <c r="U56" s="35"/>
     </row>
     <row r="57" spans="2:31">
-      <c r="B57" s="255">
+      <c r="B57" s="275">
         <v>14</v>
       </c>
       <c r="C57" s="201"/>
@@ -14870,25 +14919,25 @@
       <c r="I57" s="199"/>
       <c r="J57" s="199"/>
       <c r="K57" s="200"/>
-      <c r="L57" s="263" t="s">
+      <c r="L57" s="277" t="s">
         <v>58</v>
       </c>
-      <c r="M57" s="264"/>
+      <c r="M57" s="278"/>
       <c r="N57" s="153"/>
       <c r="O57" s="153"/>
-      <c r="P57" s="365" t="s">
+      <c r="P57" s="366" t="s">
         <v>242</v>
       </c>
-      <c r="Q57" s="366"/>
+      <c r="Q57" s="367"/>
       <c r="R57" s="153"/>
       <c r="S57" s="153"/>
-      <c r="T57" s="263" t="s">
+      <c r="T57" s="277" t="s">
         <v>59</v>
       </c>
-      <c r="U57" s="264"/>
+      <c r="U57" s="278"/>
     </row>
     <row r="58" spans="2:31" ht="15.75" thickBot="1">
-      <c r="B58" s="256"/>
+      <c r="B58" s="276"/>
       <c r="C58" s="37"/>
       <c r="D58" s="22"/>
       <c r="E58" s="22"/>
@@ -14898,18 +14947,18 @@
       <c r="I58" s="22"/>
       <c r="J58" s="22"/>
       <c r="K58" s="161"/>
-      <c r="L58" s="273" t="s">
+      <c r="L58" s="281" t="s">
         <v>69</v>
       </c>
-      <c r="M58" s="274"/>
-      <c r="P58" s="374" t="s">
+      <c r="M58" s="282"/>
+      <c r="P58" s="368" t="s">
         <v>64</v>
       </c>
-      <c r="Q58" s="368"/>
-      <c r="T58" s="273" t="s">
+      <c r="Q58" s="369"/>
+      <c r="T58" s="281" t="s">
         <v>79</v>
       </c>
-      <c r="U58" s="274"/>
+      <c r="U58" s="282"/>
     </row>
     <row r="59" spans="2:31" ht="15.75" thickBot="1">
       <c r="D59" s="22"/>
@@ -14939,7 +14988,7 @@
       <c r="J60" s="22"/>
       <c r="K60" s="22"/>
       <c r="L60" s="133"/>
-      <c r="M60" s="346" t="s">
+      <c r="M60" s="229" t="s">
         <v>284</v>
       </c>
       <c r="N60" s="194"/>
@@ -14956,7 +15005,7 @@
       </c>
     </row>
     <row r="61" spans="2:31">
-      <c r="B61" s="255">
+      <c r="B61" s="275">
         <v>15</v>
       </c>
       <c r="C61" s="201"/>
@@ -14968,28 +15017,28 @@
       <c r="I61" s="199"/>
       <c r="J61" s="199"/>
       <c r="K61" s="200"/>
-      <c r="L61" s="365" t="s">
+      <c r="L61" s="370" t="s">
         <v>60</v>
       </c>
-      <c r="M61" s="366"/>
+      <c r="M61" s="371"/>
       <c r="N61" s="153"/>
       <c r="O61" s="153"/>
-      <c r="P61" s="263" t="s">
+      <c r="P61" s="277" t="s">
         <v>264</v>
       </c>
-      <c r="Q61" s="264"/>
+      <c r="Q61" s="278"/>
       <c r="R61" s="153"/>
       <c r="S61" s="152"/>
-      <c r="T61" s="263" t="s">
+      <c r="T61" s="277" t="s">
         <v>265</v>
       </c>
-      <c r="U61" s="264"/>
+      <c r="U61" s="278"/>
       <c r="AC61" s="22"/>
       <c r="AD61" s="22"/>
       <c r="AE61" s="22"/>
     </row>
     <row r="62" spans="2:31" ht="15.75" thickBot="1">
-      <c r="B62" s="256"/>
+      <c r="B62" s="276"/>
       <c r="C62" s="37"/>
       <c r="D62" s="22"/>
       <c r="E62" s="22"/>
@@ -14999,15 +15048,15 @@
       <c r="I62" s="22"/>
       <c r="J62" s="22"/>
       <c r="K62" s="22"/>
-      <c r="L62" s="367" t="s">
+      <c r="L62" s="372" t="s">
         <v>63</v>
       </c>
-      <c r="M62" s="368"/>
-      <c r="P62" s="267"/>
-      <c r="Q62" s="268"/>
+      <c r="M62" s="373"/>
+      <c r="P62" s="285"/>
+      <c r="Q62" s="286"/>
       <c r="S62" s="22"/>
-      <c r="T62" s="267"/>
-      <c r="U62" s="268"/>
+      <c r="T62" s="285"/>
+      <c r="U62" s="286"/>
       <c r="Y62" s="22"/>
       <c r="Z62" s="22"/>
       <c r="AA62" s="22"/>
@@ -15092,7 +15141,7 @@
       <c r="N65" s="194"/>
       <c r="O65" s="194"/>
       <c r="P65" s="194"/>
-      <c r="Q65" s="190" t="s">
+      <c r="Q65" s="191" t="s">
         <v>287</v>
       </c>
       <c r="R65" s="194"/>
@@ -15128,7 +15177,7 @@
       <c r="AS65" s="196"/>
     </row>
     <row r="66" spans="1:45">
-      <c r="B66" s="255">
+      <c r="B66" s="275">
         <v>16</v>
       </c>
       <c r="C66" s="201"/>
@@ -15136,65 +15185,65 @@
       <c r="E66" s="199"/>
       <c r="F66" s="199"/>
       <c r="G66" s="53"/>
-      <c r="H66" s="285" t="s">
+      <c r="H66" s="366" t="s">
         <v>62</v>
       </c>
-      <c r="I66" s="286"/>
+      <c r="I66" s="367"/>
       <c r="J66" s="152"/>
       <c r="K66" s="152"/>
       <c r="L66" s="22"/>
       <c r="M66" s="22"/>
       <c r="N66" s="152"/>
       <c r="O66" s="152"/>
-      <c r="P66" s="263" t="s">
+      <c r="P66" s="307" t="s">
         <v>294</v>
       </c>
-      <c r="Q66" s="264"/>
+      <c r="Q66" s="308"/>
       <c r="R66" s="22"/>
       <c r="S66" s="22"/>
       <c r="T66" s="22"/>
-      <c r="X66" s="263" t="s">
+      <c r="X66" s="307" t="s">
         <v>132</v>
       </c>
-      <c r="Y66" s="264"/>
-      <c r="AB66" s="356" t="s">
+      <c r="Y66" s="308"/>
+      <c r="AB66" s="270" t="s">
         <v>339</v>
       </c>
-      <c r="AC66" s="357"/>
+      <c r="AC66" s="271"/>
       <c r="AD66" s="22"/>
       <c r="AE66" s="22"/>
     </row>
     <row r="67" spans="1:45" ht="15.75" thickBot="1">
-      <c r="B67" s="256"/>
+      <c r="B67" s="276"/>
       <c r="C67" s="37"/>
       <c r="D67" s="22"/>
       <c r="E67" s="22"/>
       <c r="F67" s="22"/>
       <c r="G67" s="53"/>
-      <c r="H67" s="321" t="s">
+      <c r="H67" s="392" t="s">
         <v>63</v>
       </c>
-      <c r="I67" s="322"/>
+      <c r="I67" s="393"/>
       <c r="J67" s="22"/>
       <c r="K67" s="22"/>
       <c r="L67" s="22"/>
       <c r="M67" s="22"/>
       <c r="N67" s="226"/>
       <c r="O67" s="22"/>
-      <c r="P67" s="265" t="s">
+      <c r="P67" s="374" t="s">
         <v>274</v>
       </c>
-      <c r="Q67" s="266"/>
+      <c r="Q67" s="375"/>
       <c r="R67" s="22"/>
       <c r="S67" s="22"/>
-      <c r="X67" s="265" t="s">
+      <c r="X67" s="376" t="s">
         <v>252</v>
       </c>
-      <c r="Y67" s="266"/>
-      <c r="AB67" s="358" t="s">
+      <c r="Y67" s="377"/>
+      <c r="AB67" s="272" t="s">
         <v>160</v>
       </c>
-      <c r="AC67" s="359"/>
+      <c r="AC67" s="273"/>
       <c r="AD67" s="22"/>
       <c r="AE67" s="22"/>
     </row>
@@ -15203,22 +15252,22 @@
       <c r="E68" s="22"/>
       <c r="F68" s="22"/>
       <c r="G68" s="53"/>
-      <c r="H68" s="293" t="s">
+      <c r="H68" s="372" t="s">
         <v>65</v>
       </c>
-      <c r="I68" s="294"/>
+      <c r="I68" s="373"/>
       <c r="J68" s="22"/>
       <c r="K68" s="22"/>
       <c r="N68" s="38"/>
       <c r="O68" s="22"/>
-      <c r="P68" s="267"/>
-      <c r="Q68" s="268"/>
+      <c r="P68" s="287"/>
+      <c r="Q68" s="287"/>
       <c r="R68" s="22"/>
       <c r="S68" s="22"/>
-      <c r="X68" s="273" t="s">
+      <c r="X68" s="374" t="s">
         <v>149</v>
       </c>
-      <c r="Y68" s="274"/>
+      <c r="Y68" s="375"/>
       <c r="Z68" s="22"/>
       <c r="AA68" s="22"/>
       <c r="AB68" s="22"/>
@@ -15230,7 +15279,7 @@
       <c r="F69" s="22"/>
       <c r="G69" s="53"/>
       <c r="H69" s="227"/>
-      <c r="I69" s="350"/>
+      <c r="I69" s="233"/>
       <c r="J69" s="48"/>
       <c r="K69" s="48"/>
       <c r="L69" s="48"/>
@@ -15260,7 +15309,7 @@
       <c r="F70" s="48"/>
       <c r="G70" s="48"/>
       <c r="H70" s="48"/>
-      <c r="I70" s="361"/>
+      <c r="I70" s="240"/>
       <c r="J70" s="48"/>
       <c r="K70" s="48"/>
       <c r="L70" s="48"/>
@@ -15356,133 +15405,133 @@
       </c>
     </row>
     <row r="72" spans="1:45">
-      <c r="B72" s="255">
+      <c r="B72" s="275">
         <v>17</v>
       </c>
       <c r="C72" s="202"/>
-      <c r="D72" s="369" t="s">
+      <c r="D72" s="366" t="s">
         <v>145</v>
       </c>
-      <c r="E72" s="370"/>
+      <c r="E72" s="367"/>
       <c r="F72" s="22"/>
       <c r="G72" s="22"/>
       <c r="J72" s="143"/>
       <c r="K72" s="22"/>
-      <c r="L72" s="263" t="s">
+      <c r="L72" s="366" t="s">
         <v>236</v>
       </c>
-      <c r="M72" s="264"/>
+      <c r="M72" s="367"/>
       <c r="N72" s="142"/>
       <c r="O72" s="152"/>
       <c r="P72" s="22"/>
       <c r="Q72" s="22"/>
       <c r="R72" s="142"/>
       <c r="S72" s="152"/>
-      <c r="T72" s="369" t="s">
+      <c r="T72" s="366" t="s">
         <v>81</v>
       </c>
-      <c r="U72" s="370"/>
+      <c r="U72" s="367"/>
       <c r="V72" s="133"/>
       <c r="W72" s="22"/>
-      <c r="X72" s="356" t="s">
+      <c r="X72" s="270" t="s">
         <v>341</v>
       </c>
-      <c r="Y72" s="357"/>
+      <c r="Y72" s="271"/>
       <c r="Z72" s="143"/>
       <c r="AA72" s="22"/>
-      <c r="AB72" s="356" t="s">
+      <c r="AB72" s="270" t="s">
         <v>342</v>
       </c>
-      <c r="AC72" s="357"/>
+      <c r="AC72" s="271"/>
       <c r="AD72" s="141"/>
       <c r="AE72" s="22"/>
-      <c r="AF72" s="356" t="s">
+      <c r="AF72" s="270" t="s">
         <v>343</v>
       </c>
-      <c r="AG72" s="357"/>
+      <c r="AG72" s="271"/>
       <c r="AH72" s="22"/>
       <c r="AI72" s="22"/>
-      <c r="AJ72" s="356" t="s">
+      <c r="AJ72" s="270" t="s">
         <v>344</v>
       </c>
-      <c r="AK72" s="357"/>
+      <c r="AK72" s="271"/>
       <c r="AL72" s="22"/>
-      <c r="AN72" s="356" t="s">
+      <c r="AN72" s="270" t="s">
         <v>346</v>
       </c>
-      <c r="AO72" s="357"/>
+      <c r="AO72" s="271"/>
       <c r="AP72" s="38"/>
-      <c r="AR72" s="356" t="s">
+      <c r="AR72" s="270" t="s">
         <v>347</v>
       </c>
-      <c r="AS72" s="357"/>
+      <c r="AS72" s="271"/>
     </row>
     <row r="73" spans="1:45" ht="15.75" thickBot="1">
-      <c r="B73" s="256"/>
+      <c r="B73" s="276"/>
       <c r="C73" s="59"/>
-      <c r="D73" s="373" t="s">
+      <c r="D73" s="368" t="s">
         <v>67</v>
       </c>
-      <c r="E73" s="372"/>
+      <c r="E73" s="369"/>
       <c r="F73" s="22"/>
       <c r="G73" s="22"/>
       <c r="J73" s="143"/>
       <c r="K73" s="22"/>
-      <c r="L73" s="273" t="s">
+      <c r="L73" s="368" t="s">
         <v>152</v>
       </c>
-      <c r="M73" s="274"/>
+      <c r="M73" s="369"/>
       <c r="N73" s="226"/>
       <c r="O73" s="22"/>
       <c r="P73" s="22"/>
       <c r="Q73" s="22"/>
       <c r="R73" s="141"/>
       <c r="S73" s="22"/>
-      <c r="T73" s="373" t="s">
+      <c r="T73" s="368" t="s">
         <v>82</v>
       </c>
-      <c r="U73" s="372"/>
+      <c r="U73" s="369"/>
       <c r="V73" s="133"/>
       <c r="W73" s="22"/>
-      <c r="X73" s="358" t="s">
+      <c r="X73" s="272" t="s">
         <v>151</v>
       </c>
-      <c r="Y73" s="359"/>
+      <c r="Y73" s="273"/>
       <c r="Z73" s="143"/>
       <c r="AA73" s="22"/>
-      <c r="AB73" s="358" t="s">
+      <c r="AB73" s="272" t="s">
         <v>160</v>
       </c>
-      <c r="AC73" s="359"/>
+      <c r="AC73" s="273"/>
       <c r="AD73" s="141"/>
       <c r="AE73" s="22"/>
-      <c r="AF73" s="358" t="s">
+      <c r="AF73" s="272" t="s">
         <v>162</v>
       </c>
-      <c r="AG73" s="359"/>
+      <c r="AG73" s="273"/>
       <c r="AH73" s="22"/>
       <c r="AI73" s="22"/>
-      <c r="AJ73" s="358" t="s">
+      <c r="AJ73" s="272" t="s">
         <v>164</v>
       </c>
-      <c r="AK73" s="359"/>
+      <c r="AK73" s="273"/>
       <c r="AL73" s="22"/>
       <c r="AM73" s="22"/>
-      <c r="AN73" s="358" t="s">
+      <c r="AN73" s="272" t="s">
         <v>345</v>
       </c>
-      <c r="AO73" s="359"/>
+      <c r="AO73" s="273"/>
       <c r="AP73" s="38"/>
-      <c r="AR73" s="358" t="s">
+      <c r="AR73" s="272" t="s">
         <v>348</v>
       </c>
-      <c r="AS73" s="359"/>
+      <c r="AS73" s="273"/>
     </row>
     <row r="74" spans="1:45" ht="15.75" thickBot="1">
       <c r="B74" s="225"/>
       <c r="C74" s="53"/>
       <c r="D74" s="227"/>
-      <c r="E74" s="350"/>
+      <c r="E74" s="233"/>
       <c r="F74" s="48"/>
       <c r="G74" s="22"/>
       <c r="H74" s="228"/>
@@ -15490,30 +15539,30 @@
       <c r="J74" s="226"/>
       <c r="K74" s="22"/>
       <c r="L74" s="228"/>
-      <c r="M74" s="352"/>
-      <c r="N74" s="353"/>
+      <c r="M74" s="235"/>
+      <c r="N74" s="236"/>
       <c r="O74" s="22"/>
-      <c r="P74" s="348"/>
+      <c r="P74" s="231"/>
       <c r="Q74" s="228"/>
       <c r="R74" s="226"/>
       <c r="S74" s="22"/>
-      <c r="T74" s="348"/>
-      <c r="U74" s="352"/>
-      <c r="V74" s="355"/>
+      <c r="T74" s="231"/>
+      <c r="U74" s="235"/>
+      <c r="V74" s="238"/>
       <c r="W74" s="48"/>
-      <c r="X74" s="354"/>
-      <c r="Y74" s="347"/>
-      <c r="Z74" s="353"/>
+      <c r="X74" s="237"/>
+      <c r="Y74" s="230"/>
+      <c r="Z74" s="236"/>
       <c r="AA74" s="48"/>
-      <c r="AB74" s="354"/>
-      <c r="AC74" s="347"/>
-      <c r="AD74" s="353"/>
+      <c r="AB74" s="237"/>
+      <c r="AC74" s="230"/>
+      <c r="AD74" s="236"/>
       <c r="AE74" s="22"/>
-      <c r="AF74" s="348"/>
+      <c r="AF74" s="231"/>
       <c r="AG74" s="228"/>
       <c r="AH74" s="22"/>
       <c r="AI74" s="22"/>
-      <c r="AJ74" s="348"/>
+      <c r="AJ74" s="231"/>
       <c r="AK74" s="228"/>
       <c r="AL74" s="22"/>
       <c r="AM74" s="22"/>
@@ -15527,44 +15576,44 @@
       <c r="B75" s="225"/>
       <c r="C75" s="53"/>
       <c r="D75" s="227"/>
-      <c r="E75" s="349"/>
+      <c r="E75" s="232"/>
       <c r="F75" s="48"/>
       <c r="G75" s="35"/>
-      <c r="H75" s="347"/>
+      <c r="H75" s="230"/>
       <c r="I75" s="228"/>
       <c r="J75" s="226"/>
       <c r="K75" s="22"/>
       <c r="L75" s="228"/>
-      <c r="M75" s="347"/>
-      <c r="N75" s="353"/>
+      <c r="M75" s="230"/>
+      <c r="N75" s="236"/>
       <c r="O75" s="35"/>
-      <c r="P75" s="354"/>
+      <c r="P75" s="237"/>
       <c r="Q75" s="228"/>
       <c r="R75" s="226"/>
       <c r="S75" s="22"/>
-      <c r="T75" s="348"/>
-      <c r="U75" s="347"/>
-      <c r="V75" s="360"/>
-      <c r="W75" s="361"/>
-      <c r="X75" s="362"/>
-      <c r="Y75" s="347"/>
-      <c r="Z75" s="353"/>
+      <c r="T75" s="231"/>
+      <c r="U75" s="230"/>
+      <c r="V75" s="239"/>
+      <c r="W75" s="240"/>
+      <c r="X75" s="241"/>
+      <c r="Y75" s="230"/>
+      <c r="Z75" s="236"/>
       <c r="AA75" s="48"/>
-      <c r="AB75" s="362"/>
-      <c r="AC75" s="351"/>
-      <c r="AD75" s="364"/>
+      <c r="AB75" s="241"/>
+      <c r="AC75" s="234"/>
+      <c r="AD75" s="243"/>
       <c r="AE75" s="35"/>
-      <c r="AF75" s="354"/>
-      <c r="AG75" s="347"/>
+      <c r="AF75" s="237"/>
+      <c r="AG75" s="230"/>
       <c r="AH75" s="48"/>
       <c r="AI75" s="48"/>
-      <c r="AJ75" s="354"/>
-      <c r="AK75" s="347"/>
+      <c r="AJ75" s="237"/>
+      <c r="AK75" s="230"/>
       <c r="AL75" s="48"/>
       <c r="AM75" s="48"/>
       <c r="AN75" s="48"/>
       <c r="AO75" s="48"/>
-      <c r="AP75" s="353"/>
+      <c r="AP75" s="236"/>
       <c r="AQ75" s="48"/>
       <c r="AR75" s="48"/>
       <c r="AS75" s="22"/>
@@ -15575,13 +15624,13 @@
       <c r="C76" s="22"/>
       <c r="D76" s="22"/>
       <c r="E76" s="193" t="s">
-        <v>354</v>
+        <v>290</v>
       </c>
       <c r="F76" s="194"/>
       <c r="G76" s="194"/>
       <c r="H76" s="194"/>
       <c r="I76" s="191" t="s">
-        <v>290</v>
+        <v>354</v>
       </c>
       <c r="J76" s="22"/>
       <c r="K76" s="22"/>
@@ -15635,139 +15684,139 @@
     </row>
     <row r="77" spans="1:45">
       <c r="A77" s="22"/>
-      <c r="B77" s="255">
+      <c r="B77" s="275">
         <v>18</v>
       </c>
       <c r="C77" s="202"/>
-      <c r="D77" s="356" t="s">
-        <v>355</v>
-      </c>
-      <c r="E77" s="357"/>
+      <c r="D77" s="366" t="s">
+        <v>253</v>
+      </c>
+      <c r="E77" s="367"/>
       <c r="F77" s="194"/>
       <c r="G77" s="194"/>
-      <c r="H77" s="369" t="s">
-        <v>253</v>
-      </c>
-      <c r="I77" s="370"/>
+      <c r="H77" s="270" t="s">
+        <v>355</v>
+      </c>
+      <c r="I77" s="271"/>
       <c r="J77" s="22"/>
       <c r="K77" s="22"/>
-      <c r="L77" s="356" t="s">
+      <c r="L77" s="270" t="s">
         <v>368</v>
       </c>
-      <c r="M77" s="357"/>
+      <c r="M77" s="271"/>
       <c r="N77" s="30"/>
       <c r="O77" s="30"/>
-      <c r="P77" s="356" t="s">
+      <c r="P77" s="270" t="s">
         <v>369</v>
       </c>
-      <c r="Q77" s="357"/>
+      <c r="Q77" s="271"/>
       <c r="R77" s="30"/>
       <c r="S77" s="30"/>
-      <c r="T77" s="369" t="s">
+      <c r="T77" s="366" t="s">
         <v>159</v>
       </c>
-      <c r="U77" s="370"/>
+      <c r="U77" s="367"/>
       <c r="V77" s="30"/>
       <c r="W77" s="30"/>
-      <c r="X77" s="356" t="s">
+      <c r="X77" s="270" t="s">
         <v>357</v>
       </c>
-      <c r="Y77" s="357"/>
+      <c r="Y77" s="271"/>
       <c r="Z77" s="30"/>
       <c r="AA77" s="30"/>
-      <c r="AB77" s="356" t="s">
+      <c r="AB77" s="270" t="s">
         <v>358</v>
       </c>
-      <c r="AC77" s="357"/>
+      <c r="AC77" s="271"/>
       <c r="AD77" s="30"/>
       <c r="AE77" s="22"/>
-      <c r="AF77" s="356" t="s">
+      <c r="AF77" s="270" t="s">
         <v>361</v>
       </c>
-      <c r="AG77" s="357"/>
+      <c r="AG77" s="271"/>
       <c r="AH77" s="22"/>
       <c r="AI77" s="22"/>
-      <c r="AJ77" s="356" t="s">
+      <c r="AJ77" s="270" t="s">
         <v>366</v>
       </c>
-      <c r="AK77" s="357"/>
+      <c r="AK77" s="271"/>
       <c r="AL77" s="22"/>
       <c r="AM77" s="22"/>
-      <c r="AN77" s="356" t="s">
+      <c r="AN77" s="270" t="s">
         <v>366</v>
       </c>
-      <c r="AO77" s="357"/>
+      <c r="AO77" s="271"/>
       <c r="AP77" s="22"/>
       <c r="AQ77" s="22"/>
-      <c r="AR77" s="356" t="s">
+      <c r="AR77" s="270" t="s">
         <v>364</v>
       </c>
-      <c r="AS77" s="357"/>
+      <c r="AS77" s="271"/>
     </row>
     <row r="78" spans="1:45" ht="15.75" thickBot="1">
       <c r="A78" s="22"/>
-      <c r="B78" s="256"/>
+      <c r="B78" s="276"/>
       <c r="C78" s="22"/>
-      <c r="D78" s="358" t="s">
-        <v>151</v>
-      </c>
-      <c r="E78" s="359"/>
+      <c r="D78" s="368" t="s">
+        <v>152</v>
+      </c>
+      <c r="E78" s="369"/>
       <c r="F78" s="22"/>
       <c r="G78" s="22"/>
-      <c r="H78" s="371" t="s">
-        <v>152</v>
-      </c>
-      <c r="I78" s="372"/>
+      <c r="H78" s="272" t="s">
+        <v>151</v>
+      </c>
+      <c r="I78" s="273"/>
       <c r="J78" s="22"/>
       <c r="K78" s="22"/>
-      <c r="L78" s="358" t="s">
+      <c r="L78" s="272" t="s">
         <v>153</v>
       </c>
-      <c r="M78" s="359"/>
+      <c r="M78" s="273"/>
       <c r="N78" s="130"/>
       <c r="O78" s="130"/>
-      <c r="P78" s="389"/>
-      <c r="Q78" s="359"/>
+      <c r="P78" s="274"/>
+      <c r="Q78" s="273"/>
       <c r="R78" s="38"/>
       <c r="S78" s="130"/>
-      <c r="T78" s="371" t="s">
+      <c r="T78" s="368" t="s">
         <v>115</v>
       </c>
-      <c r="U78" s="372"/>
+      <c r="U78" s="369"/>
       <c r="V78" s="143"/>
       <c r="W78" s="149"/>
-      <c r="X78" s="358"/>
-      <c r="Y78" s="359"/>
+      <c r="X78" s="272"/>
+      <c r="Y78" s="273"/>
       <c r="Z78" s="143"/>
       <c r="AA78" s="30"/>
-      <c r="AB78" s="358"/>
-      <c r="AC78" s="359"/>
+      <c r="AB78" s="272"/>
+      <c r="AC78" s="273"/>
       <c r="AD78" s="30"/>
       <c r="AE78" s="22"/>
-      <c r="AF78" s="358"/>
-      <c r="AG78" s="359"/>
+      <c r="AF78" s="272"/>
+      <c r="AG78" s="273"/>
       <c r="AH78" s="22"/>
       <c r="AI78" s="22"/>
-      <c r="AJ78" s="358"/>
-      <c r="AK78" s="359"/>
+      <c r="AJ78" s="272"/>
+      <c r="AK78" s="273"/>
       <c r="AL78" s="22"/>
       <c r="AM78" s="22"/>
-      <c r="AN78" s="358"/>
-      <c r="AO78" s="359"/>
+      <c r="AN78" s="272"/>
+      <c r="AO78" s="273"/>
       <c r="AP78" s="38"/>
-      <c r="AR78" s="358"/>
-      <c r="AS78" s="359"/>
+      <c r="AR78" s="272"/>
+      <c r="AS78" s="273"/>
     </row>
     <row r="79" spans="1:45" ht="15.75" thickBot="1">
       <c r="A79" s="22"/>
       <c r="B79" s="30"/>
       <c r="C79" s="22"/>
       <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="134"/>
+      <c r="E79" s="134"/>
+      <c r="F79" s="48"/>
+      <c r="G79" s="48"/>
+      <c r="H79" s="48"/>
+      <c r="I79" s="48"/>
       <c r="J79" s="48"/>
       <c r="K79" s="22"/>
       <c r="N79" s="130"/>
@@ -15786,16 +15835,16 @@
       <c r="AC79" s="133"/>
       <c r="AD79" s="30"/>
       <c r="AE79" s="22"/>
-      <c r="AF79" s="275"/>
-      <c r="AG79" s="275"/>
+      <c r="AF79" s="287"/>
+      <c r="AG79" s="287"/>
       <c r="AH79" s="22"/>
       <c r="AI79" s="22"/>
-      <c r="AJ79" s="275"/>
-      <c r="AK79" s="275"/>
+      <c r="AJ79" s="287"/>
+      <c r="AK79" s="287"/>
       <c r="AL79" s="22"/>
       <c r="AM79" s="22"/>
-      <c r="AN79" s="275"/>
-      <c r="AO79" s="275"/>
+      <c r="AN79" s="287"/>
+      <c r="AO79" s="287"/>
       <c r="AP79" s="38"/>
     </row>
     <row r="80" spans="1:45" ht="15.75" thickBot="1">
@@ -15815,7 +15864,7 @@
       <c r="Q80" s="131"/>
       <c r="R80" s="131"/>
       <c r="S80" s="131"/>
-      <c r="T80" s="363"/>
+      <c r="T80" s="242"/>
       <c r="U80" s="150"/>
       <c r="V80" s="92"/>
       <c r="W80" s="92"/>
@@ -15877,38 +15926,38 @@
       <c r="AD81" s="30"/>
     </row>
     <row r="82" spans="2:36">
-      <c r="B82" s="255">
+      <c r="B82" s="275">
         <v>19</v>
       </c>
       <c r="C82" s="202"/>
-      <c r="D82" s="369" t="s">
+      <c r="D82" s="366" t="s">
         <v>296</v>
       </c>
-      <c r="E82" s="370"/>
+      <c r="E82" s="367"/>
       <c r="F82" s="153"/>
       <c r="G82" s="153"/>
-      <c r="H82" s="369" t="s">
+      <c r="H82" s="366" t="s">
         <v>297</v>
       </c>
-      <c r="I82" s="370"/>
+      <c r="I82" s="367"/>
       <c r="J82" s="153"/>
       <c r="K82" s="153"/>
-      <c r="L82" s="369" t="s">
+      <c r="L82" s="366" t="s">
         <v>180</v>
       </c>
-      <c r="M82" s="370"/>
+      <c r="M82" s="367"/>
       <c r="N82" s="142"/>
       <c r="O82" s="28"/>
-      <c r="P82" s="369" t="s">
+      <c r="P82" s="366" t="s">
         <v>181</v>
       </c>
-      <c r="Q82" s="370"/>
+      <c r="Q82" s="367"/>
       <c r="R82" s="38"/>
       <c r="S82" s="130"/>
-      <c r="T82" s="356" t="s">
+      <c r="T82" s="270" t="s">
         <v>370</v>
       </c>
-      <c r="U82" s="357"/>
+      <c r="U82" s="271"/>
       <c r="V82" s="133"/>
       <c r="W82" s="130"/>
       <c r="Z82" s="143"/>
@@ -15918,32 +15967,32 @@
       <c r="AD82" s="38"/>
     </row>
     <row r="83" spans="2:36" ht="15.75" thickBot="1">
-      <c r="B83" s="256"/>
+      <c r="B83" s="276"/>
       <c r="C83" s="59"/>
-      <c r="D83" s="373" t="s">
+      <c r="D83" s="368" t="s">
         <v>63</v>
       </c>
-      <c r="E83" s="372"/>
-      <c r="H83" s="371" t="s">
+      <c r="E83" s="369"/>
+      <c r="H83" s="368" t="s">
         <v>112</v>
       </c>
-      <c r="I83" s="372"/>
-      <c r="L83" s="373" t="s">
+      <c r="I83" s="369"/>
+      <c r="L83" s="368" t="s">
         <v>252</v>
       </c>
-      <c r="M83" s="372"/>
+      <c r="M83" s="369"/>
       <c r="N83" s="38"/>
       <c r="O83" s="132"/>
-      <c r="P83" s="373" t="s">
+      <c r="P83" s="368" t="s">
         <v>152</v>
       </c>
-      <c r="Q83" s="372"/>
+      <c r="Q83" s="369"/>
       <c r="R83" s="38"/>
       <c r="S83" s="130"/>
-      <c r="T83" s="358" t="s">
+      <c r="T83" s="272" t="s">
         <v>183</v>
       </c>
-      <c r="U83" s="359"/>
+      <c r="U83" s="273"/>
       <c r="V83" s="133"/>
       <c r="W83" s="130"/>
       <c r="Z83" s="143"/>
@@ -16061,49 +16110,96 @@
     </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="T82:U82"/>
-    <mergeCell ref="T83:U83"/>
-    <mergeCell ref="AJ77:AK77"/>
-    <mergeCell ref="AJ78:AK78"/>
-    <mergeCell ref="AN77:AO77"/>
-    <mergeCell ref="AR77:AS77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="P68:Q68"/>
     <mergeCell ref="H77:I77"/>
-    <mergeCell ref="AB66:AC66"/>
-    <mergeCell ref="AB67:AC67"/>
-    <mergeCell ref="X72:Y72"/>
-    <mergeCell ref="X73:Y73"/>
-    <mergeCell ref="AB72:AC72"/>
-    <mergeCell ref="AB73:AC73"/>
-    <mergeCell ref="AF72:AG72"/>
-    <mergeCell ref="AF73:AG73"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
     <mergeCell ref="H78:I78"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="X67:Y67"/>
-    <mergeCell ref="X68:Y68"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="X66:Y66"/>
+    <mergeCell ref="AJ27:AK27"/>
+    <mergeCell ref="AJ28:AK28"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="P39:Q39"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="AF79:AG79"/>
     <mergeCell ref="AR78:AS78"/>
@@ -16128,101 +16224,55 @@
     <mergeCell ref="AB78:AC78"/>
     <mergeCell ref="AF77:AG77"/>
     <mergeCell ref="AF78:AG78"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="X66:Y66"/>
-    <mergeCell ref="AJ27:AK27"/>
-    <mergeCell ref="AJ28:AK28"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="AF72:AG72"/>
+    <mergeCell ref="AF73:AG73"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
     <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="X67:Y67"/>
+    <mergeCell ref="X68:Y68"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="AB66:AC66"/>
+    <mergeCell ref="AB67:AC67"/>
+    <mergeCell ref="X72:Y72"/>
+    <mergeCell ref="X73:Y73"/>
+    <mergeCell ref="AB72:AC72"/>
+    <mergeCell ref="AB73:AC73"/>
+    <mergeCell ref="T82:U82"/>
+    <mergeCell ref="T83:U83"/>
+    <mergeCell ref="AJ77:AK77"/>
+    <mergeCell ref="AJ78:AK78"/>
+    <mergeCell ref="AN77:AO77"/>
+    <mergeCell ref="AR77:AS77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="P78:Q78"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="65" orientation="portrait" r:id="rId1"/>
-  <webPublishItems count="2">
+  <webPublishItems count="3">
     <webPublishItem id="4029" divId="nababan-sandarnagodang_4029" sourceType="printArea" destinationFile="E:\Imran\TDP-Imran\Himran\nababan\op-nikki\nababan-op-nikki.htm" title="Op-Nikki"/>
     <webPublishItem id="14741" divId="nababan-sandarnagodang_14741" sourceType="range" sourceRef="A2:AT84" destinationFile="D:\Imran\nababan\tarombo-nababan\public\op-tiolan\index.htm" title="Op. Tiolan"/>
+    <webPublishItem id="21717" divId="nababan-sandarnagodang_21717" sourceType="range" sourceRef="A2:AT85" destinationFile="D:\Imran\nababan\tarombo-nababan\public\op-tiolan\index.html" title="Op. Tiolan"/>
   </webPublishItems>
 </worksheet>
 </file>
@@ -16257,12 +16307,12 @@
     <row r="1" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:22" ht="15.75" thickBot="1">
       <c r="D2" s="22"/>
-      <c r="E2" s="298" t="s">
+      <c r="E2" s="296" t="s">
         <v>312</v>
       </c>
-      <c r="F2" s="300"/>
-      <c r="G2" s="300"/>
-      <c r="H2" s="299"/>
+      <c r="F2" s="298"/>
+      <c r="G2" s="298"/>
+      <c r="H2" s="297"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1">
       <c r="B3" s="130"/>
@@ -16280,16 +16330,16 @@
     </row>
     <row r="5" spans="2:22" ht="15.75" thickBot="1">
       <c r="B5" s="130"/>
-      <c r="D5" s="298" t="s">
+      <c r="D5" s="296" t="s">
         <v>311</v>
       </c>
-      <c r="E5" s="299"/>
+      <c r="E5" s="297"/>
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
-      <c r="H5" s="298" t="s">
+      <c r="H5" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="299"/>
+      <c r="I5" s="297"/>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
     </row>
@@ -16335,60 +16385,60 @@
       <c r="U7" s="22"/>
     </row>
     <row r="8" spans="2:22">
-      <c r="B8" s="255">
+      <c r="B8" s="275">
         <v>1</v>
       </c>
       <c r="C8" s="155"/>
-      <c r="D8" s="263" t="s">
+      <c r="D8" s="277" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="264"/>
+      <c r="E8" s="278"/>
       <c r="F8" s="22"/>
       <c r="G8" s="53"/>
-      <c r="H8" s="285" t="s">
+      <c r="H8" s="290" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="286"/>
+      <c r="I8" s="291"/>
       <c r="J8" s="53"/>
       <c r="K8" s="53"/>
-      <c r="L8" s="287" t="s">
+      <c r="L8" s="307" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="288"/>
+      <c r="M8" s="308"/>
       <c r="N8" s="53"/>
       <c r="O8" s="53"/>
-      <c r="P8" s="285" t="s">
+      <c r="P8" s="290" t="s">
         <v>318</v>
       </c>
-      <c r="Q8" s="286"/>
+      <c r="Q8" s="291"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
     </row>
     <row r="9" spans="2:22" ht="15.75" thickBot="1">
-      <c r="B9" s="256"/>
+      <c r="B9" s="276"/>
       <c r="C9" s="158"/>
-      <c r="D9" s="271" t="s">
+      <c r="D9" s="279" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="272"/>
+      <c r="E9" s="280"/>
       <c r="F9" s="22"/>
       <c r="G9" s="53"/>
-      <c r="H9" s="289" t="s">
+      <c r="H9" s="305" t="s">
         <v>320</v>
       </c>
-      <c r="I9" s="290"/>
+      <c r="I9" s="306"/>
       <c r="J9" s="53"/>
       <c r="K9" s="53"/>
-      <c r="L9" s="291" t="s">
+      <c r="L9" s="309" t="s">
         <v>319</v>
       </c>
-      <c r="M9" s="292"/>
+      <c r="M9" s="310"/>
       <c r="N9" s="53"/>
       <c r="O9" s="53"/>
-      <c r="P9" s="289" t="s">
+      <c r="P9" s="305" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="290"/>
+      <c r="Q9" s="306"/>
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
     </row>
@@ -16432,7 +16482,7 @@
       <c r="V11" s="22"/>
     </row>
     <row r="12" spans="2:22">
-      <c r="B12" s="255">
+      <c r="B12" s="275">
         <v>2</v>
       </c>
       <c r="C12" s="156"/>
@@ -16444,10 +16494,10 @@
       <c r="I12" s="166"/>
       <c r="J12" s="166"/>
       <c r="K12" s="167"/>
-      <c r="L12" s="285" t="s">
+      <c r="L12" s="290" t="s">
         <v>315</v>
       </c>
-      <c r="M12" s="286"/>
+      <c r="M12" s="291"/>
       <c r="N12" s="53"/>
       <c r="O12" s="53"/>
       <c r="P12" s="56"/>
@@ -16459,7 +16509,7 @@
       <c r="V12" s="22"/>
     </row>
     <row r="13" spans="2:22" ht="15.75" thickBot="1">
-      <c r="B13" s="256"/>
+      <c r="B13" s="276"/>
       <c r="C13" s="159"/>
       <c r="D13" s="160"/>
       <c r="E13" s="160"/>
@@ -16469,8 +16519,8 @@
       <c r="I13" s="163"/>
       <c r="J13" s="163"/>
       <c r="K13" s="164"/>
-      <c r="L13" s="293"/>
-      <c r="M13" s="294"/>
+      <c r="L13" s="294"/>
+      <c r="M13" s="295"/>
       <c r="N13" s="53"/>
       <c r="O13" s="53"/>
       <c r="P13" s="56"/>
@@ -16504,7 +16554,7 @@
       <c r="V14" s="22"/>
     </row>
     <row r="15" spans="2:22">
-      <c r="B15" s="255">
+      <c r="B15" s="275">
         <v>3</v>
       </c>
       <c r="C15" s="156"/>
@@ -16516,10 +16566,10 @@
       <c r="I15" s="166"/>
       <c r="J15" s="166"/>
       <c r="K15" s="167"/>
-      <c r="L15" s="285" t="s">
+      <c r="L15" s="290" t="s">
         <v>316</v>
       </c>
-      <c r="M15" s="286"/>
+      <c r="M15" s="291"/>
       <c r="N15" s="53"/>
       <c r="O15" s="53"/>
       <c r="P15" s="56"/>
@@ -16531,7 +16581,7 @@
       <c r="V15" s="22"/>
     </row>
     <row r="16" spans="2:22" ht="15.75" thickBot="1">
-      <c r="B16" s="256"/>
+      <c r="B16" s="276"/>
       <c r="C16" s="159"/>
       <c r="D16" s="160"/>
       <c r="E16" s="160"/>
@@ -16541,8 +16591,8 @@
       <c r="I16" s="163"/>
       <c r="J16" s="163"/>
       <c r="K16" s="164"/>
-      <c r="L16" s="293"/>
-      <c r="M16" s="294"/>
+      <c r="L16" s="294"/>
+      <c r="M16" s="295"/>
       <c r="N16" s="53"/>
       <c r="O16" s="53"/>
       <c r="P16" s="56"/>
@@ -16576,7 +16626,7 @@
       <c r="V17" s="22"/>
     </row>
     <row r="18" spans="2:22">
-      <c r="B18" s="255">
+      <c r="B18" s="275">
         <v>4</v>
       </c>
       <c r="C18" s="156"/>
@@ -16588,10 +16638,10 @@
       <c r="I18" s="166"/>
       <c r="J18" s="166"/>
       <c r="K18" s="167"/>
-      <c r="L18" s="285" t="s">
+      <c r="L18" s="290" t="s">
         <v>317</v>
       </c>
-      <c r="M18" s="286"/>
+      <c r="M18" s="291"/>
       <c r="N18" s="53"/>
       <c r="O18" s="53"/>
       <c r="P18" s="56"/>
@@ -16603,7 +16653,7 @@
       <c r="V18" s="22"/>
     </row>
     <row r="19" spans="2:22" ht="15.75" thickBot="1">
-      <c r="B19" s="256"/>
+      <c r="B19" s="276"/>
       <c r="C19" s="159"/>
       <c r="D19" s="160"/>
       <c r="E19" s="160"/>
@@ -16613,8 +16663,8 @@
       <c r="I19" s="163"/>
       <c r="J19" s="163"/>
       <c r="K19" s="164"/>
-      <c r="L19" s="293"/>
-      <c r="M19" s="294"/>
+      <c r="L19" s="294"/>
+      <c r="M19" s="295"/>
       <c r="N19" s="53"/>
       <c r="O19" s="53"/>
       <c r="P19" s="56"/>
@@ -16648,7 +16698,7 @@
       <c r="V20" s="22"/>
     </row>
     <row r="21" spans="2:22">
-      <c r="B21" s="255">
+      <c r="B21" s="275">
         <v>5</v>
       </c>
       <c r="C21" s="22"/>
@@ -16660,10 +16710,10 @@
       <c r="I21" s="53"/>
       <c r="J21" s="53"/>
       <c r="K21" s="162"/>
-      <c r="L21" s="285" t="s">
+      <c r="L21" s="290" t="s">
         <v>257</v>
       </c>
-      <c r="M21" s="286"/>
+      <c r="M21" s="291"/>
       <c r="N21" s="53"/>
       <c r="O21" s="53"/>
       <c r="P21" s="56"/>
@@ -16675,7 +16725,7 @@
       <c r="V21" s="22"/>
     </row>
     <row r="22" spans="2:22" ht="15.75" thickBot="1">
-      <c r="B22" s="256"/>
+      <c r="B22" s="276"/>
       <c r="C22" s="159"/>
       <c r="D22" s="160"/>
       <c r="E22" s="160"/>
@@ -16685,8 +16735,8 @@
       <c r="I22" s="163"/>
       <c r="J22" s="163"/>
       <c r="K22" s="164"/>
-      <c r="L22" s="293"/>
-      <c r="M22" s="294"/>
+      <c r="L22" s="294"/>
+      <c r="M22" s="295"/>
       <c r="N22" s="53"/>
       <c r="O22" s="53"/>
       <c r="P22" s="56"/>
@@ -16741,7 +16791,7 @@
       <c r="U24" s="22"/>
     </row>
     <row r="25" spans="2:22">
-      <c r="B25" s="255">
+      <c r="B25" s="275">
         <v>6</v>
       </c>
       <c r="C25" s="22"/>
@@ -16749,42 +16799,42 @@
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
       <c r="G25" s="162"/>
-      <c r="H25" s="285" t="s">
+      <c r="H25" s="290" t="s">
         <v>293</v>
       </c>
-      <c r="I25" s="286"/>
+      <c r="I25" s="291"/>
       <c r="J25" s="53"/>
       <c r="K25" s="53"/>
       <c r="L25" s="56"/>
       <c r="M25" s="53"/>
       <c r="N25" s="53"/>
       <c r="O25" s="53"/>
-      <c r="P25" s="285" t="s">
+      <c r="P25" s="290" t="s">
         <v>292</v>
       </c>
-      <c r="Q25" s="286"/>
+      <c r="Q25" s="291"/>
       <c r="R25" s="22"/>
       <c r="S25" s="22"/>
       <c r="T25" s="22"/>
       <c r="U25" s="22"/>
     </row>
     <row r="26" spans="2:22" ht="15.75" thickBot="1">
-      <c r="B26" s="256"/>
+      <c r="B26" s="276"/>
       <c r="C26" s="159"/>
       <c r="D26" s="160"/>
       <c r="E26" s="160"/>
       <c r="F26" s="160"/>
       <c r="G26" s="164"/>
-      <c r="H26" s="293"/>
-      <c r="I26" s="294"/>
+      <c r="H26" s="294"/>
+      <c r="I26" s="295"/>
       <c r="J26" s="53"/>
       <c r="K26" s="53"/>
       <c r="L26" s="56"/>
       <c r="M26" s="56"/>
       <c r="N26" s="56"/>
       <c r="O26" s="56"/>
-      <c r="P26" s="293"/>
-      <c r="Q26" s="294"/>
+      <c r="P26" s="294"/>
+      <c r="Q26" s="295"/>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1">
       <c r="B27" s="130"/>
@@ -16831,42 +16881,42 @@
       <c r="V28" s="22"/>
     </row>
     <row r="29" spans="2:22">
-      <c r="B29" s="255">
+      <c r="B29" s="275">
         <v>7</v>
       </c>
       <c r="C29" s="22"/>
-      <c r="D29" s="263" t="s">
+      <c r="D29" s="277" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="264"/>
+      <c r="E29" s="278"/>
       <c r="F29" s="22"/>
       <c r="G29" s="53"/>
       <c r="H29" s="56"/>
       <c r="I29" s="56"/>
       <c r="J29" s="56"/>
       <c r="K29" s="56"/>
-      <c r="L29" s="285" t="s">
+      <c r="L29" s="290" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="286"/>
+      <c r="M29" s="291"/>
       <c r="N29" s="56"/>
       <c r="O29" s="56"/>
       <c r="P29" s="56"/>
       <c r="Q29" s="56"/>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1">
-      <c r="B30" s="256"/>
+      <c r="B30" s="276"/>
       <c r="C30" s="158"/>
-      <c r="D30" s="273"/>
-      <c r="E30" s="274"/>
+      <c r="D30" s="281"/>
+      <c r="E30" s="282"/>
       <c r="F30" s="22"/>
       <c r="G30" s="53"/>
       <c r="H30" s="56"/>
       <c r="I30" s="56"/>
       <c r="J30" s="56"/>
       <c r="K30" s="56"/>
-      <c r="L30" s="293"/>
-      <c r="M30" s="294"/>
+      <c r="L30" s="294"/>
+      <c r="M30" s="295"/>
       <c r="N30" s="56"/>
       <c r="O30" s="56"/>
       <c r="P30" s="56"/>
@@ -16939,58 +16989,58 @@
       <c r="V33" s="22"/>
     </row>
     <row r="34" spans="2:22">
-      <c r="B34" s="255">
+      <c r="B34" s="275">
         <v>8</v>
       </c>
       <c r="C34" s="22"/>
-      <c r="D34" s="263" t="s">
+      <c r="D34" s="277" t="s">
         <v>255</v>
       </c>
-      <c r="E34" s="264"/>
+      <c r="E34" s="278"/>
       <c r="F34" s="152"/>
       <c r="G34" s="168"/>
-      <c r="H34" s="285" t="s">
+      <c r="H34" s="290" t="s">
         <v>310</v>
       </c>
-      <c r="I34" s="286"/>
+      <c r="I34" s="291"/>
       <c r="J34" s="168"/>
       <c r="K34" s="168"/>
-      <c r="L34" s="285" t="s">
+      <c r="L34" s="290" t="s">
         <v>35</v>
       </c>
-      <c r="M34" s="286"/>
+      <c r="M34" s="291"/>
       <c r="N34" s="168"/>
       <c r="O34" s="168"/>
-      <c r="P34" s="285" t="s">
+      <c r="P34" s="290" t="s">
         <v>313</v>
       </c>
-      <c r="Q34" s="286"/>
+      <c r="Q34" s="291"/>
       <c r="R34" s="153"/>
       <c r="S34" s="153"/>
-      <c r="T34" s="263" t="s">
+      <c r="T34" s="277" t="s">
         <v>314</v>
       </c>
-      <c r="U34" s="264"/>
+      <c r="U34" s="278"/>
     </row>
     <row r="35" spans="2:22" ht="15.75" thickBot="1">
-      <c r="B35" s="256"/>
+      <c r="B35" s="276"/>
       <c r="C35" s="158"/>
-      <c r="D35" s="273"/>
-      <c r="E35" s="274"/>
+      <c r="D35" s="281"/>
+      <c r="E35" s="282"/>
       <c r="F35" s="22"/>
       <c r="G35" s="53"/>
-      <c r="H35" s="293"/>
-      <c r="I35" s="294"/>
+      <c r="H35" s="294"/>
+      <c r="I35" s="295"/>
       <c r="J35" s="53"/>
       <c r="K35" s="53"/>
-      <c r="L35" s="295"/>
-      <c r="M35" s="296"/>
+      <c r="L35" s="302"/>
+      <c r="M35" s="303"/>
       <c r="N35" s="53"/>
       <c r="O35" s="53"/>
-      <c r="P35" s="295"/>
-      <c r="Q35" s="296"/>
-      <c r="T35" s="267"/>
-      <c r="U35" s="268"/>
+      <c r="P35" s="302"/>
+      <c r="Q35" s="303"/>
+      <c r="T35" s="285"/>
+      <c r="U35" s="286"/>
     </row>
     <row r="36" spans="2:22">
       <c r="B36" s="130"/>
@@ -17049,26 +17099,26 @@
       <c r="V38" s="22"/>
     </row>
     <row r="39" spans="2:22">
-      <c r="B39" s="255">
+      <c r="B39" s="275">
         <v>9</v>
       </c>
       <c r="C39" s="22"/>
-      <c r="D39" s="263" t="s">
+      <c r="D39" s="277" t="s">
         <v>254</v>
       </c>
-      <c r="E39" s="264"/>
+      <c r="E39" s="278"/>
       <c r="F39" s="152"/>
       <c r="G39" s="168"/>
-      <c r="H39" s="285" t="s">
+      <c r="H39" s="290" t="s">
         <v>33</v>
       </c>
-      <c r="I39" s="286"/>
+      <c r="I39" s="291"/>
       <c r="J39" s="168"/>
       <c r="K39" s="168"/>
-      <c r="L39" s="285" t="s">
+      <c r="L39" s="290" t="s">
         <v>34</v>
       </c>
-      <c r="M39" s="286"/>
+      <c r="M39" s="291"/>
       <c r="N39" s="53"/>
       <c r="O39" s="53"/>
       <c r="P39" s="53"/>
@@ -17078,18 +17128,18 @@
       <c r="V39" s="22"/>
     </row>
     <row r="40" spans="2:22" ht="15.75" thickBot="1">
-      <c r="B40" s="256"/>
+      <c r="B40" s="276"/>
       <c r="C40" s="159"/>
-      <c r="D40" s="273"/>
-      <c r="E40" s="274"/>
+      <c r="D40" s="281"/>
+      <c r="E40" s="282"/>
       <c r="F40" s="22"/>
       <c r="G40" s="53"/>
-      <c r="H40" s="293"/>
-      <c r="I40" s="294"/>
+      <c r="H40" s="294"/>
+      <c r="I40" s="295"/>
       <c r="J40" s="53"/>
       <c r="K40" s="53"/>
-      <c r="L40" s="293"/>
-      <c r="M40" s="294"/>
+      <c r="L40" s="294"/>
+      <c r="M40" s="295"/>
       <c r="N40" s="53"/>
       <c r="O40" s="53"/>
       <c r="P40" s="56"/>
@@ -17100,8 +17150,8 @@
     </row>
     <row r="41" spans="2:22">
       <c r="B41" s="130"/>
-      <c r="D41" s="303"/>
-      <c r="E41" s="303"/>
+      <c r="D41" s="301"/>
+      <c r="E41" s="301"/>
       <c r="F41" s="22"/>
       <c r="G41" s="53"/>
       <c r="H41" s="56"/>
@@ -17112,8 +17162,8 @@
       <c r="M41" s="69"/>
       <c r="N41" s="53"/>
       <c r="O41" s="53"/>
-      <c r="P41" s="302"/>
-      <c r="Q41" s="302"/>
+      <c r="P41" s="300"/>
+      <c r="Q41" s="300"/>
       <c r="T41" s="22"/>
       <c r="U41" s="22"/>
       <c r="V41" s="22"/>
@@ -17159,26 +17209,26 @@
       <c r="V43" s="22"/>
     </row>
     <row r="44" spans="2:22">
-      <c r="B44" s="255">
+      <c r="B44" s="275">
         <v>10</v>
       </c>
       <c r="C44" s="22"/>
-      <c r="D44" s="263" t="s">
+      <c r="D44" s="277" t="s">
         <v>50</v>
       </c>
-      <c r="E44" s="264"/>
+      <c r="E44" s="278"/>
       <c r="F44" s="152"/>
       <c r="G44" s="168"/>
-      <c r="H44" s="285" t="s">
+      <c r="H44" s="290" t="s">
         <v>48</v>
       </c>
-      <c r="I44" s="286"/>
+      <c r="I44" s="291"/>
       <c r="J44" s="168"/>
       <c r="K44" s="168"/>
-      <c r="L44" s="285" t="s">
+      <c r="L44" s="290" t="s">
         <v>309</v>
       </c>
-      <c r="M44" s="286"/>
+      <c r="M44" s="291"/>
       <c r="N44" s="53"/>
       <c r="O44" s="53"/>
       <c r="P44" s="56"/>
@@ -17190,14 +17240,14 @@
       <c r="V44" s="22"/>
     </row>
     <row r="45" spans="2:22" ht="15.75" thickBot="1">
-      <c r="B45" s="256"/>
+      <c r="B45" s="276"/>
       <c r="C45" s="158"/>
-      <c r="D45" s="271"/>
-      <c r="E45" s="272"/>
+      <c r="D45" s="279"/>
+      <c r="E45" s="280"/>
       <c r="F45" s="22"/>
       <c r="G45" s="53"/>
-      <c r="H45" s="289"/>
-      <c r="I45" s="290"/>
+      <c r="H45" s="305"/>
+      <c r="I45" s="306"/>
       <c r="J45" s="53"/>
       <c r="K45" s="53"/>
       <c r="L45" s="107"/>
@@ -17255,7 +17305,7 @@
       <c r="V47" s="22"/>
     </row>
     <row r="48" spans="2:22">
-      <c r="B48" s="255">
+      <c r="B48" s="275">
         <v>11</v>
       </c>
       <c r="C48" s="22"/>
@@ -17267,17 +17317,17 @@
       <c r="I48" s="53"/>
       <c r="J48" s="53"/>
       <c r="K48" s="162"/>
-      <c r="L48" s="285" t="s">
+      <c r="L48" s="290" t="s">
         <v>54</v>
       </c>
-      <c r="M48" s="286"/>
+      <c r="M48" s="291"/>
       <c r="N48" s="56"/>
       <c r="O48" s="56"/>
       <c r="P48" s="56"/>
       <c r="Q48" s="56"/>
     </row>
     <row r="49" spans="2:26" ht="15.75" thickBot="1">
-      <c r="B49" s="256"/>
+      <c r="B49" s="276"/>
       <c r="C49" s="159"/>
       <c r="D49" s="160"/>
       <c r="E49" s="160"/>
@@ -17287,8 +17337,8 @@
       <c r="I49" s="163"/>
       <c r="J49" s="163"/>
       <c r="K49" s="164"/>
-      <c r="L49" s="289"/>
-      <c r="M49" s="290"/>
+      <c r="L49" s="305"/>
+      <c r="M49" s="306"/>
       <c r="N49" s="56"/>
       <c r="O49" s="56"/>
       <c r="P49" s="56"/>
@@ -17312,7 +17362,7 @@
       <c r="Q50" s="56"/>
     </row>
     <row r="51" spans="2:26">
-      <c r="B51" s="255">
+      <c r="B51" s="275">
         <v>12</v>
       </c>
       <c r="C51" s="22"/>
@@ -17324,17 +17374,17 @@
       <c r="I51" s="53"/>
       <c r="J51" s="53"/>
       <c r="K51" s="162"/>
-      <c r="L51" s="285" t="s">
+      <c r="L51" s="290" t="s">
         <v>133</v>
       </c>
-      <c r="M51" s="286"/>
+      <c r="M51" s="291"/>
       <c r="N51" s="56"/>
       <c r="O51" s="56"/>
       <c r="P51" s="53"/>
       <c r="Q51" s="53"/>
     </row>
     <row r="52" spans="2:26" ht="15.75" thickBot="1">
-      <c r="B52" s="256"/>
+      <c r="B52" s="276"/>
       <c r="C52" s="159"/>
       <c r="D52" s="160"/>
       <c r="E52" s="160"/>
@@ -17344,8 +17394,8 @@
       <c r="I52" s="163"/>
       <c r="J52" s="163"/>
       <c r="K52" s="164"/>
-      <c r="L52" s="289"/>
-      <c r="M52" s="290"/>
+      <c r="L52" s="305"/>
+      <c r="M52" s="306"/>
       <c r="N52" s="56"/>
       <c r="O52" s="56"/>
       <c r="P52" s="53"/>
@@ -17389,7 +17439,7 @@
       <c r="R54" s="22"/>
     </row>
     <row r="55" spans="2:26">
-      <c r="B55" s="255">
+      <c r="B55" s="275">
         <v>13</v>
       </c>
       <c r="C55" s="22"/>
@@ -17397,40 +17447,40 @@
       <c r="E55" s="22"/>
       <c r="F55" s="22"/>
       <c r="G55" s="162"/>
-      <c r="H55" s="285" t="s">
+      <c r="H55" s="290" t="s">
         <v>56</v>
       </c>
-      <c r="I55" s="286"/>
+      <c r="I55" s="291"/>
       <c r="J55" s="168"/>
       <c r="K55" s="168"/>
       <c r="L55" s="170"/>
       <c r="M55" s="168"/>
       <c r="N55" s="170"/>
       <c r="O55" s="170"/>
-      <c r="P55" s="285" t="s">
+      <c r="P55" s="290" t="s">
         <v>321</v>
       </c>
-      <c r="Q55" s="286"/>
+      <c r="Q55" s="291"/>
       <c r="R55" s="22"/>
       <c r="Z55" s="22"/>
     </row>
     <row r="56" spans="2:26" ht="15.75" thickBot="1">
-      <c r="B56" s="256"/>
+      <c r="B56" s="276"/>
       <c r="C56" s="159"/>
       <c r="D56" s="160"/>
       <c r="E56" s="160"/>
       <c r="F56" s="160"/>
       <c r="G56" s="164"/>
-      <c r="H56" s="293"/>
-      <c r="I56" s="294"/>
+      <c r="H56" s="294"/>
+      <c r="I56" s="295"/>
       <c r="J56" s="53"/>
       <c r="K56" s="53"/>
       <c r="L56" s="53"/>
       <c r="M56" s="53"/>
       <c r="N56" s="56"/>
       <c r="O56" s="56"/>
-      <c r="P56" s="293"/>
-      <c r="Q56" s="294"/>
+      <c r="P56" s="294"/>
+      <c r="Q56" s="295"/>
       <c r="Z56" s="22"/>
     </row>
     <row r="57" spans="2:26" ht="15.75" thickBot="1">
@@ -17472,7 +17522,7 @@
       <c r="U58" s="35"/>
     </row>
     <row r="59" spans="2:26">
-      <c r="B59" s="255">
+      <c r="B59" s="275">
         <v>14</v>
       </c>
       <c r="C59" s="22"/>
@@ -17484,25 +17534,25 @@
       <c r="I59" s="180"/>
       <c r="J59" s="180"/>
       <c r="K59" s="181"/>
-      <c r="L59" s="285" t="s">
+      <c r="L59" s="290" t="s">
         <v>322</v>
       </c>
-      <c r="M59" s="286"/>
+      <c r="M59" s="291"/>
       <c r="N59" s="170"/>
       <c r="O59" s="170"/>
-      <c r="P59" s="285" t="s">
+      <c r="P59" s="290" t="s">
         <v>303</v>
       </c>
-      <c r="Q59" s="286"/>
+      <c r="Q59" s="291"/>
       <c r="R59" s="153"/>
       <c r="S59" s="153"/>
-      <c r="T59" s="263" t="s">
+      <c r="T59" s="277" t="s">
         <v>304</v>
       </c>
-      <c r="U59" s="264"/>
+      <c r="U59" s="278"/>
     </row>
     <row r="60" spans="2:26" ht="15.75" thickBot="1">
-      <c r="B60" s="256"/>
+      <c r="B60" s="276"/>
       <c r="C60" s="159"/>
       <c r="D60" s="22"/>
       <c r="E60" s="22"/>
@@ -17512,16 +17562,16 @@
       <c r="I60" s="53"/>
       <c r="J60" s="53"/>
       <c r="K60" s="53"/>
-      <c r="L60" s="293"/>
-      <c r="M60" s="294"/>
+      <c r="L60" s="294"/>
+      <c r="M60" s="295"/>
       <c r="N60" s="56"/>
       <c r="O60" s="56"/>
-      <c r="P60" s="297" t="s">
+      <c r="P60" s="304" t="s">
         <v>323</v>
       </c>
-      <c r="Q60" s="294"/>
-      <c r="T60" s="273"/>
-      <c r="U60" s="274"/>
+      <c r="Q60" s="295"/>
+      <c r="T60" s="281"/>
+      <c r="U60" s="282"/>
     </row>
     <row r="61" spans="2:26" ht="15.75" thickBot="1">
       <c r="B61" s="130"/>
@@ -17564,7 +17614,7 @@
       <c r="U62" s="35"/>
     </row>
     <row r="63" spans="2:26">
-      <c r="B63" s="255">
+      <c r="B63" s="275">
         <v>15</v>
       </c>
       <c r="C63" s="22"/>
@@ -17572,53 +17622,53 @@
       <c r="E63" s="157"/>
       <c r="F63" s="157"/>
       <c r="G63" s="167"/>
-      <c r="H63" s="285" t="s">
+      <c r="H63" s="290" t="s">
         <v>284</v>
       </c>
-      <c r="I63" s="286"/>
+      <c r="I63" s="291"/>
       <c r="J63" s="53"/>
       <c r="K63" s="53"/>
       <c r="L63" s="22"/>
       <c r="M63" s="22"/>
       <c r="N63" s="170"/>
       <c r="O63" s="170"/>
-      <c r="P63" s="285" t="s">
+      <c r="P63" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="Q63" s="286"/>
+      <c r="Q63" s="291"/>
       <c r="R63" s="153"/>
       <c r="S63" s="152"/>
-      <c r="T63" s="263" t="s">
+      <c r="T63" s="277" t="s">
         <v>285</v>
       </c>
-      <c r="U63" s="264"/>
+      <c r="U63" s="278"/>
     </row>
     <row r="64" spans="2:26" ht="15.75" thickBot="1">
-      <c r="B64" s="256"/>
+      <c r="B64" s="276"/>
       <c r="C64" s="159"/>
       <c r="E64" s="22"/>
       <c r="F64" s="22"/>
       <c r="G64" s="53"/>
-      <c r="H64" s="293" t="s">
+      <c r="H64" s="294" t="s">
         <v>307</v>
       </c>
-      <c r="I64" s="294"/>
+      <c r="I64" s="295"/>
       <c r="J64" s="53"/>
       <c r="K64" s="53"/>
       <c r="L64" s="22"/>
       <c r="M64" s="22"/>
       <c r="N64" s="171"/>
       <c r="O64" s="171"/>
-      <c r="P64" s="293" t="s">
+      <c r="P64" s="294" t="s">
         <v>305</v>
       </c>
-      <c r="Q64" s="294"/>
+      <c r="Q64" s="295"/>
       <c r="R64" s="151"/>
       <c r="S64" s="172"/>
-      <c r="T64" s="273" t="s">
+      <c r="T64" s="281" t="s">
         <v>306</v>
       </c>
-      <c r="U64" s="274"/>
+      <c r="U64" s="282"/>
     </row>
     <row r="65" spans="2:22" ht="15.75" thickBot="1">
       <c r="B65" s="130"/>
@@ -17665,67 +17715,67 @@
       <c r="V66" s="22"/>
     </row>
     <row r="67" spans="2:22">
-      <c r="B67" s="255">
+      <c r="B67" s="275">
         <v>16</v>
       </c>
       <c r="C67" s="22"/>
-      <c r="D67" s="285" t="s">
+      <c r="D67" s="290" t="s">
         <v>286</v>
       </c>
-      <c r="E67" s="286"/>
+      <c r="E67" s="291"/>
       <c r="F67" s="22"/>
       <c r="G67" s="53"/>
-      <c r="H67" s="285" t="s">
+      <c r="H67" s="290" t="s">
         <v>287</v>
       </c>
-      <c r="I67" s="286"/>
+      <c r="I67" s="291"/>
       <c r="J67" s="168"/>
       <c r="K67" s="168"/>
-      <c r="L67" s="285" t="s">
+      <c r="L67" s="290" t="s">
         <v>288</v>
       </c>
-      <c r="M67" s="286"/>
+      <c r="M67" s="291"/>
       <c r="N67" s="168"/>
       <c r="O67" s="168"/>
-      <c r="P67" s="285" t="s">
+      <c r="P67" s="290" t="s">
         <v>308</v>
       </c>
-      <c r="Q67" s="286"/>
+      <c r="Q67" s="291"/>
       <c r="R67" s="22"/>
       <c r="S67" s="22"/>
     </row>
     <row r="68" spans="2:22" ht="15.75" thickBot="1">
-      <c r="B68" s="256"/>
+      <c r="B68" s="276"/>
       <c r="C68" s="159"/>
-      <c r="D68" s="293"/>
-      <c r="E68" s="294"/>
+      <c r="D68" s="294"/>
+      <c r="E68" s="295"/>
       <c r="F68" s="22"/>
       <c r="G68" s="53"/>
-      <c r="H68" s="295"/>
-      <c r="I68" s="296"/>
+      <c r="H68" s="302"/>
+      <c r="I68" s="303"/>
       <c r="J68" s="53"/>
       <c r="K68" s="53"/>
-      <c r="L68" s="293"/>
-      <c r="M68" s="294"/>
+      <c r="L68" s="294"/>
+      <c r="M68" s="295"/>
       <c r="N68" s="119"/>
       <c r="O68" s="53"/>
-      <c r="P68" s="293"/>
-      <c r="Q68" s="294"/>
+      <c r="P68" s="294"/>
+      <c r="Q68" s="295"/>
       <c r="R68" s="22"/>
       <c r="S68" s="22"/>
     </row>
     <row r="69" spans="2:22">
       <c r="B69" s="130"/>
-      <c r="D69" s="301"/>
-      <c r="E69" s="301"/>
+      <c r="D69" s="299"/>
+      <c r="E69" s="299"/>
       <c r="F69" s="22"/>
       <c r="G69" s="53"/>
-      <c r="H69" s="302"/>
-      <c r="I69" s="302"/>
+      <c r="H69" s="300"/>
+      <c r="I69" s="300"/>
       <c r="J69" s="53"/>
       <c r="K69" s="53"/>
-      <c r="L69" s="301"/>
-      <c r="M69" s="301"/>
+      <c r="L69" s="299"/>
+      <c r="M69" s="299"/>
       <c r="N69" s="119"/>
       <c r="O69" s="53"/>
       <c r="P69" s="22"/>
@@ -17786,23 +17836,72 @@
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="P56:Q56"/>
     <mergeCell ref="T59:U59"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="P60:Q60"/>
@@ -17817,72 +17916,23 @@
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="P59:Q59"/>
     <mergeCell ref="T64:U64"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="P41:Q41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
@@ -17950,10 +18000,10 @@
     <row r="3" spans="2:25" ht="15.75" thickBot="1">
       <c r="D3" s="133"/>
       <c r="E3" s="133"/>
-      <c r="H3" s="269" t="s">
+      <c r="H3" s="288" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="270"/>
+      <c r="I3" s="289"/>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
     </row>
@@ -18000,61 +18050,61 @@
       <c r="Y5" s="22"/>
     </row>
     <row r="6" spans="2:25">
-      <c r="B6" s="255">
+      <c r="B6" s="275">
         <v>1</v>
       </c>
       <c r="C6" s="202"/>
-      <c r="D6" s="263" t="s">
+      <c r="D6" s="277" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="264"/>
+      <c r="E6" s="278"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
-      <c r="H6" s="263" t="s">
+      <c r="H6" s="277" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="264"/>
+      <c r="I6" s="278"/>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
-      <c r="L6" s="276" t="s">
+      <c r="L6" s="325" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="277"/>
+      <c r="M6" s="326"/>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
-      <c r="P6" s="263" t="s">
+      <c r="P6" s="277" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="264"/>
+      <c r="Q6" s="278"/>
       <c r="R6" s="22"/>
       <c r="S6" s="22"/>
       <c r="Y6" s="22"/>
     </row>
     <row r="7" spans="2:25" ht="15.75" thickBot="1">
-      <c r="B7" s="256"/>
+      <c r="B7" s="276"/>
       <c r="C7" s="59"/>
-      <c r="D7" s="271" t="s">
+      <c r="D7" s="279" t="s">
         <v>262</v>
       </c>
-      <c r="E7" s="272"/>
+      <c r="E7" s="280"/>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
-      <c r="H7" s="271" t="s">
+      <c r="H7" s="279" t="s">
         <v>261</v>
       </c>
-      <c r="I7" s="272"/>
+      <c r="I7" s="280"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
-      <c r="L7" s="280" t="s">
+      <c r="L7" s="327" t="s">
         <v>260</v>
       </c>
-      <c r="M7" s="281"/>
+      <c r="M7" s="328"/>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
-      <c r="P7" s="271" t="s">
+      <c r="P7" s="279" t="s">
         <v>263</v>
       </c>
-      <c r="Q7" s="272"/>
+      <c r="Q7" s="280"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
     </row>
@@ -18067,16 +18117,16 @@
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
-      <c r="L8" s="278" t="s">
+      <c r="L8" s="323" t="s">
         <v>243</v>
       </c>
-      <c r="M8" s="279"/>
+      <c r="M8" s="324"/>
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
-      <c r="X8" s="275"/>
-      <c r="Y8" s="275"/>
+      <c r="X8" s="287"/>
+      <c r="Y8" s="287"/>
     </row>
     <row r="9" spans="2:25" ht="15.75" thickBot="1">
       <c r="D9" s="22"/>
@@ -18094,7 +18144,7 @@
       <c r="W9" s="22"/>
     </row>
     <row r="10" spans="2:25">
-      <c r="B10" s="255">
+      <c r="B10" s="275">
         <v>2</v>
       </c>
       <c r="C10" s="201"/>
@@ -18106,10 +18156,10 @@
       <c r="I10" s="199"/>
       <c r="J10" s="199"/>
       <c r="K10" s="200"/>
-      <c r="L10" s="257" t="s">
+      <c r="L10" s="311" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="258"/>
+      <c r="M10" s="312"/>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
       <c r="R10" s="22"/>
@@ -18120,7 +18170,7 @@
       <c r="W10" s="22"/>
     </row>
     <row r="11" spans="2:25" ht="15.75" thickBot="1">
-      <c r="B11" s="256"/>
+      <c r="B11" s="276"/>
       <c r="C11" s="37"/>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -18130,10 +18180,10 @@
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
       <c r="K11" s="161"/>
-      <c r="L11" s="261" t="s">
+      <c r="L11" s="313" t="s">
         <v>259</v>
       </c>
-      <c r="M11" s="262"/>
+      <c r="M11" s="314"/>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
       <c r="R11" s="22"/>
@@ -18166,7 +18216,7 @@
       <c r="W12" s="22"/>
     </row>
     <row r="13" spans="2:25">
-      <c r="B13" s="255">
+      <c r="B13" s="275">
         <v>3</v>
       </c>
       <c r="C13" s="201"/>
@@ -18178,10 +18228,10 @@
       <c r="I13" s="199"/>
       <c r="J13" s="199"/>
       <c r="K13" s="200"/>
-      <c r="L13" s="257" t="s">
+      <c r="L13" s="311" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="258"/>
+      <c r="M13" s="312"/>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
       <c r="R13" s="22"/>
@@ -18192,7 +18242,7 @@
       <c r="W13" s="22"/>
     </row>
     <row r="14" spans="2:25" ht="15.75" thickBot="1">
-      <c r="B14" s="256"/>
+      <c r="B14" s="276"/>
       <c r="C14" s="37"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -18202,10 +18252,10 @@
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
       <c r="K14" s="161"/>
-      <c r="L14" s="261" t="s">
+      <c r="L14" s="313" t="s">
         <v>259</v>
       </c>
-      <c r="M14" s="262"/>
+      <c r="M14" s="314"/>
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
       <c r="R14" s="22"/>
@@ -18238,7 +18288,7 @@
       <c r="W15" s="22"/>
     </row>
     <row r="16" spans="2:25">
-      <c r="B16" s="255">
+      <c r="B16" s="275">
         <v>4</v>
       </c>
       <c r="C16" s="201"/>
@@ -18250,10 +18300,10 @@
       <c r="I16" s="199"/>
       <c r="J16" s="199"/>
       <c r="K16" s="200"/>
-      <c r="L16" s="257" t="s">
+      <c r="L16" s="311" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="258"/>
+      <c r="M16" s="312"/>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
       <c r="R16" s="22"/>
@@ -18264,7 +18314,7 @@
       <c r="W16" s="22"/>
     </row>
     <row r="17" spans="2:41" ht="15.75" thickBot="1">
-      <c r="B17" s="256"/>
+      <c r="B17" s="276"/>
       <c r="C17" s="37"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
@@ -18274,10 +18324,10 @@
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
       <c r="K17" s="161"/>
-      <c r="L17" s="261" t="s">
+      <c r="L17" s="313" t="s">
         <v>258</v>
       </c>
-      <c r="M17" s="262"/>
+      <c r="M17" s="314"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
       <c r="R17" s="22"/>
@@ -18310,7 +18360,7 @@
       <c r="W18" s="22"/>
     </row>
     <row r="19" spans="2:41">
-      <c r="B19" s="255">
+      <c r="B19" s="275">
         <v>5</v>
       </c>
       <c r="C19" s="201"/>
@@ -18322,10 +18372,10 @@
       <c r="I19" s="199"/>
       <c r="J19" s="199"/>
       <c r="K19" s="200"/>
-      <c r="L19" s="257" t="s">
+      <c r="L19" s="311" t="s">
         <v>257</v>
       </c>
-      <c r="M19" s="258"/>
+      <c r="M19" s="312"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
       <c r="R19" s="22"/>
@@ -18341,7 +18391,7 @@
       <c r="AB19" s="22"/>
     </row>
     <row r="20" spans="2:41" ht="15.75" thickBot="1">
-      <c r="B20" s="256"/>
+      <c r="B20" s="276"/>
       <c r="C20" s="37"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
@@ -18351,10 +18401,10 @@
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
       <c r="K20" s="161"/>
-      <c r="L20" s="261" t="s">
+      <c r="L20" s="313" t="s">
         <v>88</v>
       </c>
-      <c r="M20" s="262"/>
+      <c r="M20" s="314"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
       <c r="R20" s="22"/>
@@ -18431,7 +18481,7 @@
       <c r="AG22" s="22"/>
     </row>
     <row r="23" spans="2:41">
-      <c r="B23" s="255">
+      <c r="B23" s="275">
         <v>6</v>
       </c>
       <c r="C23" s="201"/>
@@ -18439,19 +18489,19 @@
       <c r="E23" s="199"/>
       <c r="F23" s="199"/>
       <c r="G23" s="200"/>
-      <c r="H23" s="257" t="s">
+      <c r="H23" s="311" t="s">
         <v>293</v>
       </c>
-      <c r="I23" s="258"/>
+      <c r="I23" s="312"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
       <c r="M23" s="22"/>
       <c r="N23" s="22"/>
       <c r="O23" s="22"/>
-      <c r="P23" s="263" t="s">
+      <c r="P23" s="277" t="s">
         <v>292</v>
       </c>
-      <c r="Q23" s="264"/>
+      <c r="Q23" s="278"/>
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
       <c r="T23" s="22"/>
@@ -18468,22 +18518,22 @@
       <c r="AG23" s="22"/>
     </row>
     <row r="24" spans="2:41" ht="15.75" thickBot="1">
-      <c r="B24" s="256"/>
+      <c r="B24" s="276"/>
       <c r="C24" s="37"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="161"/>
-      <c r="H24" s="261" t="s">
+      <c r="H24" s="313" t="s">
         <v>87</v>
       </c>
-      <c r="I24" s="262"/>
+      <c r="I24" s="314"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
-      <c r="P24" s="273" t="s">
+      <c r="P24" s="281" t="s">
         <v>256</v>
       </c>
-      <c r="Q24" s="274"/>
+      <c r="Q24" s="282"/>
       <c r="X24" s="22"/>
       <c r="Y24" s="22"/>
       <c r="Z24" s="22"/>
@@ -18567,20 +18617,20 @@
       <c r="AK26" s="22"/>
     </row>
     <row r="27" spans="2:41">
-      <c r="B27" s="255">
+      <c r="B27" s="275">
         <v>7</v>
       </c>
       <c r="C27" s="202"/>
-      <c r="D27" s="263" t="s">
+      <c r="D27" s="277" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="264"/>
+      <c r="E27" s="278"/>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="L27" s="257" t="s">
+      <c r="L27" s="311" t="s">
         <v>24</v>
       </c>
-      <c r="M27" s="258"/>
+      <c r="M27" s="312"/>
       <c r="W27" s="22"/>
       <c r="X27" s="133"/>
       <c r="Y27" s="133"/>
@@ -18594,22 +18644,22 @@
       <c r="AG27" s="133"/>
       <c r="AH27" s="22"/>
       <c r="AI27" s="22"/>
-      <c r="AJ27" s="275"/>
-      <c r="AK27" s="275"/>
+      <c r="AJ27" s="287"/>
+      <c r="AK27" s="287"/>
     </row>
     <row r="28" spans="2:41" ht="15.75" thickBot="1">
-      <c r="B28" s="256"/>
+      <c r="B28" s="276"/>
       <c r="C28" s="59"/>
-      <c r="D28" s="273" t="s">
+      <c r="D28" s="281" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="274"/>
+      <c r="E28" s="282"/>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
-      <c r="L28" s="259" t="s">
+      <c r="L28" s="317" t="s">
         <v>72</v>
       </c>
-      <c r="M28" s="260"/>
+      <c r="M28" s="318"/>
       <c r="T28" s="22"/>
       <c r="U28" s="22"/>
       <c r="X28" s="133"/>
@@ -18624,8 +18674,8 @@
       <c r="AG28" s="133"/>
       <c r="AH28" s="22"/>
       <c r="AI28" s="22"/>
-      <c r="AJ28" s="275"/>
-      <c r="AK28" s="275"/>
+      <c r="AJ28" s="287"/>
+      <c r="AK28" s="287"/>
     </row>
     <row r="29" spans="2:41" ht="15.75" thickBot="1">
       <c r="D29" s="22"/>
@@ -18633,10 +18683,10 @@
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
       <c r="I29" s="22"/>
-      <c r="L29" s="261" t="s">
+      <c r="L29" s="313" t="s">
         <v>73</v>
       </c>
-      <c r="M29" s="262"/>
+      <c r="M29" s="314"/>
       <c r="T29" s="22"/>
       <c r="U29" s="22"/>
       <c r="V29" s="22"/>
@@ -18741,38 +18791,38 @@
       <c r="AO31" s="22"/>
     </row>
     <row r="32" spans="2:41">
-      <c r="B32" s="255">
+      <c r="B32" s="275">
         <v>8</v>
       </c>
       <c r="C32" s="202"/>
-      <c r="D32" s="263" t="s">
+      <c r="D32" s="277" t="s">
         <v>255</v>
       </c>
-      <c r="E32" s="264"/>
+      <c r="E32" s="278"/>
       <c r="F32" s="152"/>
       <c r="G32" s="152"/>
-      <c r="H32" s="257" t="s">
+      <c r="H32" s="311" t="s">
         <v>31</v>
       </c>
-      <c r="I32" s="258"/>
+      <c r="I32" s="312"/>
       <c r="J32" s="152"/>
       <c r="K32" s="152"/>
-      <c r="L32" s="263" t="s">
+      <c r="L32" s="277" t="s">
         <v>35</v>
       </c>
-      <c r="M32" s="264"/>
+      <c r="M32" s="278"/>
       <c r="N32" s="152"/>
       <c r="O32" s="152"/>
-      <c r="P32" s="263" t="s">
+      <c r="P32" s="277" t="s">
         <v>36</v>
       </c>
-      <c r="Q32" s="264"/>
+      <c r="Q32" s="278"/>
       <c r="R32" s="153"/>
       <c r="S32" s="153"/>
-      <c r="T32" s="263" t="s">
+      <c r="T32" s="277" t="s">
         <v>208</v>
       </c>
-      <c r="U32" s="264"/>
+      <c r="U32" s="278"/>
       <c r="X32" s="133"/>
       <c r="Y32" s="133"/>
       <c r="AB32" s="22"/>
@@ -18791,28 +18841,28 @@
       <c r="AO32" s="22"/>
     </row>
     <row r="33" spans="2:41" ht="15.75" thickBot="1">
-      <c r="B33" s="256"/>
+      <c r="B33" s="276"/>
       <c r="C33" s="59"/>
-      <c r="D33" s="273" t="s">
+      <c r="D33" s="281" t="s">
         <v>88</v>
       </c>
-      <c r="E33" s="274"/>
+      <c r="E33" s="282"/>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="259" t="s">
+      <c r="H33" s="317" t="s">
         <v>84</v>
       </c>
-      <c r="I33" s="260"/>
+      <c r="I33" s="318"/>
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
-      <c r="L33" s="267"/>
-      <c r="M33" s="268"/>
+      <c r="L33" s="285"/>
+      <c r="M33" s="286"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
-      <c r="P33" s="267"/>
-      <c r="Q33" s="268"/>
-      <c r="T33" s="267"/>
-      <c r="U33" s="268"/>
+      <c r="P33" s="285"/>
+      <c r="Q33" s="286"/>
+      <c r="T33" s="285"/>
+      <c r="U33" s="286"/>
       <c r="X33" s="133"/>
       <c r="Y33" s="133"/>
       <c r="AB33" s="22"/>
@@ -18835,10 +18885,10 @@
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="261" t="s">
+      <c r="H34" s="313" t="s">
         <v>86</v>
       </c>
-      <c r="I34" s="262"/>
+      <c r="I34" s="314"/>
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
       <c r="M34" s="22"/>
@@ -18915,26 +18965,26 @@
       <c r="AF36" s="22"/>
     </row>
     <row r="37" spans="2:41">
-      <c r="B37" s="255">
+      <c r="B37" s="275">
         <v>9</v>
       </c>
       <c r="C37" s="202"/>
-      <c r="D37" s="263" t="s">
+      <c r="D37" s="277" t="s">
         <v>254</v>
       </c>
-      <c r="E37" s="264"/>
+      <c r="E37" s="278"/>
       <c r="F37" s="152"/>
       <c r="G37" s="152"/>
-      <c r="H37" s="257" t="s">
+      <c r="H37" s="311" t="s">
         <v>33</v>
       </c>
-      <c r="I37" s="258"/>
+      <c r="I37" s="312"/>
       <c r="J37" s="152"/>
       <c r="K37" s="152"/>
-      <c r="L37" s="263" t="s">
+      <c r="L37" s="277" t="s">
         <v>34</v>
       </c>
-      <c r="M37" s="264"/>
+      <c r="M37" s="278"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
       <c r="P37" s="22"/>
@@ -18954,12 +19004,12 @@
       <c r="AF37" s="22"/>
     </row>
     <row r="38" spans="2:41" ht="15.75" thickBot="1">
-      <c r="B38" s="256"/>
+      <c r="B38" s="276"/>
       <c r="C38" s="59"/>
-      <c r="D38" s="265" t="s">
+      <c r="D38" s="283" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="266"/>
+      <c r="E38" s="284"/>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
       <c r="H38" s="185" t="s">
@@ -18968,10 +19018,10 @@
       <c r="I38" s="140"/>
       <c r="J38" s="22"/>
       <c r="K38" s="22"/>
-      <c r="L38" s="273" t="s">
+      <c r="L38" s="281" t="s">
         <v>85</v>
       </c>
-      <c r="M38" s="274"/>
+      <c r="M38" s="282"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
       <c r="T38" s="22"/>
@@ -18989,10 +19039,10 @@
       <c r="AF38" s="22"/>
     </row>
     <row r="39" spans="2:41" ht="15.75" thickBot="1">
-      <c r="D39" s="273" t="s">
+      <c r="D39" s="281" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="274"/>
+      <c r="E39" s="282"/>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
       <c r="I39" s="45"/>
@@ -19002,8 +19052,8 @@
       <c r="M39" s="133"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
-      <c r="P39" s="275"/>
-      <c r="Q39" s="275"/>
+      <c r="P39" s="287"/>
+      <c r="Q39" s="287"/>
       <c r="T39" s="22"/>
       <c r="U39" s="22"/>
       <c r="V39" s="22"/>
@@ -19074,26 +19124,26 @@
       <c r="AE41" s="22"/>
     </row>
     <row r="42" spans="2:41">
-      <c r="B42" s="255">
+      <c r="B42" s="275">
         <v>10</v>
       </c>
       <c r="C42" s="202"/>
-      <c r="D42" s="263" t="s">
+      <c r="D42" s="277" t="s">
         <v>50</v>
       </c>
-      <c r="E42" s="264"/>
+      <c r="E42" s="278"/>
       <c r="F42" s="152"/>
       <c r="G42" s="152"/>
-      <c r="H42" s="263" t="s">
+      <c r="H42" s="277" t="s">
         <v>48</v>
       </c>
-      <c r="I42" s="264"/>
+      <c r="I42" s="278"/>
       <c r="J42" s="152"/>
       <c r="K42" s="152"/>
-      <c r="L42" s="257" t="s">
+      <c r="L42" s="311" t="s">
         <v>295</v>
       </c>
-      <c r="M42" s="258"/>
+      <c r="M42" s="312"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
       <c r="R42" s="22"/>
@@ -19112,14 +19162,14 @@
       <c r="AE42" s="22"/>
     </row>
     <row r="43" spans="2:41" ht="15.75" thickBot="1">
-      <c r="B43" s="256"/>
+      <c r="B43" s="276"/>
       <c r="C43" s="59"/>
-      <c r="D43" s="271"/>
-      <c r="E43" s="272"/>
+      <c r="D43" s="279"/>
+      <c r="E43" s="280"/>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="271"/>
-      <c r="I43" s="272"/>
+      <c r="H43" s="279"/>
+      <c r="I43" s="280"/>
       <c r="J43" s="22"/>
       <c r="K43" s="22"/>
       <c r="L43" s="145"/>
@@ -19196,7 +19246,7 @@
       <c r="AF45" s="22"/>
     </row>
     <row r="46" spans="2:41">
-      <c r="B46" s="255">
+      <c r="B46" s="275">
         <v>11</v>
       </c>
       <c r="C46" s="201"/>
@@ -19208,10 +19258,10 @@
       <c r="I46" s="203"/>
       <c r="J46" s="203"/>
       <c r="K46" s="204"/>
-      <c r="L46" s="257" t="s">
+      <c r="L46" s="311" t="s">
         <v>54</v>
       </c>
-      <c r="M46" s="258"/>
+      <c r="M46" s="312"/>
       <c r="N46" s="56"/>
       <c r="AB46" s="22"/>
       <c r="AC46" s="22"/>
@@ -19220,7 +19270,7 @@
       <c r="AF46" s="22"/>
     </row>
     <row r="47" spans="2:41" ht="15.75" thickBot="1">
-      <c r="B47" s="256"/>
+      <c r="B47" s="276"/>
       <c r="C47" s="37"/>
       <c r="D47" s="22"/>
       <c r="E47" s="22"/>
@@ -19230,8 +19280,8 @@
       <c r="I47" s="53"/>
       <c r="J47" s="53"/>
       <c r="K47" s="162"/>
-      <c r="L47" s="282"/>
-      <c r="M47" s="283"/>
+      <c r="L47" s="321"/>
+      <c r="M47" s="322"/>
       <c r="N47" s="56"/>
     </row>
     <row r="48" spans="2:41" ht="15.75" thickBot="1">
@@ -19248,7 +19298,7 @@
       <c r="N48" s="56"/>
     </row>
     <row r="49" spans="2:31">
-      <c r="B49" s="255">
+      <c r="B49" s="275">
         <v>12</v>
       </c>
       <c r="C49" s="201"/>
@@ -19260,16 +19310,16 @@
       <c r="I49" s="203"/>
       <c r="J49" s="203"/>
       <c r="K49" s="204"/>
-      <c r="L49" s="257" t="s">
+      <c r="L49" s="311" t="s">
         <v>133</v>
       </c>
-      <c r="M49" s="258"/>
+      <c r="M49" s="312"/>
       <c r="N49" s="56"/>
       <c r="P49" s="22"/>
       <c r="Q49" s="22"/>
     </row>
     <row r="50" spans="2:31" ht="15.75" thickBot="1">
-      <c r="B50" s="256"/>
+      <c r="B50" s="276"/>
       <c r="C50" s="37"/>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
@@ -19279,8 +19329,8 @@
       <c r="I50" s="53"/>
       <c r="J50" s="53"/>
       <c r="K50" s="162"/>
-      <c r="L50" s="282"/>
-      <c r="M50" s="283"/>
+      <c r="L50" s="321"/>
+      <c r="M50" s="322"/>
       <c r="N50" s="56"/>
       <c r="P50" s="22"/>
       <c r="Q50" s="22"/>
@@ -19319,7 +19369,7 @@
       <c r="R52" s="22"/>
     </row>
     <row r="53" spans="2:31">
-      <c r="B53" s="255">
+      <c r="B53" s="275">
         <v>13</v>
       </c>
       <c r="C53" s="201"/>
@@ -19327,41 +19377,41 @@
       <c r="E53" s="199"/>
       <c r="F53" s="199"/>
       <c r="G53" s="200"/>
-      <c r="H53" s="263" t="s">
+      <c r="H53" s="277" t="s">
         <v>56</v>
       </c>
-      <c r="I53" s="264"/>
+      <c r="I53" s="278"/>
       <c r="J53" s="152"/>
       <c r="K53" s="152"/>
       <c r="L53" s="153"/>
       <c r="M53" s="152"/>
       <c r="N53" s="153"/>
       <c r="O53" s="153"/>
-      <c r="P53" s="257" t="s">
+      <c r="P53" s="311" t="s">
         <v>325</v>
       </c>
-      <c r="Q53" s="258"/>
+      <c r="Q53" s="312"/>
       <c r="R53" s="22"/>
     </row>
     <row r="54" spans="2:31" ht="15.75" thickBot="1">
-      <c r="B54" s="256"/>
+      <c r="B54" s="276"/>
       <c r="C54" s="37"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
       <c r="G54" s="161"/>
-      <c r="H54" s="273" t="s">
+      <c r="H54" s="281" t="s">
         <v>63</v>
       </c>
-      <c r="I54" s="274"/>
+      <c r="I54" s="282"/>
       <c r="J54" s="22"/>
       <c r="K54" s="22"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
-      <c r="P54" s="261" t="s">
+      <c r="P54" s="313" t="s">
         <v>64</v>
       </c>
-      <c r="Q54" s="262"/>
+      <c r="Q54" s="314"/>
     </row>
     <row r="55" spans="2:31" ht="15.75" thickBot="1">
       <c r="D55" s="22"/>
@@ -19398,7 +19448,7 @@
       <c r="U56" s="35"/>
     </row>
     <row r="57" spans="2:31">
-      <c r="B57" s="255">
+      <c r="B57" s="275">
         <v>14</v>
       </c>
       <c r="C57" s="201"/>
@@ -19410,25 +19460,25 @@
       <c r="I57" s="199"/>
       <c r="J57" s="199"/>
       <c r="K57" s="200"/>
-      <c r="L57" s="263" t="s">
+      <c r="L57" s="277" t="s">
         <v>58</v>
       </c>
-      <c r="M57" s="264"/>
+      <c r="M57" s="278"/>
       <c r="N57" s="153"/>
       <c r="O57" s="153"/>
-      <c r="P57" s="257" t="s">
+      <c r="P57" s="311" t="s">
         <v>242</v>
       </c>
-      <c r="Q57" s="258"/>
+      <c r="Q57" s="312"/>
       <c r="R57" s="153"/>
       <c r="S57" s="153"/>
-      <c r="T57" s="263" t="s">
+      <c r="T57" s="277" t="s">
         <v>59</v>
       </c>
-      <c r="U57" s="264"/>
+      <c r="U57" s="278"/>
     </row>
     <row r="58" spans="2:31" ht="15.75" thickBot="1">
-      <c r="B58" s="256"/>
+      <c r="B58" s="276"/>
       <c r="C58" s="37"/>
       <c r="D58" s="22"/>
       <c r="E58" s="22"/>
@@ -19438,18 +19488,18 @@
       <c r="I58" s="22"/>
       <c r="J58" s="22"/>
       <c r="K58" s="161"/>
-      <c r="L58" s="273" t="s">
+      <c r="L58" s="281" t="s">
         <v>69</v>
       </c>
-      <c r="M58" s="274"/>
-      <c r="P58" s="261" t="s">
+      <c r="M58" s="282"/>
+      <c r="P58" s="313" t="s">
         <v>64</v>
       </c>
-      <c r="Q58" s="262"/>
-      <c r="T58" s="273" t="s">
+      <c r="Q58" s="314"/>
+      <c r="T58" s="281" t="s">
         <v>79</v>
       </c>
-      <c r="U58" s="274"/>
+      <c r="U58" s="282"/>
     </row>
     <row r="59" spans="2:31" ht="15.75" thickBot="1">
       <c r="D59" s="22"/>
@@ -19496,7 +19546,7 @@
       </c>
     </row>
     <row r="61" spans="2:31">
-      <c r="B61" s="255">
+      <c r="B61" s="275">
         <v>15</v>
       </c>
       <c r="C61" s="201"/>
@@ -19504,48 +19554,48 @@
       <c r="E61" s="199"/>
       <c r="F61" s="199"/>
       <c r="G61" s="200"/>
-      <c r="H61" s="257" t="s">
+      <c r="H61" s="311" t="s">
         <v>60</v>
       </c>
-      <c r="I61" s="258"/>
+      <c r="I61" s="312"/>
       <c r="J61" s="22"/>
       <c r="K61" s="22"/>
       <c r="M61" s="22"/>
       <c r="N61" s="153"/>
       <c r="O61" s="153"/>
-      <c r="P61" s="263" t="s">
+      <c r="P61" s="277" t="s">
         <v>264</v>
       </c>
-      <c r="Q61" s="264"/>
+      <c r="Q61" s="278"/>
       <c r="R61" s="153"/>
       <c r="S61" s="152"/>
-      <c r="T61" s="263" t="s">
+      <c r="T61" s="277" t="s">
         <v>265</v>
       </c>
-      <c r="U61" s="264"/>
+      <c r="U61" s="278"/>
       <c r="AC61" s="22"/>
       <c r="AD61" s="22"/>
       <c r="AE61" s="22"/>
     </row>
     <row r="62" spans="2:31" ht="15.75" thickBot="1">
-      <c r="B62" s="256"/>
+      <c r="B62" s="276"/>
       <c r="C62" s="37"/>
       <c r="D62" s="22"/>
       <c r="E62" s="22"/>
       <c r="F62" s="22"/>
       <c r="G62" s="22"/>
-      <c r="H62" s="284" t="s">
+      <c r="H62" s="315" t="s">
         <v>63</v>
       </c>
-      <c r="I62" s="262"/>
+      <c r="I62" s="314"/>
       <c r="J62" s="22"/>
       <c r="K62" s="22"/>
       <c r="M62" s="22"/>
-      <c r="P62" s="267"/>
-      <c r="Q62" s="268"/>
+      <c r="P62" s="285"/>
+      <c r="Q62" s="286"/>
       <c r="S62" s="22"/>
-      <c r="T62" s="267"/>
-      <c r="U62" s="268"/>
+      <c r="T62" s="285"/>
+      <c r="U62" s="286"/>
       <c r="Y62" s="22"/>
       <c r="Z62" s="22"/>
       <c r="AA62" s="22"/>
@@ -19618,26 +19668,26 @@
       <c r="AE64" s="22"/>
     </row>
     <row r="65" spans="2:45">
-      <c r="B65" s="255">
+      <c r="B65" s="275">
         <v>16</v>
       </c>
       <c r="C65" s="202"/>
-      <c r="D65" s="257" t="s">
+      <c r="D65" s="311" t="s">
         <v>62</v>
       </c>
-      <c r="E65" s="258"/>
+      <c r="E65" s="312"/>
       <c r="F65" s="22"/>
       <c r="G65" s="22"/>
-      <c r="H65" s="263" t="s">
+      <c r="H65" s="277" t="s">
         <v>294</v>
       </c>
-      <c r="I65" s="264"/>
+      <c r="I65" s="278"/>
       <c r="J65" s="152"/>
       <c r="K65" s="152"/>
-      <c r="L65" s="263" t="s">
+      <c r="L65" s="277" t="s">
         <v>132</v>
       </c>
-      <c r="M65" s="264"/>
+      <c r="M65" s="278"/>
       <c r="N65" s="152"/>
       <c r="O65" s="152"/>
       <c r="Q65" s="22"/>
@@ -19648,24 +19698,24 @@
       <c r="AE65" s="22"/>
     </row>
     <row r="66" spans="2:45" ht="15.75" thickBot="1">
-      <c r="B66" s="256"/>
+      <c r="B66" s="276"/>
       <c r="C66" s="37"/>
-      <c r="D66" s="259" t="s">
+      <c r="D66" s="317" t="s">
         <v>63</v>
       </c>
-      <c r="E66" s="260"/>
+      <c r="E66" s="318"/>
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
-      <c r="H66" s="265" t="s">
+      <c r="H66" s="283" t="s">
         <v>274</v>
       </c>
-      <c r="I66" s="266"/>
+      <c r="I66" s="284"/>
       <c r="J66" s="22"/>
       <c r="K66" s="22"/>
-      <c r="L66" s="265" t="s">
+      <c r="L66" s="283" t="s">
         <v>252</v>
       </c>
-      <c r="M66" s="266"/>
+      <c r="M66" s="284"/>
       <c r="N66" s="186"/>
       <c r="O66" s="22"/>
       <c r="R66" s="22"/>
@@ -19675,20 +19725,20 @@
       <c r="AE66" s="22"/>
     </row>
     <row r="67" spans="2:45" ht="15.75" thickBot="1">
-      <c r="D67" s="261" t="s">
+      <c r="D67" s="313" t="s">
         <v>65</v>
       </c>
-      <c r="E67" s="262"/>
+      <c r="E67" s="314"/>
       <c r="F67" s="22"/>
       <c r="G67" s="22"/>
-      <c r="H67" s="267"/>
-      <c r="I67" s="268"/>
+      <c r="H67" s="285"/>
+      <c r="I67" s="286"/>
       <c r="J67" s="22"/>
       <c r="K67" s="22"/>
-      <c r="L67" s="273" t="s">
+      <c r="L67" s="281" t="s">
         <v>149</v>
       </c>
-      <c r="M67" s="274"/>
+      <c r="M67" s="282"/>
       <c r="N67" s="186"/>
       <c r="O67" s="22"/>
       <c r="R67" s="22"/>
@@ -19806,19 +19856,19 @@
       <c r="AC70" s="133"/>
       <c r="AD70" s="186"/>
       <c r="AE70" s="22"/>
-      <c r="AF70" s="275"/>
-      <c r="AG70" s="275"/>
+      <c r="AF70" s="287"/>
+      <c r="AG70" s="287"/>
       <c r="AH70" s="22"/>
       <c r="AI70" s="22"/>
-      <c r="AJ70" s="275"/>
-      <c r="AK70" s="275"/>
+      <c r="AJ70" s="287"/>
+      <c r="AK70" s="287"/>
       <c r="AL70" s="22"/>
       <c r="AN70" s="22"/>
       <c r="AO70" s="22"/>
       <c r="AP70" s="186"/>
     </row>
     <row r="71" spans="2:45">
-      <c r="B71" s="304">
+      <c r="B71" s="319">
         <v>17</v>
       </c>
       <c r="C71" s="201"/>
@@ -19826,21 +19876,21 @@
       <c r="E71" s="199"/>
       <c r="F71" s="199"/>
       <c r="G71" s="200"/>
-      <c r="H71" s="257" t="s">
+      <c r="H71" s="311" t="s">
         <v>145</v>
       </c>
-      <c r="I71" s="258"/>
+      <c r="I71" s="312"/>
       <c r="J71" s="186"/>
       <c r="K71" s="22"/>
-      <c r="L71" s="263" t="s">
+      <c r="L71" s="277" t="s">
         <v>236</v>
       </c>
-      <c r="M71" s="264"/>
+      <c r="M71" s="278"/>
       <c r="N71" s="186"/>
-      <c r="P71" s="263" t="s">
+      <c r="P71" s="277" t="s">
         <v>81</v>
       </c>
-      <c r="Q71" s="264"/>
+      <c r="Q71" s="278"/>
       <c r="R71" s="186"/>
       <c r="S71" s="22"/>
       <c r="V71" s="133"/>
@@ -19853,12 +19903,12 @@
       <c r="AC71" s="133"/>
       <c r="AD71" s="186"/>
       <c r="AE71" s="22"/>
-      <c r="AF71" s="275"/>
-      <c r="AG71" s="275"/>
+      <c r="AF71" s="287"/>
+      <c r="AG71" s="287"/>
       <c r="AH71" s="22"/>
       <c r="AI71" s="22"/>
-      <c r="AJ71" s="275"/>
-      <c r="AK71" s="275"/>
+      <c r="AJ71" s="287"/>
+      <c r="AK71" s="287"/>
       <c r="AL71" s="22"/>
       <c r="AM71" s="22"/>
       <c r="AN71" s="22"/>
@@ -19867,26 +19917,26 @@
       <c r="AS71" s="22"/>
     </row>
     <row r="72" spans="2:45" ht="15.75" thickBot="1">
-      <c r="B72" s="305"/>
+      <c r="B72" s="320"/>
       <c r="E72" s="22"/>
       <c r="F72" s="22"/>
       <c r="G72" s="22"/>
-      <c r="H72" s="261" t="s">
+      <c r="H72" s="313" t="s">
         <v>67</v>
       </c>
-      <c r="I72" s="262"/>
+      <c r="I72" s="314"/>
       <c r="J72" s="22"/>
       <c r="K72" s="22"/>
-      <c r="L72" s="273" t="s">
+      <c r="L72" s="281" t="s">
         <v>152</v>
       </c>
-      <c r="M72" s="274"/>
+      <c r="M72" s="282"/>
       <c r="N72" s="22"/>
       <c r="O72" s="22"/>
-      <c r="P72" s="273" t="s">
+      <c r="P72" s="281" t="s">
         <v>82</v>
       </c>
-      <c r="Q72" s="274"/>
+      <c r="Q72" s="282"/>
       <c r="R72" s="22"/>
       <c r="S72" s="22"/>
       <c r="T72" s="22"/>
@@ -19963,7 +20013,7 @@
       <c r="AS73" s="22"/>
     </row>
     <row r="74" spans="2:45">
-      <c r="B74" s="255">
+      <c r="B74" s="275">
         <v>18</v>
       </c>
       <c r="C74" s="201"/>
@@ -19971,18 +20021,18 @@
       <c r="E74" s="199"/>
       <c r="F74" s="199"/>
       <c r="G74" s="200"/>
-      <c r="H74" s="257" t="s">
+      <c r="H74" s="311" t="s">
         <v>253</v>
       </c>
-      <c r="I74" s="258"/>
+      <c r="I74" s="312"/>
       <c r="J74" s="22"/>
       <c r="K74" s="22"/>
       <c r="N74" s="130"/>
       <c r="O74" s="130"/>
-      <c r="P74" s="263" t="s">
+      <c r="P74" s="277" t="s">
         <v>159</v>
       </c>
-      <c r="Q74" s="264"/>
+      <c r="Q74" s="278"/>
       <c r="R74" s="186"/>
       <c r="S74" s="130"/>
       <c r="T74" s="186"/>
@@ -19997,37 +20047,37 @@
       <c r="AC74" s="133"/>
       <c r="AD74" s="30"/>
       <c r="AE74" s="22"/>
-      <c r="AF74" s="275"/>
-      <c r="AG74" s="275"/>
+      <c r="AF74" s="287"/>
+      <c r="AG74" s="287"/>
       <c r="AH74" s="22"/>
       <c r="AI74" s="22"/>
-      <c r="AJ74" s="275"/>
-      <c r="AK74" s="275"/>
+      <c r="AJ74" s="287"/>
+      <c r="AK74" s="287"/>
       <c r="AL74" s="22"/>
       <c r="AM74" s="22"/>
-      <c r="AN74" s="275"/>
-      <c r="AO74" s="275"/>
+      <c r="AN74" s="287"/>
+      <c r="AO74" s="287"/>
       <c r="AP74" s="186"/>
       <c r="AS74" s="22"/>
     </row>
     <row r="75" spans="2:45" ht="15.75" thickBot="1">
-      <c r="B75" s="256"/>
+      <c r="B75" s="276"/>
       <c r="C75" s="37"/>
       <c r="E75" s="22"/>
       <c r="F75" s="22"/>
       <c r="G75" s="22"/>
-      <c r="H75" s="284" t="s">
+      <c r="H75" s="315" t="s">
         <v>152</v>
       </c>
-      <c r="I75" s="262"/>
+      <c r="I75" s="314"/>
       <c r="J75" s="22"/>
       <c r="K75" s="22"/>
       <c r="N75" s="130"/>
       <c r="O75" s="130"/>
-      <c r="P75" s="306" t="s">
+      <c r="P75" s="316" t="s">
         <v>115</v>
       </c>
-      <c r="Q75" s="274"/>
+      <c r="Q75" s="282"/>
       <c r="R75" s="186"/>
       <c r="S75" s="130"/>
       <c r="T75" s="188"/>
@@ -20042,16 +20092,16 @@
       <c r="AC75" s="133"/>
       <c r="AD75" s="30"/>
       <c r="AE75" s="22"/>
-      <c r="AF75" s="275"/>
-      <c r="AG75" s="275"/>
+      <c r="AF75" s="287"/>
+      <c r="AG75" s="287"/>
       <c r="AH75" s="22"/>
       <c r="AI75" s="22"/>
-      <c r="AJ75" s="275"/>
-      <c r="AK75" s="275"/>
+      <c r="AJ75" s="287"/>
+      <c r="AK75" s="287"/>
       <c r="AL75" s="22"/>
       <c r="AM75" s="22"/>
-      <c r="AN75" s="275"/>
-      <c r="AO75" s="275"/>
+      <c r="AN75" s="287"/>
+      <c r="AO75" s="287"/>
       <c r="AP75" s="186"/>
     </row>
     <row r="76" spans="2:45" ht="15.75" thickBot="1">
@@ -20131,32 +20181,32 @@
       <c r="AD77" s="30"/>
     </row>
     <row r="78" spans="2:45">
-      <c r="B78" s="255">
+      <c r="B78" s="275">
         <v>19</v>
       </c>
       <c r="C78" s="202"/>
-      <c r="D78" s="257" t="s">
+      <c r="D78" s="311" t="s">
         <v>296</v>
       </c>
-      <c r="E78" s="258"/>
+      <c r="E78" s="312"/>
       <c r="F78" s="153"/>
       <c r="G78" s="153"/>
-      <c r="H78" s="257" t="s">
+      <c r="H78" s="311" t="s">
         <v>297</v>
       </c>
-      <c r="I78" s="258"/>
+      <c r="I78" s="312"/>
       <c r="J78" s="153"/>
       <c r="K78" s="153"/>
-      <c r="L78" s="257" t="s">
+      <c r="L78" s="311" t="s">
         <v>180</v>
       </c>
-      <c r="M78" s="258"/>
+      <c r="M78" s="312"/>
       <c r="N78" s="142"/>
       <c r="O78" s="28"/>
-      <c r="P78" s="257" t="s">
+      <c r="P78" s="311" t="s">
         <v>181</v>
       </c>
-      <c r="Q78" s="258"/>
+      <c r="Q78" s="312"/>
       <c r="R78" s="186"/>
       <c r="S78" s="130"/>
       <c r="U78" s="22"/>
@@ -20169,26 +20219,26 @@
       <c r="AD78" s="186"/>
     </row>
     <row r="79" spans="2:45" ht="15.75" thickBot="1">
-      <c r="B79" s="256"/>
+      <c r="B79" s="276"/>
       <c r="C79" s="59"/>
-      <c r="D79" s="261" t="s">
+      <c r="D79" s="313" t="s">
         <v>63</v>
       </c>
-      <c r="E79" s="262"/>
-      <c r="H79" s="284" t="s">
+      <c r="E79" s="314"/>
+      <c r="H79" s="315" t="s">
         <v>112</v>
       </c>
-      <c r="I79" s="262"/>
-      <c r="L79" s="261" t="s">
+      <c r="I79" s="314"/>
+      <c r="L79" s="313" t="s">
         <v>252</v>
       </c>
-      <c r="M79" s="262"/>
+      <c r="M79" s="314"/>
       <c r="N79" s="186"/>
       <c r="O79" s="132"/>
-      <c r="P79" s="261" t="s">
+      <c r="P79" s="313" t="s">
         <v>152</v>
       </c>
-      <c r="Q79" s="262"/>
+      <c r="Q79" s="314"/>
       <c r="R79" s="186"/>
       <c r="S79" s="130"/>
       <c r="V79" s="133"/>
@@ -20308,17 +20358,108 @@
     </row>
   </sheetData>
   <mergeCells count="129">
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="AJ27:AK27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="AJ28:AK28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="B71:B72"/>
     <mergeCell ref="AF74:AG74"/>
     <mergeCell ref="AJ74:AK74"/>
     <mergeCell ref="AN74:AO74"/>
@@ -20335,108 +20476,17 @@
     <mergeCell ref="AJ71:AK71"/>
     <mergeCell ref="P74:Q74"/>
     <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="AJ27:AK27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="AJ28:AK28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="P79:Q79"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="65" orientation="portrait" r:id="rId1"/>
@@ -20507,10 +20557,10 @@
     <row r="3" spans="2:25" ht="15.75" thickBot="1">
       <c r="D3" s="133"/>
       <c r="E3" s="133"/>
-      <c r="H3" s="269" t="s">
+      <c r="H3" s="288" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="270"/>
+      <c r="I3" s="289"/>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
     </row>
@@ -20557,61 +20607,61 @@
       <c r="Y5" s="22"/>
     </row>
     <row r="6" spans="2:25">
-      <c r="B6" s="255">
+      <c r="B6" s="275">
         <v>1</v>
       </c>
       <c r="C6" s="202"/>
-      <c r="D6" s="263" t="s">
+      <c r="D6" s="277" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="264"/>
+      <c r="E6" s="278"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
-      <c r="H6" s="263" t="s">
+      <c r="H6" s="277" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="264"/>
+      <c r="I6" s="278"/>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
-      <c r="L6" s="307" t="s">
+      <c r="L6" s="341" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="308"/>
+      <c r="M6" s="342"/>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
-      <c r="P6" s="263" t="s">
+      <c r="P6" s="277" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="264"/>
+      <c r="Q6" s="278"/>
       <c r="R6" s="22"/>
       <c r="S6" s="22"/>
       <c r="Y6" s="22"/>
     </row>
     <row r="7" spans="2:25" ht="15.75" thickBot="1">
-      <c r="B7" s="256"/>
+      <c r="B7" s="276"/>
       <c r="C7" s="59"/>
-      <c r="D7" s="271" t="s">
+      <c r="D7" s="279" t="s">
         <v>262</v>
       </c>
-      <c r="E7" s="272"/>
+      <c r="E7" s="280"/>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
-      <c r="H7" s="271" t="s">
+      <c r="H7" s="279" t="s">
         <v>261</v>
       </c>
-      <c r="I7" s="272"/>
+      <c r="I7" s="280"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
-      <c r="L7" s="309" t="s">
+      <c r="L7" s="343" t="s">
         <v>260</v>
       </c>
-      <c r="M7" s="310"/>
+      <c r="M7" s="344"/>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
-      <c r="P7" s="271" t="s">
+      <c r="P7" s="279" t="s">
         <v>263</v>
       </c>
-      <c r="Q7" s="272"/>
+      <c r="Q7" s="280"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
     </row>
@@ -20624,16 +20674,16 @@
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
-      <c r="L8" s="315" t="s">
+      <c r="L8" s="339" t="s">
         <v>243</v>
       </c>
-      <c r="M8" s="316"/>
+      <c r="M8" s="340"/>
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
-      <c r="X8" s="275"/>
-      <c r="Y8" s="275"/>
+      <c r="X8" s="287"/>
+      <c r="Y8" s="287"/>
     </row>
     <row r="9" spans="2:25" ht="15.75" thickBot="1">
       <c r="D9" s="22"/>
@@ -20651,7 +20701,7 @@
       <c r="W9" s="22"/>
     </row>
     <row r="10" spans="2:25">
-      <c r="B10" s="255">
+      <c r="B10" s="275">
         <v>2</v>
       </c>
       <c r="C10" s="201"/>
@@ -20663,10 +20713,10 @@
       <c r="I10" s="199"/>
       <c r="J10" s="199"/>
       <c r="K10" s="200"/>
-      <c r="L10" s="311" t="s">
+      <c r="L10" s="332" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="312"/>
+      <c r="M10" s="333"/>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
       <c r="R10" s="22"/>
@@ -20677,7 +20727,7 @@
       <c r="W10" s="22"/>
     </row>
     <row r="11" spans="2:25" ht="15.75" thickBot="1">
-      <c r="B11" s="256"/>
+      <c r="B11" s="276"/>
       <c r="C11" s="37"/>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -20687,10 +20737,10 @@
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
       <c r="K11" s="161"/>
-      <c r="L11" s="313" t="s">
+      <c r="L11" s="330" t="s">
         <v>259</v>
       </c>
-      <c r="M11" s="314"/>
+      <c r="M11" s="331"/>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
       <c r="R11" s="22"/>
@@ -20723,7 +20773,7 @@
       <c r="W12" s="22"/>
     </row>
     <row r="13" spans="2:25">
-      <c r="B13" s="255">
+      <c r="B13" s="275">
         <v>3</v>
       </c>
       <c r="C13" s="201"/>
@@ -20735,10 +20785,10 @@
       <c r="I13" s="199"/>
       <c r="J13" s="199"/>
       <c r="K13" s="200"/>
-      <c r="L13" s="311" t="s">
+      <c r="L13" s="332" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="312"/>
+      <c r="M13" s="333"/>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
       <c r="R13" s="22"/>
@@ -20749,7 +20799,7 @@
       <c r="W13" s="22"/>
     </row>
     <row r="14" spans="2:25" ht="15.75" thickBot="1">
-      <c r="B14" s="256"/>
+      <c r="B14" s="276"/>
       <c r="C14" s="37"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -20759,10 +20809,10 @@
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
       <c r="K14" s="161"/>
-      <c r="L14" s="313" t="s">
+      <c r="L14" s="330" t="s">
         <v>259</v>
       </c>
-      <c r="M14" s="314"/>
+      <c r="M14" s="331"/>
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
       <c r="R14" s="22"/>
@@ -20795,7 +20845,7 @@
       <c r="W15" s="22"/>
     </row>
     <row r="16" spans="2:25">
-      <c r="B16" s="255">
+      <c r="B16" s="275">
         <v>4</v>
       </c>
       <c r="C16" s="201"/>
@@ -20807,10 +20857,10 @@
       <c r="I16" s="199"/>
       <c r="J16" s="199"/>
       <c r="K16" s="200"/>
-      <c r="L16" s="311" t="s">
+      <c r="L16" s="332" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="312"/>
+      <c r="M16" s="333"/>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
       <c r="R16" s="22"/>
@@ -20821,7 +20871,7 @@
       <c r="W16" s="22"/>
     </row>
     <row r="17" spans="2:41" ht="15.75" thickBot="1">
-      <c r="B17" s="256"/>
+      <c r="B17" s="276"/>
       <c r="C17" s="37"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
@@ -20831,10 +20881,10 @@
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
       <c r="K17" s="161"/>
-      <c r="L17" s="313" t="s">
+      <c r="L17" s="330" t="s">
         <v>258</v>
       </c>
-      <c r="M17" s="314"/>
+      <c r="M17" s="331"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
       <c r="R17" s="22"/>
@@ -20867,7 +20917,7 @@
       <c r="W18" s="22"/>
     </row>
     <row r="19" spans="2:41">
-      <c r="B19" s="255">
+      <c r="B19" s="275">
         <v>5</v>
       </c>
       <c r="C19" s="201"/>
@@ -20879,10 +20929,10 @@
       <c r="I19" s="199"/>
       <c r="J19" s="199"/>
       <c r="K19" s="200"/>
-      <c r="L19" s="311" t="s">
+      <c r="L19" s="332" t="s">
         <v>257</v>
       </c>
-      <c r="M19" s="312"/>
+      <c r="M19" s="333"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
       <c r="R19" s="22"/>
@@ -20898,7 +20948,7 @@
       <c r="AB19" s="22"/>
     </row>
     <row r="20" spans="2:41" ht="15.75" thickBot="1">
-      <c r="B20" s="256"/>
+      <c r="B20" s="276"/>
       <c r="C20" s="37"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
@@ -20908,10 +20958,10 @@
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
       <c r="K20" s="161"/>
-      <c r="L20" s="313" t="s">
+      <c r="L20" s="330" t="s">
         <v>88</v>
       </c>
-      <c r="M20" s="314"/>
+      <c r="M20" s="331"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
       <c r="R20" s="22"/>
@@ -20988,7 +21038,7 @@
       <c r="AG22" s="22"/>
     </row>
     <row r="23" spans="2:41">
-      <c r="B23" s="255">
+      <c r="B23" s="275">
         <v>6</v>
       </c>
       <c r="C23" s="201"/>
@@ -20996,19 +21046,19 @@
       <c r="E23" s="199"/>
       <c r="F23" s="199"/>
       <c r="G23" s="200"/>
-      <c r="H23" s="311" t="s">
+      <c r="H23" s="332" t="s">
         <v>293</v>
       </c>
-      <c r="I23" s="312"/>
+      <c r="I23" s="333"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
       <c r="M23" s="22"/>
       <c r="N23" s="22"/>
       <c r="O23" s="22"/>
-      <c r="P23" s="263" t="s">
+      <c r="P23" s="277" t="s">
         <v>292</v>
       </c>
-      <c r="Q23" s="264"/>
+      <c r="Q23" s="278"/>
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
       <c r="T23" s="22"/>
@@ -21025,22 +21075,22 @@
       <c r="AG23" s="22"/>
     </row>
     <row r="24" spans="2:41" ht="15.75" thickBot="1">
-      <c r="B24" s="256"/>
+      <c r="B24" s="276"/>
       <c r="C24" s="37"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="161"/>
-      <c r="H24" s="313" t="s">
+      <c r="H24" s="330" t="s">
         <v>87</v>
       </c>
-      <c r="I24" s="314"/>
+      <c r="I24" s="331"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
-      <c r="P24" s="273" t="s">
+      <c r="P24" s="281" t="s">
         <v>256</v>
       </c>
-      <c r="Q24" s="274"/>
+      <c r="Q24" s="282"/>
       <c r="X24" s="22"/>
       <c r="Y24" s="22"/>
       <c r="Z24" s="22"/>
@@ -21124,20 +21174,20 @@
       <c r="AK26" s="22"/>
     </row>
     <row r="27" spans="2:41">
-      <c r="B27" s="255">
+      <c r="B27" s="275">
         <v>7</v>
       </c>
       <c r="C27" s="202"/>
-      <c r="D27" s="263" t="s">
+      <c r="D27" s="277" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="264"/>
+      <c r="E27" s="278"/>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="L27" s="311" t="s">
+      <c r="L27" s="332" t="s">
         <v>24</v>
       </c>
-      <c r="M27" s="312"/>
+      <c r="M27" s="333"/>
       <c r="W27" s="22"/>
       <c r="X27" s="133"/>
       <c r="Y27" s="133"/>
@@ -21151,22 +21201,22 @@
       <c r="AG27" s="133"/>
       <c r="AH27" s="22"/>
       <c r="AI27" s="22"/>
-      <c r="AJ27" s="275"/>
-      <c r="AK27" s="275"/>
+      <c r="AJ27" s="287"/>
+      <c r="AK27" s="287"/>
     </row>
     <row r="28" spans="2:41" ht="15.75" thickBot="1">
-      <c r="B28" s="256"/>
+      <c r="B28" s="276"/>
       <c r="C28" s="59"/>
-      <c r="D28" s="273" t="s">
+      <c r="D28" s="281" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="274"/>
+      <c r="E28" s="282"/>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
-      <c r="L28" s="317" t="s">
+      <c r="L28" s="337" t="s">
         <v>72</v>
       </c>
-      <c r="M28" s="318"/>
+      <c r="M28" s="338"/>
       <c r="T28" s="22"/>
       <c r="U28" s="22"/>
       <c r="X28" s="133"/>
@@ -21181,8 +21231,8 @@
       <c r="AG28" s="133"/>
       <c r="AH28" s="22"/>
       <c r="AI28" s="22"/>
-      <c r="AJ28" s="275"/>
-      <c r="AK28" s="275"/>
+      <c r="AJ28" s="287"/>
+      <c r="AK28" s="287"/>
     </row>
     <row r="29" spans="2:41" ht="15.75" thickBot="1">
       <c r="D29" s="22"/>
@@ -21190,10 +21240,10 @@
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
       <c r="I29" s="22"/>
-      <c r="L29" s="313" t="s">
+      <c r="L29" s="330" t="s">
         <v>73</v>
       </c>
-      <c r="M29" s="314"/>
+      <c r="M29" s="331"/>
       <c r="T29" s="22"/>
       <c r="U29" s="22"/>
       <c r="V29" s="22"/>
@@ -21298,38 +21348,38 @@
       <c r="AO31" s="22"/>
     </row>
     <row r="32" spans="2:41">
-      <c r="B32" s="255">
+      <c r="B32" s="275">
         <v>8</v>
       </c>
       <c r="C32" s="202"/>
-      <c r="D32" s="263" t="s">
+      <c r="D32" s="277" t="s">
         <v>255</v>
       </c>
-      <c r="E32" s="264"/>
+      <c r="E32" s="278"/>
       <c r="F32" s="152"/>
       <c r="G32" s="152"/>
-      <c r="H32" s="311" t="s">
+      <c r="H32" s="332" t="s">
         <v>31</v>
       </c>
-      <c r="I32" s="312"/>
+      <c r="I32" s="333"/>
       <c r="J32" s="152"/>
       <c r="K32" s="152"/>
-      <c r="L32" s="263" t="s">
+      <c r="L32" s="277" t="s">
         <v>35</v>
       </c>
-      <c r="M32" s="264"/>
+      <c r="M32" s="278"/>
       <c r="N32" s="152"/>
       <c r="O32" s="152"/>
-      <c r="P32" s="263" t="s">
+      <c r="P32" s="277" t="s">
         <v>36</v>
       </c>
-      <c r="Q32" s="264"/>
+      <c r="Q32" s="278"/>
       <c r="R32" s="153"/>
       <c r="S32" s="153"/>
-      <c r="T32" s="263" t="s">
+      <c r="T32" s="277" t="s">
         <v>208</v>
       </c>
-      <c r="U32" s="264"/>
+      <c r="U32" s="278"/>
       <c r="X32" s="133"/>
       <c r="Y32" s="133"/>
       <c r="AB32" s="22"/>
@@ -21348,28 +21398,28 @@
       <c r="AO32" s="22"/>
     </row>
     <row r="33" spans="2:41" ht="15.75" thickBot="1">
-      <c r="B33" s="256"/>
+      <c r="B33" s="276"/>
       <c r="C33" s="59"/>
-      <c r="D33" s="273" t="s">
+      <c r="D33" s="281" t="s">
         <v>88</v>
       </c>
-      <c r="E33" s="274"/>
+      <c r="E33" s="282"/>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="317" t="s">
+      <c r="H33" s="337" t="s">
         <v>84</v>
       </c>
-      <c r="I33" s="318"/>
+      <c r="I33" s="338"/>
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
-      <c r="L33" s="267"/>
-      <c r="M33" s="268"/>
+      <c r="L33" s="285"/>
+      <c r="M33" s="286"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
-      <c r="P33" s="267"/>
-      <c r="Q33" s="268"/>
-      <c r="T33" s="267"/>
-      <c r="U33" s="268"/>
+      <c r="P33" s="285"/>
+      <c r="Q33" s="286"/>
+      <c r="T33" s="285"/>
+      <c r="U33" s="286"/>
       <c r="X33" s="133"/>
       <c r="Y33" s="133"/>
       <c r="AB33" s="22"/>
@@ -21392,10 +21442,10 @@
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="313" t="s">
+      <c r="H34" s="330" t="s">
         <v>86</v>
       </c>
-      <c r="I34" s="314"/>
+      <c r="I34" s="331"/>
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
       <c r="M34" s="22"/>
@@ -21472,26 +21522,26 @@
       <c r="AF36" s="22"/>
     </row>
     <row r="37" spans="2:41">
-      <c r="B37" s="255">
+      <c r="B37" s="275">
         <v>9</v>
       </c>
       <c r="C37" s="202"/>
-      <c r="D37" s="263" t="s">
+      <c r="D37" s="277" t="s">
         <v>254</v>
       </c>
-      <c r="E37" s="264"/>
+      <c r="E37" s="278"/>
       <c r="F37" s="152"/>
       <c r="G37" s="152"/>
-      <c r="H37" s="311" t="s">
+      <c r="H37" s="332" t="s">
         <v>33</v>
       </c>
-      <c r="I37" s="312"/>
+      <c r="I37" s="333"/>
       <c r="J37" s="152"/>
       <c r="K37" s="152"/>
-      <c r="L37" s="263" t="s">
+      <c r="L37" s="277" t="s">
         <v>34</v>
       </c>
-      <c r="M37" s="264"/>
+      <c r="M37" s="278"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
       <c r="P37" s="22"/>
@@ -21511,12 +21561,12 @@
       <c r="AF37" s="22"/>
     </row>
     <row r="38" spans="2:41" ht="15.75" thickBot="1">
-      <c r="B38" s="256"/>
+      <c r="B38" s="276"/>
       <c r="C38" s="59"/>
-      <c r="D38" s="265" t="s">
+      <c r="D38" s="283" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="266"/>
+      <c r="E38" s="284"/>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
       <c r="H38" s="212" t="s">
@@ -21525,10 +21575,10 @@
       <c r="I38" s="213"/>
       <c r="J38" s="22"/>
       <c r="K38" s="22"/>
-      <c r="L38" s="273" t="s">
+      <c r="L38" s="281" t="s">
         <v>85</v>
       </c>
-      <c r="M38" s="274"/>
+      <c r="M38" s="282"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
       <c r="T38" s="22"/>
@@ -21546,10 +21596,10 @@
       <c r="AF38" s="22"/>
     </row>
     <row r="39" spans="2:41" ht="15.75" thickBot="1">
-      <c r="D39" s="273" t="s">
+      <c r="D39" s="281" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="274"/>
+      <c r="E39" s="282"/>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
       <c r="I39" s="45"/>
@@ -21559,8 +21609,8 @@
       <c r="M39" s="133"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
-      <c r="P39" s="275"/>
-      <c r="Q39" s="275"/>
+      <c r="P39" s="287"/>
+      <c r="Q39" s="287"/>
       <c r="T39" s="22"/>
       <c r="U39" s="22"/>
       <c r="V39" s="22"/>
@@ -21631,26 +21681,26 @@
       <c r="AE41" s="22"/>
     </row>
     <row r="42" spans="2:41">
-      <c r="B42" s="255">
+      <c r="B42" s="275">
         <v>10</v>
       </c>
       <c r="C42" s="202"/>
-      <c r="D42" s="263" t="s">
+      <c r="D42" s="277" t="s">
         <v>50</v>
       </c>
-      <c r="E42" s="264"/>
+      <c r="E42" s="278"/>
       <c r="F42" s="152"/>
       <c r="G42" s="152"/>
-      <c r="H42" s="263" t="s">
+      <c r="H42" s="277" t="s">
         <v>48</v>
       </c>
-      <c r="I42" s="264"/>
+      <c r="I42" s="278"/>
       <c r="J42" s="152"/>
       <c r="K42" s="152"/>
-      <c r="L42" s="311" t="s">
+      <c r="L42" s="332" t="s">
         <v>295</v>
       </c>
-      <c r="M42" s="312"/>
+      <c r="M42" s="333"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
       <c r="R42" s="22"/>
@@ -21669,14 +21719,14 @@
       <c r="AE42" s="22"/>
     </row>
     <row r="43" spans="2:41" ht="15.75" thickBot="1">
-      <c r="B43" s="256"/>
+      <c r="B43" s="276"/>
       <c r="C43" s="59"/>
-      <c r="D43" s="271"/>
-      <c r="E43" s="272"/>
+      <c r="D43" s="279"/>
+      <c r="E43" s="280"/>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="271"/>
-      <c r="I43" s="272"/>
+      <c r="H43" s="279"/>
+      <c r="I43" s="280"/>
       <c r="J43" s="22"/>
       <c r="K43" s="22"/>
       <c r="L43" s="210"/>
@@ -21753,7 +21803,7 @@
       <c r="AF45" s="22"/>
     </row>
     <row r="46" spans="2:41">
-      <c r="B46" s="255">
+      <c r="B46" s="275">
         <v>11</v>
       </c>
       <c r="C46" s="201"/>
@@ -21765,10 +21815,10 @@
       <c r="I46" s="203"/>
       <c r="J46" s="203"/>
       <c r="K46" s="204"/>
-      <c r="L46" s="311" t="s">
+      <c r="L46" s="332" t="s">
         <v>54</v>
       </c>
-      <c r="M46" s="312"/>
+      <c r="M46" s="333"/>
       <c r="N46" s="56"/>
       <c r="AB46" s="22"/>
       <c r="AC46" s="22"/>
@@ -21777,7 +21827,7 @@
       <c r="AF46" s="22"/>
     </row>
     <row r="47" spans="2:41" ht="15.75" thickBot="1">
-      <c r="B47" s="256"/>
+      <c r="B47" s="276"/>
       <c r="C47" s="37"/>
       <c r="D47" s="22"/>
       <c r="E47" s="22"/>
@@ -21787,8 +21837,8 @@
       <c r="I47" s="53"/>
       <c r="J47" s="53"/>
       <c r="K47" s="162"/>
-      <c r="L47" s="319"/>
-      <c r="M47" s="320"/>
+      <c r="L47" s="335"/>
+      <c r="M47" s="336"/>
       <c r="N47" s="56"/>
     </row>
     <row r="48" spans="2:41" ht="15.75" thickBot="1">
@@ -21805,7 +21855,7 @@
       <c r="N48" s="56"/>
     </row>
     <row r="49" spans="2:31">
-      <c r="B49" s="255">
+      <c r="B49" s="275">
         <v>12</v>
       </c>
       <c r="C49" s="201"/>
@@ -21817,16 +21867,16 @@
       <c r="I49" s="203"/>
       <c r="J49" s="203"/>
       <c r="K49" s="204"/>
-      <c r="L49" s="311" t="s">
+      <c r="L49" s="332" t="s">
         <v>133</v>
       </c>
-      <c r="M49" s="312"/>
+      <c r="M49" s="333"/>
       <c r="N49" s="56"/>
       <c r="P49" s="22"/>
       <c r="Q49" s="22"/>
     </row>
     <row r="50" spans="2:31" ht="15.75" thickBot="1">
-      <c r="B50" s="256"/>
+      <c r="B50" s="276"/>
       <c r="C50" s="37"/>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
@@ -21836,8 +21886,8 @@
       <c r="I50" s="53"/>
       <c r="J50" s="53"/>
       <c r="K50" s="162"/>
-      <c r="L50" s="319"/>
-      <c r="M50" s="320"/>
+      <c r="L50" s="335"/>
+      <c r="M50" s="336"/>
       <c r="N50" s="56"/>
       <c r="P50" s="22"/>
       <c r="Q50" s="22"/>
@@ -21876,7 +21926,7 @@
       <c r="R52" s="22"/>
     </row>
     <row r="53" spans="2:31">
-      <c r="B53" s="255">
+      <c r="B53" s="275">
         <v>13</v>
       </c>
       <c r="C53" s="201"/>
@@ -21884,41 +21934,41 @@
       <c r="E53" s="199"/>
       <c r="F53" s="199"/>
       <c r="G53" s="200"/>
-      <c r="H53" s="263" t="s">
+      <c r="H53" s="277" t="s">
         <v>56</v>
       </c>
-      <c r="I53" s="264"/>
+      <c r="I53" s="278"/>
       <c r="J53" s="152"/>
       <c r="K53" s="152"/>
       <c r="L53" s="153"/>
       <c r="M53" s="152"/>
       <c r="N53" s="153"/>
       <c r="O53" s="153"/>
-      <c r="P53" s="311" t="s">
+      <c r="P53" s="332" t="s">
         <v>325</v>
       </c>
-      <c r="Q53" s="312"/>
+      <c r="Q53" s="333"/>
       <c r="R53" s="22"/>
     </row>
     <row r="54" spans="2:31" ht="15.75" thickBot="1">
-      <c r="B54" s="256"/>
+      <c r="B54" s="276"/>
       <c r="C54" s="37"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
       <c r="G54" s="161"/>
-      <c r="H54" s="273" t="s">
+      <c r="H54" s="281" t="s">
         <v>63</v>
       </c>
-      <c r="I54" s="274"/>
+      <c r="I54" s="282"/>
       <c r="J54" s="22"/>
       <c r="K54" s="22"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
-      <c r="P54" s="313" t="s">
+      <c r="P54" s="330" t="s">
         <v>64</v>
       </c>
-      <c r="Q54" s="314"/>
+      <c r="Q54" s="331"/>
     </row>
     <row r="55" spans="2:31" ht="15.75" thickBot="1">
       <c r="D55" s="22"/>
@@ -21955,7 +22005,7 @@
       <c r="U56" s="35"/>
     </row>
     <row r="57" spans="2:31">
-      <c r="B57" s="255">
+      <c r="B57" s="275">
         <v>14</v>
       </c>
       <c r="C57" s="201"/>
@@ -21967,25 +22017,25 @@
       <c r="I57" s="199"/>
       <c r="J57" s="199"/>
       <c r="K57" s="200"/>
-      <c r="L57" s="263" t="s">
+      <c r="L57" s="277" t="s">
         <v>58</v>
       </c>
-      <c r="M57" s="264"/>
+      <c r="M57" s="278"/>
       <c r="N57" s="153"/>
       <c r="O57" s="153"/>
-      <c r="P57" s="311" t="s">
+      <c r="P57" s="332" t="s">
         <v>242</v>
       </c>
-      <c r="Q57" s="312"/>
+      <c r="Q57" s="333"/>
       <c r="R57" s="153"/>
       <c r="S57" s="153"/>
-      <c r="T57" s="263" t="s">
+      <c r="T57" s="277" t="s">
         <v>59</v>
       </c>
-      <c r="U57" s="264"/>
+      <c r="U57" s="278"/>
     </row>
     <row r="58" spans="2:31" ht="15.75" thickBot="1">
-      <c r="B58" s="256"/>
+      <c r="B58" s="276"/>
       <c r="C58" s="37"/>
       <c r="D58" s="22"/>
       <c r="E58" s="22"/>
@@ -21995,18 +22045,18 @@
       <c r="I58" s="22"/>
       <c r="J58" s="22"/>
       <c r="K58" s="161"/>
-      <c r="L58" s="273" t="s">
+      <c r="L58" s="281" t="s">
         <v>69</v>
       </c>
-      <c r="M58" s="274"/>
-      <c r="P58" s="313" t="s">
+      <c r="M58" s="282"/>
+      <c r="P58" s="330" t="s">
         <v>64</v>
       </c>
-      <c r="Q58" s="314"/>
-      <c r="T58" s="273" t="s">
+      <c r="Q58" s="331"/>
+      <c r="T58" s="281" t="s">
         <v>79</v>
       </c>
-      <c r="U58" s="274"/>
+      <c r="U58" s="282"/>
     </row>
     <row r="59" spans="2:31" ht="15.75" thickBot="1">
       <c r="D59" s="22"/>
@@ -22053,7 +22103,7 @@
       </c>
     </row>
     <row r="61" spans="2:31">
-      <c r="B61" s="255">
+      <c r="B61" s="275">
         <v>15</v>
       </c>
       <c r="C61" s="201"/>
@@ -22061,48 +22111,48 @@
       <c r="E61" s="199"/>
       <c r="F61" s="199"/>
       <c r="G61" s="200"/>
-      <c r="H61" s="311" t="s">
+      <c r="H61" s="332" t="s">
         <v>60</v>
       </c>
-      <c r="I61" s="312"/>
+      <c r="I61" s="333"/>
       <c r="J61" s="22"/>
       <c r="K61" s="22"/>
       <c r="M61" s="22"/>
       <c r="N61" s="153"/>
       <c r="O61" s="153"/>
-      <c r="P61" s="263" t="s">
+      <c r="P61" s="277" t="s">
         <v>264</v>
       </c>
-      <c r="Q61" s="264"/>
+      <c r="Q61" s="278"/>
       <c r="R61" s="153"/>
       <c r="S61" s="152"/>
-      <c r="T61" s="263" t="s">
+      <c r="T61" s="277" t="s">
         <v>265</v>
       </c>
-      <c r="U61" s="264"/>
+      <c r="U61" s="278"/>
       <c r="AC61" s="22"/>
       <c r="AD61" s="22"/>
       <c r="AE61" s="22"/>
     </row>
     <row r="62" spans="2:31" ht="15.75" thickBot="1">
-      <c r="B62" s="256"/>
+      <c r="B62" s="276"/>
       <c r="C62" s="37"/>
       <c r="D62" s="22"/>
       <c r="E62" s="22"/>
       <c r="F62" s="22"/>
       <c r="G62" s="22"/>
-      <c r="H62" s="323" t="s">
+      <c r="H62" s="334" t="s">
         <v>63</v>
       </c>
-      <c r="I62" s="314"/>
+      <c r="I62" s="331"/>
       <c r="J62" s="22"/>
       <c r="K62" s="22"/>
       <c r="M62" s="22"/>
-      <c r="P62" s="267"/>
-      <c r="Q62" s="268"/>
+      <c r="P62" s="285"/>
+      <c r="Q62" s="286"/>
       <c r="S62" s="22"/>
-      <c r="T62" s="267"/>
-      <c r="U62" s="268"/>
+      <c r="T62" s="285"/>
+      <c r="U62" s="286"/>
       <c r="Y62" s="22"/>
       <c r="Z62" s="22"/>
       <c r="AA62" s="22"/>
@@ -22175,26 +22225,26 @@
       <c r="AE64" s="22"/>
     </row>
     <row r="65" spans="2:45">
-      <c r="B65" s="255">
+      <c r="B65" s="275">
         <v>16</v>
       </c>
       <c r="C65" s="202"/>
-      <c r="D65" s="285" t="s">
+      <c r="D65" s="290" t="s">
         <v>62</v>
       </c>
-      <c r="E65" s="286"/>
+      <c r="E65" s="291"/>
       <c r="F65" s="22"/>
       <c r="G65" s="22"/>
-      <c r="H65" s="311" t="s">
+      <c r="H65" s="332" t="s">
         <v>294</v>
       </c>
-      <c r="I65" s="312"/>
+      <c r="I65" s="333"/>
       <c r="J65" s="152"/>
       <c r="K65" s="152"/>
-      <c r="L65" s="263" t="s">
+      <c r="L65" s="277" t="s">
         <v>132</v>
       </c>
-      <c r="M65" s="264"/>
+      <c r="M65" s="278"/>
       <c r="N65" s="152"/>
       <c r="O65" s="152"/>
       <c r="Q65" s="22"/>
@@ -22205,24 +22255,24 @@
       <c r="AE65" s="22"/>
     </row>
     <row r="66" spans="2:45" ht="15.75" thickBot="1">
-      <c r="B66" s="256"/>
+      <c r="B66" s="276"/>
       <c r="C66" s="37"/>
-      <c r="D66" s="321" t="s">
+      <c r="D66" s="292" t="s">
         <v>63</v>
       </c>
-      <c r="E66" s="322"/>
+      <c r="E66" s="293"/>
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
-      <c r="H66" s="313" t="s">
+      <c r="H66" s="330" t="s">
         <v>274</v>
       </c>
-      <c r="I66" s="314"/>
+      <c r="I66" s="331"/>
       <c r="J66" s="22"/>
       <c r="K66" s="22"/>
-      <c r="L66" s="265" t="s">
+      <c r="L66" s="283" t="s">
         <v>252</v>
       </c>
-      <c r="M66" s="266"/>
+      <c r="M66" s="284"/>
       <c r="N66" s="186"/>
       <c r="O66" s="22"/>
       <c r="R66" s="22"/>
@@ -22232,20 +22282,20 @@
       <c r="AE66" s="22"/>
     </row>
     <row r="67" spans="2:45" ht="15.75" thickBot="1">
-      <c r="D67" s="293" t="s">
+      <c r="D67" s="294" t="s">
         <v>65</v>
       </c>
-      <c r="E67" s="294"/>
+      <c r="E67" s="295"/>
       <c r="F67" s="22"/>
       <c r="G67" s="22"/>
       <c r="H67" s="205"/>
       <c r="I67" s="209"/>
       <c r="J67" s="22"/>
       <c r="K67" s="22"/>
-      <c r="L67" s="273" t="s">
+      <c r="L67" s="281" t="s">
         <v>149</v>
       </c>
-      <c r="M67" s="274"/>
+      <c r="M67" s="282"/>
       <c r="N67" s="186"/>
       <c r="O67" s="22"/>
       <c r="R67" s="22"/>
@@ -22373,50 +22423,50 @@
       <c r="AC70" s="133"/>
       <c r="AD70" s="186"/>
       <c r="AE70" s="22"/>
-      <c r="AF70" s="275"/>
-      <c r="AG70" s="275"/>
+      <c r="AF70" s="287"/>
+      <c r="AG70" s="287"/>
       <c r="AH70" s="22"/>
       <c r="AI70" s="22"/>
-      <c r="AJ70" s="275"/>
-      <c r="AK70" s="275"/>
+      <c r="AJ70" s="287"/>
+      <c r="AK70" s="287"/>
       <c r="AL70" s="22"/>
       <c r="AN70" s="22"/>
       <c r="AO70" s="22"/>
       <c r="AP70" s="186"/>
     </row>
     <row r="71" spans="2:45">
-      <c r="B71" s="304">
+      <c r="B71" s="319">
         <v>17</v>
       </c>
       <c r="C71" s="201"/>
-      <c r="D71" s="311" t="s">
+      <c r="D71" s="332" t="s">
         <v>238</v>
       </c>
-      <c r="E71" s="312"/>
+      <c r="E71" s="333"/>
       <c r="F71" s="22"/>
       <c r="G71" s="22"/>
-      <c r="H71" s="311" t="s">
+      <c r="H71" s="332" t="s">
         <v>237</v>
       </c>
-      <c r="I71" s="312"/>
+      <c r="I71" s="333"/>
       <c r="J71" s="186"/>
       <c r="K71" s="22"/>
-      <c r="L71" s="311" t="s">
+      <c r="L71" s="332" t="s">
         <v>239</v>
       </c>
-      <c r="M71" s="312"/>
+      <c r="M71" s="333"/>
       <c r="N71" s="186"/>
       <c r="O71" s="22"/>
-      <c r="P71" s="311" t="s">
+      <c r="P71" s="332" t="s">
         <v>240</v>
       </c>
-      <c r="Q71" s="312"/>
+      <c r="Q71" s="333"/>
       <c r="R71" s="186"/>
       <c r="S71" s="22"/>
-      <c r="T71" s="311" t="s">
+      <c r="T71" s="332" t="s">
         <v>241</v>
       </c>
-      <c r="U71" s="312"/>
+      <c r="U71" s="333"/>
       <c r="V71" s="133"/>
       <c r="W71" s="22"/>
       <c r="X71" s="133"/>
@@ -22427,12 +22477,12 @@
       <c r="AC71" s="133"/>
       <c r="AD71" s="186"/>
       <c r="AE71" s="22"/>
-      <c r="AF71" s="275"/>
-      <c r="AG71" s="275"/>
+      <c r="AF71" s="287"/>
+      <c r="AG71" s="287"/>
       <c r="AH71" s="22"/>
       <c r="AI71" s="22"/>
-      <c r="AJ71" s="275"/>
-      <c r="AK71" s="275"/>
+      <c r="AJ71" s="287"/>
+      <c r="AK71" s="287"/>
       <c r="AL71" s="22"/>
       <c r="AM71" s="22"/>
       <c r="AN71" s="22"/>
@@ -22441,25 +22491,25 @@
       <c r="AS71" s="22"/>
     </row>
     <row r="72" spans="2:45" ht="15.75" thickBot="1">
-      <c r="B72" s="305"/>
-      <c r="D72" s="313"/>
-      <c r="E72" s="314"/>
+      <c r="B72" s="320"/>
+      <c r="D72" s="330"/>
+      <c r="E72" s="331"/>
       <c r="F72" s="22"/>
       <c r="G72" s="22"/>
-      <c r="H72" s="313"/>
-      <c r="I72" s="314"/>
+      <c r="H72" s="330"/>
+      <c r="I72" s="331"/>
       <c r="J72" s="22"/>
       <c r="K72" s="22"/>
-      <c r="L72" s="313"/>
-      <c r="M72" s="314"/>
+      <c r="L72" s="330"/>
+      <c r="M72" s="331"/>
       <c r="N72" s="22"/>
       <c r="O72" s="22"/>
-      <c r="P72" s="313"/>
-      <c r="Q72" s="314"/>
+      <c r="P72" s="330"/>
+      <c r="Q72" s="331"/>
       <c r="R72" s="22"/>
       <c r="S72" s="22"/>
-      <c r="T72" s="313"/>
-      <c r="U72" s="314"/>
+      <c r="T72" s="330"/>
+      <c r="U72" s="331"/>
       <c r="V72" s="22"/>
       <c r="W72" s="22"/>
       <c r="X72" s="22"/>
@@ -22530,22 +22580,22 @@
       <c r="AS73" s="22"/>
     </row>
     <row r="74" spans="2:45">
-      <c r="B74" s="240"/>
+      <c r="B74" s="244"/>
       <c r="C74" s="53"/>
       <c r="D74" s="53"/>
       <c r="E74" s="53"/>
       <c r="F74" s="53"/>
       <c r="G74" s="53"/>
-      <c r="H74" s="240"/>
-      <c r="I74" s="240"/>
+      <c r="H74" s="244"/>
+      <c r="I74" s="244"/>
       <c r="J74" s="53"/>
       <c r="K74" s="53"/>
       <c r="L74" s="53"/>
       <c r="M74" s="53"/>
       <c r="N74" s="52"/>
       <c r="O74" s="52"/>
-      <c r="P74" s="240"/>
-      <c r="Q74" s="240"/>
+      <c r="P74" s="244"/>
+      <c r="Q74" s="244"/>
       <c r="R74" s="186"/>
       <c r="S74" s="130"/>
       <c r="T74" s="186"/>
@@ -22560,36 +22610,36 @@
       <c r="AC74" s="133"/>
       <c r="AD74" s="30"/>
       <c r="AE74" s="22"/>
-      <c r="AF74" s="275"/>
-      <c r="AG74" s="275"/>
+      <c r="AF74" s="287"/>
+      <c r="AG74" s="287"/>
       <c r="AH74" s="22"/>
       <c r="AI74" s="22"/>
-      <c r="AJ74" s="275"/>
-      <c r="AK74" s="275"/>
+      <c r="AJ74" s="287"/>
+      <c r="AK74" s="287"/>
       <c r="AL74" s="22"/>
       <c r="AM74" s="22"/>
-      <c r="AN74" s="275"/>
-      <c r="AO74" s="275"/>
+      <c r="AN74" s="287"/>
+      <c r="AO74" s="287"/>
       <c r="AP74" s="186"/>
       <c r="AS74" s="22"/>
     </row>
     <row r="75" spans="2:45">
-      <c r="B75" s="240"/>
+      <c r="B75" s="244"/>
       <c r="C75" s="53"/>
       <c r="D75" s="53"/>
       <c r="E75" s="53"/>
       <c r="F75" s="53"/>
       <c r="G75" s="53"/>
-      <c r="H75" s="324"/>
-      <c r="I75" s="301"/>
+      <c r="H75" s="329"/>
+      <c r="I75" s="299"/>
       <c r="J75" s="53"/>
       <c r="K75" s="53"/>
       <c r="L75" s="53"/>
       <c r="M75" s="53"/>
       <c r="N75" s="52"/>
       <c r="O75" s="52"/>
-      <c r="P75" s="324"/>
-      <c r="Q75" s="301"/>
+      <c r="P75" s="329"/>
+      <c r="Q75" s="299"/>
       <c r="R75" s="186"/>
       <c r="S75" s="130"/>
       <c r="T75" s="188"/>
@@ -22604,16 +22654,16 @@
       <c r="AC75" s="133"/>
       <c r="AD75" s="30"/>
       <c r="AE75" s="22"/>
-      <c r="AF75" s="275"/>
-      <c r="AG75" s="275"/>
+      <c r="AF75" s="287"/>
+      <c r="AG75" s="287"/>
       <c r="AH75" s="22"/>
       <c r="AI75" s="22"/>
-      <c r="AJ75" s="275"/>
-      <c r="AK75" s="275"/>
+      <c r="AJ75" s="287"/>
+      <c r="AK75" s="287"/>
       <c r="AL75" s="22"/>
       <c r="AM75" s="22"/>
-      <c r="AN75" s="275"/>
-      <c r="AO75" s="275"/>
+      <c r="AN75" s="287"/>
+      <c r="AO75" s="287"/>
       <c r="AP75" s="186"/>
     </row>
     <row r="76" spans="2:45">
@@ -22690,22 +22740,22 @@
       <c r="AD77" s="30"/>
     </row>
     <row r="78" spans="2:45">
-      <c r="B78" s="240"/>
+      <c r="B78" s="244"/>
       <c r="C78" s="53"/>
-      <c r="D78" s="240"/>
-      <c r="E78" s="240"/>
+      <c r="D78" s="244"/>
+      <c r="E78" s="244"/>
       <c r="F78" s="168"/>
       <c r="G78" s="168"/>
-      <c r="H78" s="240"/>
-      <c r="I78" s="240"/>
+      <c r="H78" s="244"/>
+      <c r="I78" s="244"/>
       <c r="J78" s="168"/>
       <c r="K78" s="168"/>
-      <c r="L78" s="240"/>
-      <c r="M78" s="240"/>
+      <c r="L78" s="244"/>
+      <c r="M78" s="244"/>
       <c r="N78" s="184"/>
       <c r="O78" s="184"/>
-      <c r="P78" s="240"/>
-      <c r="Q78" s="240"/>
+      <c r="P78" s="244"/>
+      <c r="Q78" s="244"/>
       <c r="R78" s="186"/>
       <c r="S78" s="130"/>
       <c r="U78" s="22"/>
@@ -22718,22 +22768,22 @@
       <c r="AD78" s="186"/>
     </row>
     <row r="79" spans="2:45">
-      <c r="B79" s="240"/>
+      <c r="B79" s="244"/>
       <c r="C79" s="53"/>
-      <c r="D79" s="301"/>
-      <c r="E79" s="301"/>
+      <c r="D79" s="299"/>
+      <c r="E79" s="299"/>
       <c r="F79" s="53"/>
       <c r="G79" s="53"/>
-      <c r="H79" s="324"/>
-      <c r="I79" s="301"/>
+      <c r="H79" s="329"/>
+      <c r="I79" s="299"/>
       <c r="J79" s="53"/>
       <c r="K79" s="53"/>
-      <c r="L79" s="301"/>
-      <c r="M79" s="301"/>
+      <c r="L79" s="299"/>
+      <c r="M79" s="299"/>
       <c r="N79" s="187"/>
       <c r="O79" s="69"/>
-      <c r="P79" s="301"/>
-      <c r="Q79" s="301"/>
+      <c r="P79" s="299"/>
+      <c r="Q79" s="299"/>
       <c r="R79" s="186"/>
       <c r="S79" s="130"/>
       <c r="V79" s="133"/>
@@ -22856,16 +22906,110 @@
     </row>
   </sheetData>
   <mergeCells count="132">
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="AJ27:AK27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="AJ28:AK28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="AF70:AG70"/>
+    <mergeCell ref="AJ70:AK70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="AF71:AG71"/>
     <mergeCell ref="AN74:AO74"/>
     <mergeCell ref="H75:I75"/>
     <mergeCell ref="P75:Q75"/>
@@ -22884,110 +23028,16 @@
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="P71:Q71"/>
     <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="AF70:AG70"/>
-    <mergeCell ref="AJ70:AK70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="AF71:AG71"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="AJ27:AK27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="AJ28:AK28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="P79:Q79"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="65" orientation="portrait" r:id="rId1"/>
@@ -23058,10 +23108,10 @@
     <row r="3" spans="2:25" ht="15.75" thickBot="1">
       <c r="D3" s="133"/>
       <c r="E3" s="133"/>
-      <c r="H3" s="325" t="s">
+      <c r="H3" s="360" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="326"/>
+      <c r="I3" s="361"/>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
     </row>
@@ -23108,61 +23158,61 @@
       <c r="Y5" s="22"/>
     </row>
     <row r="6" spans="2:25">
-      <c r="B6" s="327">
+      <c r="B6" s="347">
         <v>1</v>
       </c>
       <c r="C6" s="202"/>
-      <c r="D6" s="263" t="s">
+      <c r="D6" s="277" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="264"/>
+      <c r="E6" s="278"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
-      <c r="H6" s="263" t="s">
+      <c r="H6" s="277" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="264"/>
+      <c r="I6" s="278"/>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
-      <c r="L6" s="329" t="s">
+      <c r="L6" s="362" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="330"/>
+      <c r="M6" s="363"/>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
-      <c r="P6" s="263" t="s">
+      <c r="P6" s="277" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="264"/>
+      <c r="Q6" s="278"/>
       <c r="R6" s="22"/>
       <c r="S6" s="22"/>
       <c r="Y6" s="22"/>
     </row>
     <row r="7" spans="2:25" ht="15.75" thickBot="1">
-      <c r="B7" s="328"/>
+      <c r="B7" s="348"/>
       <c r="C7" s="59"/>
-      <c r="D7" s="271" t="s">
+      <c r="D7" s="279" t="s">
         <v>262</v>
       </c>
-      <c r="E7" s="272"/>
+      <c r="E7" s="280"/>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
-      <c r="H7" s="271" t="s">
+      <c r="H7" s="279" t="s">
         <v>261</v>
       </c>
-      <c r="I7" s="272"/>
+      <c r="I7" s="280"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
-      <c r="L7" s="331" t="s">
+      <c r="L7" s="364" t="s">
         <v>260</v>
       </c>
-      <c r="M7" s="332"/>
+      <c r="M7" s="365"/>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
-      <c r="P7" s="271" t="s">
+      <c r="P7" s="279" t="s">
         <v>263</v>
       </c>
-      <c r="Q7" s="272"/>
+      <c r="Q7" s="280"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
     </row>
@@ -23175,16 +23225,16 @@
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
-      <c r="L8" s="337" t="s">
+      <c r="L8" s="358" t="s">
         <v>243</v>
       </c>
-      <c r="M8" s="338"/>
+      <c r="M8" s="359"/>
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
-      <c r="X8" s="275"/>
-      <c r="Y8" s="275"/>
+      <c r="X8" s="287"/>
+      <c r="Y8" s="287"/>
     </row>
     <row r="9" spans="2:25" ht="15.75" thickBot="1">
       <c r="D9" s="22"/>
@@ -23202,7 +23252,7 @@
       <c r="W9" s="22"/>
     </row>
     <row r="10" spans="2:25">
-      <c r="B10" s="327">
+      <c r="B10" s="347">
         <v>2</v>
       </c>
       <c r="C10" s="201"/>
@@ -23214,10 +23264,10 @@
       <c r="I10" s="199"/>
       <c r="J10" s="199"/>
       <c r="K10" s="200"/>
-      <c r="L10" s="333" t="s">
+      <c r="L10" s="349" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="334"/>
+      <c r="M10" s="350"/>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
       <c r="R10" s="22"/>
@@ -23228,7 +23278,7 @@
       <c r="W10" s="22"/>
     </row>
     <row r="11" spans="2:25" ht="15.75" thickBot="1">
-      <c r="B11" s="328"/>
+      <c r="B11" s="348"/>
       <c r="C11" s="37"/>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -23238,10 +23288,10 @@
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
       <c r="K11" s="161"/>
-      <c r="L11" s="335" t="s">
+      <c r="L11" s="345" t="s">
         <v>259</v>
       </c>
-      <c r="M11" s="336"/>
+      <c r="M11" s="346"/>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
       <c r="R11" s="22"/>
@@ -23274,7 +23324,7 @@
       <c r="W12" s="22"/>
     </row>
     <row r="13" spans="2:25">
-      <c r="B13" s="327">
+      <c r="B13" s="347">
         <v>3</v>
       </c>
       <c r="C13" s="201"/>
@@ -23286,10 +23336,10 @@
       <c r="I13" s="199"/>
       <c r="J13" s="199"/>
       <c r="K13" s="200"/>
-      <c r="L13" s="333" t="s">
+      <c r="L13" s="349" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="334"/>
+      <c r="M13" s="350"/>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
       <c r="R13" s="22"/>
@@ -23300,7 +23350,7 @@
       <c r="W13" s="22"/>
     </row>
     <row r="14" spans="2:25" ht="15.75" thickBot="1">
-      <c r="B14" s="328"/>
+      <c r="B14" s="348"/>
       <c r="C14" s="37"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -23310,10 +23360,10 @@
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
       <c r="K14" s="161"/>
-      <c r="L14" s="335" t="s">
+      <c r="L14" s="345" t="s">
         <v>259</v>
       </c>
-      <c r="M14" s="336"/>
+      <c r="M14" s="346"/>
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
       <c r="R14" s="22"/>
@@ -23346,7 +23396,7 @@
       <c r="W15" s="22"/>
     </row>
     <row r="16" spans="2:25">
-      <c r="B16" s="327">
+      <c r="B16" s="347">
         <v>4</v>
       </c>
       <c r="C16" s="201"/>
@@ -23358,10 +23408,10 @@
       <c r="I16" s="199"/>
       <c r="J16" s="199"/>
       <c r="K16" s="200"/>
-      <c r="L16" s="333" t="s">
+      <c r="L16" s="349" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="334"/>
+      <c r="M16" s="350"/>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
       <c r="R16" s="22"/>
@@ -23372,7 +23422,7 @@
       <c r="W16" s="22"/>
     </row>
     <row r="17" spans="2:41" ht="15.75" thickBot="1">
-      <c r="B17" s="328"/>
+      <c r="B17" s="348"/>
       <c r="C17" s="37"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
@@ -23382,10 +23432,10 @@
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
       <c r="K17" s="161"/>
-      <c r="L17" s="335" t="s">
+      <c r="L17" s="345" t="s">
         <v>258</v>
       </c>
-      <c r="M17" s="336"/>
+      <c r="M17" s="346"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
       <c r="R17" s="22"/>
@@ -23418,7 +23468,7 @@
       <c r="W18" s="22"/>
     </row>
     <row r="19" spans="2:41">
-      <c r="B19" s="327">
+      <c r="B19" s="347">
         <v>5</v>
       </c>
       <c r="C19" s="201"/>
@@ -23430,10 +23480,10 @@
       <c r="I19" s="199"/>
       <c r="J19" s="199"/>
       <c r="K19" s="200"/>
-      <c r="L19" s="333" t="s">
+      <c r="L19" s="349" t="s">
         <v>257</v>
       </c>
-      <c r="M19" s="334"/>
+      <c r="M19" s="350"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
       <c r="R19" s="22"/>
@@ -23449,7 +23499,7 @@
       <c r="AB19" s="22"/>
     </row>
     <row r="20" spans="2:41" ht="15.75" thickBot="1">
-      <c r="B20" s="328"/>
+      <c r="B20" s="348"/>
       <c r="C20" s="37"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
@@ -23459,10 +23509,10 @@
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
       <c r="K20" s="161"/>
-      <c r="L20" s="335" t="s">
+      <c r="L20" s="345" t="s">
         <v>88</v>
       </c>
-      <c r="M20" s="336"/>
+      <c r="M20" s="346"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
       <c r="R20" s="22"/>
@@ -23539,7 +23589,7 @@
       <c r="AG22" s="22"/>
     </row>
     <row r="23" spans="2:41">
-      <c r="B23" s="327">
+      <c r="B23" s="347">
         <v>6</v>
       </c>
       <c r="C23" s="201"/>
@@ -23547,19 +23597,19 @@
       <c r="E23" s="199"/>
       <c r="F23" s="199"/>
       <c r="G23" s="200"/>
-      <c r="H23" s="333" t="s">
+      <c r="H23" s="349" t="s">
         <v>293</v>
       </c>
-      <c r="I23" s="334"/>
+      <c r="I23" s="350"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
       <c r="M23" s="22"/>
       <c r="N23" s="22"/>
       <c r="O23" s="22"/>
-      <c r="P23" s="263" t="s">
+      <c r="P23" s="277" t="s">
         <v>292</v>
       </c>
-      <c r="Q23" s="264"/>
+      <c r="Q23" s="278"/>
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
       <c r="T23" s="22"/>
@@ -23576,22 +23626,22 @@
       <c r="AG23" s="22"/>
     </row>
     <row r="24" spans="2:41" ht="15.75" thickBot="1">
-      <c r="B24" s="328"/>
+      <c r="B24" s="348"/>
       <c r="C24" s="37"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="161"/>
-      <c r="H24" s="335" t="s">
+      <c r="H24" s="345" t="s">
         <v>87</v>
       </c>
-      <c r="I24" s="336"/>
+      <c r="I24" s="346"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
-      <c r="P24" s="273" t="s">
+      <c r="P24" s="281" t="s">
         <v>256</v>
       </c>
-      <c r="Q24" s="274"/>
+      <c r="Q24" s="282"/>
       <c r="X24" s="22"/>
       <c r="Y24" s="22"/>
       <c r="Z24" s="22"/>
@@ -23675,20 +23725,20 @@
       <c r="AK26" s="22"/>
     </row>
     <row r="27" spans="2:41">
-      <c r="B27" s="327">
+      <c r="B27" s="347">
         <v>7</v>
       </c>
       <c r="C27" s="202"/>
-      <c r="D27" s="263" t="s">
+      <c r="D27" s="277" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="264"/>
+      <c r="E27" s="278"/>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="L27" s="333" t="s">
+      <c r="L27" s="349" t="s">
         <v>24</v>
       </c>
-      <c r="M27" s="334"/>
+      <c r="M27" s="350"/>
       <c r="W27" s="22"/>
       <c r="X27" s="133"/>
       <c r="Y27" s="133"/>
@@ -23702,22 +23752,22 @@
       <c r="AG27" s="133"/>
       <c r="AH27" s="22"/>
       <c r="AI27" s="22"/>
-      <c r="AJ27" s="275"/>
-      <c r="AK27" s="275"/>
+      <c r="AJ27" s="287"/>
+      <c r="AK27" s="287"/>
     </row>
     <row r="28" spans="2:41" ht="15.75" thickBot="1">
-      <c r="B28" s="328"/>
+      <c r="B28" s="348"/>
       <c r="C28" s="59"/>
-      <c r="D28" s="273" t="s">
+      <c r="D28" s="281" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="274"/>
+      <c r="E28" s="282"/>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
-      <c r="L28" s="339" t="s">
+      <c r="L28" s="354" t="s">
         <v>72</v>
       </c>
-      <c r="M28" s="340"/>
+      <c r="M28" s="355"/>
       <c r="T28" s="22"/>
       <c r="U28" s="22"/>
       <c r="X28" s="133"/>
@@ -23732,8 +23782,8 @@
       <c r="AG28" s="133"/>
       <c r="AH28" s="22"/>
       <c r="AI28" s="22"/>
-      <c r="AJ28" s="275"/>
-      <c r="AK28" s="275"/>
+      <c r="AJ28" s="287"/>
+      <c r="AK28" s="287"/>
     </row>
     <row r="29" spans="2:41" ht="15.75" thickBot="1">
       <c r="D29" s="22"/>
@@ -23741,10 +23791,10 @@
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
       <c r="I29" s="22"/>
-      <c r="L29" s="335" t="s">
+      <c r="L29" s="345" t="s">
         <v>73</v>
       </c>
-      <c r="M29" s="336"/>
+      <c r="M29" s="346"/>
       <c r="T29" s="22"/>
       <c r="U29" s="22"/>
       <c r="V29" s="22"/>
@@ -23849,38 +23899,38 @@
       <c r="AO31" s="22"/>
     </row>
     <row r="32" spans="2:41">
-      <c r="B32" s="327">
+      <c r="B32" s="347">
         <v>8</v>
       </c>
       <c r="C32" s="202"/>
-      <c r="D32" s="263" t="s">
+      <c r="D32" s="277" t="s">
         <v>255</v>
       </c>
-      <c r="E32" s="264"/>
+      <c r="E32" s="278"/>
       <c r="F32" s="152"/>
       <c r="G32" s="152"/>
-      <c r="H32" s="333" t="s">
+      <c r="H32" s="349" t="s">
         <v>31</v>
       </c>
-      <c r="I32" s="334"/>
+      <c r="I32" s="350"/>
       <c r="J32" s="152"/>
       <c r="K32" s="152"/>
-      <c r="L32" s="263" t="s">
+      <c r="L32" s="277" t="s">
         <v>35</v>
       </c>
-      <c r="M32" s="264"/>
+      <c r="M32" s="278"/>
       <c r="N32" s="152"/>
       <c r="O32" s="152"/>
-      <c r="P32" s="263" t="s">
+      <c r="P32" s="277" t="s">
         <v>36</v>
       </c>
-      <c r="Q32" s="264"/>
+      <c r="Q32" s="278"/>
       <c r="R32" s="153"/>
       <c r="S32" s="153"/>
-      <c r="T32" s="263" t="s">
+      <c r="T32" s="277" t="s">
         <v>208</v>
       </c>
-      <c r="U32" s="264"/>
+      <c r="U32" s="278"/>
       <c r="X32" s="133"/>
       <c r="Y32" s="133"/>
       <c r="AB32" s="22"/>
@@ -23899,28 +23949,28 @@
       <c r="AO32" s="22"/>
     </row>
     <row r="33" spans="2:41" ht="15.75" thickBot="1">
-      <c r="B33" s="328"/>
+      <c r="B33" s="348"/>
       <c r="C33" s="59"/>
-      <c r="D33" s="273" t="s">
+      <c r="D33" s="281" t="s">
         <v>88</v>
       </c>
-      <c r="E33" s="274"/>
+      <c r="E33" s="282"/>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="339" t="s">
+      <c r="H33" s="354" t="s">
         <v>84</v>
       </c>
-      <c r="I33" s="340"/>
+      <c r="I33" s="355"/>
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
-      <c r="L33" s="267"/>
-      <c r="M33" s="268"/>
+      <c r="L33" s="285"/>
+      <c r="M33" s="286"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
-      <c r="P33" s="267"/>
-      <c r="Q33" s="268"/>
-      <c r="T33" s="267"/>
-      <c r="U33" s="268"/>
+      <c r="P33" s="285"/>
+      <c r="Q33" s="286"/>
+      <c r="T33" s="285"/>
+      <c r="U33" s="286"/>
       <c r="X33" s="133"/>
       <c r="Y33" s="133"/>
       <c r="AB33" s="22"/>
@@ -23943,10 +23993,10 @@
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="335" t="s">
+      <c r="H34" s="345" t="s">
         <v>86</v>
       </c>
-      <c r="I34" s="336"/>
+      <c r="I34" s="346"/>
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
       <c r="M34" s="22"/>
@@ -24023,26 +24073,26 @@
       <c r="AF36" s="22"/>
     </row>
     <row r="37" spans="2:41">
-      <c r="B37" s="327">
+      <c r="B37" s="347">
         <v>9</v>
       </c>
       <c r="C37" s="202"/>
-      <c r="D37" s="263" t="s">
+      <c r="D37" s="277" t="s">
         <v>254</v>
       </c>
-      <c r="E37" s="264"/>
+      <c r="E37" s="278"/>
       <c r="F37" s="152"/>
       <c r="G37" s="152"/>
-      <c r="H37" s="333" t="s">
+      <c r="H37" s="349" t="s">
         <v>33</v>
       </c>
-      <c r="I37" s="334"/>
+      <c r="I37" s="350"/>
       <c r="J37" s="152"/>
       <c r="K37" s="152"/>
-      <c r="L37" s="263" t="s">
+      <c r="L37" s="277" t="s">
         <v>34</v>
       </c>
-      <c r="M37" s="264"/>
+      <c r="M37" s="278"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
       <c r="P37" s="22"/>
@@ -24062,12 +24112,12 @@
       <c r="AF37" s="22"/>
     </row>
     <row r="38" spans="2:41" ht="15.75" thickBot="1">
-      <c r="B38" s="328"/>
+      <c r="B38" s="348"/>
       <c r="C38" s="59"/>
-      <c r="D38" s="265" t="s">
+      <c r="D38" s="283" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="266"/>
+      <c r="E38" s="284"/>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
       <c r="H38" s="221" t="s">
@@ -24076,10 +24126,10 @@
       <c r="I38" s="222"/>
       <c r="J38" s="22"/>
       <c r="K38" s="22"/>
-      <c r="L38" s="273" t="s">
+      <c r="L38" s="281" t="s">
         <v>85</v>
       </c>
-      <c r="M38" s="274"/>
+      <c r="M38" s="282"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
       <c r="T38" s="22"/>
@@ -24097,10 +24147,10 @@
       <c r="AF38" s="22"/>
     </row>
     <row r="39" spans="2:41" ht="15.75" thickBot="1">
-      <c r="D39" s="273" t="s">
+      <c r="D39" s="281" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="274"/>
+      <c r="E39" s="282"/>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
       <c r="I39" s="45"/>
@@ -24110,8 +24160,8 @@
       <c r="M39" s="133"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
-      <c r="P39" s="275"/>
-      <c r="Q39" s="275"/>
+      <c r="P39" s="287"/>
+      <c r="Q39" s="287"/>
       <c r="T39" s="22"/>
       <c r="U39" s="22"/>
       <c r="V39" s="22"/>
@@ -24182,26 +24232,26 @@
       <c r="AE41" s="22"/>
     </row>
     <row r="42" spans="2:41">
-      <c r="B42" s="327">
+      <c r="B42" s="347">
         <v>10</v>
       </c>
       <c r="C42" s="202"/>
-      <c r="D42" s="263" t="s">
+      <c r="D42" s="277" t="s">
         <v>50</v>
       </c>
-      <c r="E42" s="264"/>
+      <c r="E42" s="278"/>
       <c r="F42" s="152"/>
       <c r="G42" s="152"/>
-      <c r="H42" s="263" t="s">
+      <c r="H42" s="277" t="s">
         <v>48</v>
       </c>
-      <c r="I42" s="264"/>
+      <c r="I42" s="278"/>
       <c r="J42" s="152"/>
       <c r="K42" s="152"/>
-      <c r="L42" s="333" t="s">
+      <c r="L42" s="349" t="s">
         <v>295</v>
       </c>
-      <c r="M42" s="334"/>
+      <c r="M42" s="350"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
       <c r="R42" s="22"/>
@@ -24220,14 +24270,14 @@
       <c r="AE42" s="22"/>
     </row>
     <row r="43" spans="2:41" ht="15.75" thickBot="1">
-      <c r="B43" s="328"/>
+      <c r="B43" s="348"/>
       <c r="C43" s="59"/>
-      <c r="D43" s="271"/>
-      <c r="E43" s="272"/>
+      <c r="D43" s="279"/>
+      <c r="E43" s="280"/>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="271"/>
-      <c r="I43" s="272"/>
+      <c r="H43" s="279"/>
+      <c r="I43" s="280"/>
       <c r="J43" s="22"/>
       <c r="K43" s="22"/>
       <c r="L43" s="223"/>
@@ -24304,7 +24354,7 @@
       <c r="AF45" s="22"/>
     </row>
     <row r="46" spans="2:41">
-      <c r="B46" s="327">
+      <c r="B46" s="347">
         <v>11</v>
       </c>
       <c r="C46" s="201"/>
@@ -24316,10 +24366,10 @@
       <c r="I46" s="203"/>
       <c r="J46" s="203"/>
       <c r="K46" s="204"/>
-      <c r="L46" s="333" t="s">
+      <c r="L46" s="349" t="s">
         <v>54</v>
       </c>
-      <c r="M46" s="334"/>
+      <c r="M46" s="350"/>
       <c r="N46" s="56"/>
       <c r="AB46" s="22"/>
       <c r="AC46" s="22"/>
@@ -24328,7 +24378,7 @@
       <c r="AF46" s="22"/>
     </row>
     <row r="47" spans="2:41" ht="15.75" thickBot="1">
-      <c r="B47" s="328"/>
+      <c r="B47" s="348"/>
       <c r="C47" s="37"/>
       <c r="D47" s="22"/>
       <c r="E47" s="22"/>
@@ -24338,8 +24388,8 @@
       <c r="I47" s="53"/>
       <c r="J47" s="53"/>
       <c r="K47" s="162"/>
-      <c r="L47" s="341"/>
-      <c r="M47" s="342"/>
+      <c r="L47" s="356"/>
+      <c r="M47" s="357"/>
       <c r="N47" s="56"/>
     </row>
     <row r="48" spans="2:41" ht="15.75" thickBot="1">
@@ -24356,7 +24406,7 @@
       <c r="N48" s="56"/>
     </row>
     <row r="49" spans="2:31">
-      <c r="B49" s="327">
+      <c r="B49" s="347">
         <v>12</v>
       </c>
       <c r="C49" s="201"/>
@@ -24368,16 +24418,16 @@
       <c r="I49" s="203"/>
       <c r="J49" s="203"/>
       <c r="K49" s="204"/>
-      <c r="L49" s="333" t="s">
+      <c r="L49" s="349" t="s">
         <v>133</v>
       </c>
-      <c r="M49" s="334"/>
+      <c r="M49" s="350"/>
       <c r="N49" s="56"/>
       <c r="P49" s="22"/>
       <c r="Q49" s="22"/>
     </row>
     <row r="50" spans="2:31" ht="15.75" thickBot="1">
-      <c r="B50" s="328"/>
+      <c r="B50" s="348"/>
       <c r="C50" s="37"/>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
@@ -24387,8 +24437,8 @@
       <c r="I50" s="53"/>
       <c r="J50" s="53"/>
       <c r="K50" s="162"/>
-      <c r="L50" s="341"/>
-      <c r="M50" s="342"/>
+      <c r="L50" s="356"/>
+      <c r="M50" s="357"/>
       <c r="N50" s="56"/>
       <c r="P50" s="22"/>
       <c r="Q50" s="22"/>
@@ -24427,7 +24477,7 @@
       <c r="R52" s="22"/>
     </row>
     <row r="53" spans="2:31">
-      <c r="B53" s="327">
+      <c r="B53" s="347">
         <v>13</v>
       </c>
       <c r="C53" s="201"/>
@@ -24435,41 +24485,41 @@
       <c r="E53" s="199"/>
       <c r="F53" s="199"/>
       <c r="G53" s="200"/>
-      <c r="H53" s="263" t="s">
+      <c r="H53" s="277" t="s">
         <v>56</v>
       </c>
-      <c r="I53" s="264"/>
+      <c r="I53" s="278"/>
       <c r="J53" s="152"/>
       <c r="K53" s="152"/>
       <c r="L53" s="153"/>
       <c r="M53" s="152"/>
       <c r="N53" s="153"/>
       <c r="O53" s="153"/>
-      <c r="P53" s="333" t="s">
+      <c r="P53" s="349" t="s">
         <v>325</v>
       </c>
-      <c r="Q53" s="334"/>
+      <c r="Q53" s="350"/>
       <c r="R53" s="22"/>
     </row>
     <row r="54" spans="2:31" ht="15.75" thickBot="1">
-      <c r="B54" s="328"/>
+      <c r="B54" s="348"/>
       <c r="C54" s="37"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
       <c r="G54" s="161"/>
-      <c r="H54" s="273" t="s">
+      <c r="H54" s="281" t="s">
         <v>63</v>
       </c>
-      <c r="I54" s="274"/>
+      <c r="I54" s="282"/>
       <c r="J54" s="22"/>
       <c r="K54" s="22"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
-      <c r="P54" s="335" t="s">
+      <c r="P54" s="345" t="s">
         <v>64</v>
       </c>
-      <c r="Q54" s="336"/>
+      <c r="Q54" s="346"/>
     </row>
     <row r="55" spans="2:31" ht="15.75" thickBot="1">
       <c r="D55" s="22"/>
@@ -24506,7 +24556,7 @@
       <c r="U56" s="35"/>
     </row>
     <row r="57" spans="2:31">
-      <c r="B57" s="327">
+      <c r="B57" s="347">
         <v>14</v>
       </c>
       <c r="C57" s="201"/>
@@ -24518,25 +24568,25 @@
       <c r="I57" s="199"/>
       <c r="J57" s="199"/>
       <c r="K57" s="200"/>
-      <c r="L57" s="263" t="s">
+      <c r="L57" s="277" t="s">
         <v>58</v>
       </c>
-      <c r="M57" s="264"/>
+      <c r="M57" s="278"/>
       <c r="N57" s="153"/>
       <c r="O57" s="153"/>
-      <c r="P57" s="333" t="s">
+      <c r="P57" s="349" t="s">
         <v>242</v>
       </c>
-      <c r="Q57" s="334"/>
+      <c r="Q57" s="350"/>
       <c r="R57" s="153"/>
       <c r="S57" s="153"/>
-      <c r="T57" s="263" t="s">
+      <c r="T57" s="277" t="s">
         <v>59</v>
       </c>
-      <c r="U57" s="264"/>
+      <c r="U57" s="278"/>
     </row>
     <row r="58" spans="2:31" ht="15.75" thickBot="1">
-      <c r="B58" s="328"/>
+      <c r="B58" s="348"/>
       <c r="C58" s="37"/>
       <c r="D58" s="22"/>
       <c r="E58" s="22"/>
@@ -24546,18 +24596,18 @@
       <c r="I58" s="22"/>
       <c r="J58" s="22"/>
       <c r="K58" s="161"/>
-      <c r="L58" s="273" t="s">
+      <c r="L58" s="281" t="s">
         <v>69</v>
       </c>
-      <c r="M58" s="274"/>
-      <c r="P58" s="335" t="s">
+      <c r="M58" s="282"/>
+      <c r="P58" s="345" t="s">
         <v>64</v>
       </c>
-      <c r="Q58" s="336"/>
-      <c r="T58" s="273" t="s">
+      <c r="Q58" s="346"/>
+      <c r="T58" s="281" t="s">
         <v>79</v>
       </c>
-      <c r="U58" s="274"/>
+      <c r="U58" s="282"/>
     </row>
     <row r="59" spans="2:31" ht="15.75" thickBot="1">
       <c r="D59" s="22"/>
@@ -24604,7 +24654,7 @@
       </c>
     </row>
     <row r="61" spans="2:31">
-      <c r="B61" s="327">
+      <c r="B61" s="347">
         <v>15</v>
       </c>
       <c r="C61" s="201"/>
@@ -24612,48 +24662,48 @@
       <c r="E61" s="199"/>
       <c r="F61" s="199"/>
       <c r="G61" s="200"/>
-      <c r="H61" s="333" t="s">
+      <c r="H61" s="349" t="s">
         <v>60</v>
       </c>
-      <c r="I61" s="334"/>
+      <c r="I61" s="350"/>
       <c r="J61" s="22"/>
       <c r="K61" s="22"/>
       <c r="M61" s="22"/>
       <c r="N61" s="153"/>
       <c r="O61" s="153"/>
-      <c r="P61" s="263" t="s">
+      <c r="P61" s="277" t="s">
         <v>264</v>
       </c>
-      <c r="Q61" s="264"/>
+      <c r="Q61" s="278"/>
       <c r="R61" s="153"/>
       <c r="S61" s="152"/>
-      <c r="T61" s="263" t="s">
+      <c r="T61" s="277" t="s">
         <v>265</v>
       </c>
-      <c r="U61" s="264"/>
+      <c r="U61" s="278"/>
       <c r="AC61" s="22"/>
       <c r="AD61" s="22"/>
       <c r="AE61" s="22"/>
     </row>
     <row r="62" spans="2:31" ht="15.75" thickBot="1">
-      <c r="B62" s="328"/>
+      <c r="B62" s="348"/>
       <c r="C62" s="37"/>
       <c r="D62" s="22"/>
       <c r="E62" s="22"/>
       <c r="F62" s="22"/>
       <c r="G62" s="22"/>
-      <c r="H62" s="343" t="s">
+      <c r="H62" s="353" t="s">
         <v>63</v>
       </c>
-      <c r="I62" s="336"/>
+      <c r="I62" s="346"/>
       <c r="J62" s="22"/>
       <c r="K62" s="22"/>
       <c r="M62" s="22"/>
-      <c r="P62" s="267"/>
-      <c r="Q62" s="268"/>
+      <c r="P62" s="285"/>
+      <c r="Q62" s="286"/>
       <c r="S62" s="22"/>
-      <c r="T62" s="267"/>
-      <c r="U62" s="268"/>
+      <c r="T62" s="285"/>
+      <c r="U62" s="286"/>
       <c r="Y62" s="22"/>
       <c r="Z62" s="22"/>
       <c r="AA62" s="22"/>
@@ -24726,26 +24776,26 @@
       <c r="AE64" s="22"/>
     </row>
     <row r="65" spans="1:45">
-      <c r="B65" s="327">
+      <c r="B65" s="347">
         <v>16</v>
       </c>
       <c r="C65" s="201"/>
-      <c r="D65" s="285" t="s">
+      <c r="D65" s="290" t="s">
         <v>62</v>
       </c>
-      <c r="E65" s="286"/>
+      <c r="E65" s="291"/>
       <c r="F65" s="22"/>
       <c r="G65" s="22"/>
-      <c r="H65" s="263" t="s">
+      <c r="H65" s="277" t="s">
         <v>294</v>
       </c>
-      <c r="I65" s="264"/>
+      <c r="I65" s="278"/>
       <c r="J65" s="152"/>
       <c r="K65" s="152"/>
-      <c r="L65" s="333" t="s">
+      <c r="L65" s="349" t="s">
         <v>132</v>
       </c>
-      <c r="M65" s="334"/>
+      <c r="M65" s="350"/>
       <c r="N65" s="152"/>
       <c r="O65" s="152"/>
       <c r="Q65" s="22"/>
@@ -24756,24 +24806,24 @@
       <c r="AE65" s="22"/>
     </row>
     <row r="66" spans="1:45" ht="15.75" thickBot="1">
-      <c r="B66" s="328"/>
+      <c r="B66" s="348"/>
       <c r="C66" s="37"/>
-      <c r="D66" s="321" t="s">
+      <c r="D66" s="292" t="s">
         <v>63</v>
       </c>
-      <c r="E66" s="322"/>
+      <c r="E66" s="293"/>
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
-      <c r="H66" s="273" t="s">
+      <c r="H66" s="281" t="s">
         <v>274</v>
       </c>
-      <c r="I66" s="274"/>
+      <c r="I66" s="282"/>
       <c r="J66" s="22"/>
       <c r="K66" s="22"/>
-      <c r="L66" s="339" t="s">
+      <c r="L66" s="354" t="s">
         <v>252</v>
       </c>
-      <c r="M66" s="340"/>
+      <c r="M66" s="355"/>
       <c r="N66" s="186"/>
       <c r="O66" s="22"/>
       <c r="R66" s="22"/>
@@ -24783,20 +24833,20 @@
       <c r="AE66" s="22"/>
     </row>
     <row r="67" spans="1:45" ht="15.75" thickBot="1">
-      <c r="D67" s="293" t="s">
+      <c r="D67" s="294" t="s">
         <v>65</v>
       </c>
-      <c r="E67" s="294"/>
+      <c r="E67" s="295"/>
       <c r="F67" s="22"/>
       <c r="G67" s="22"/>
-      <c r="H67" s="275"/>
-      <c r="I67" s="275"/>
+      <c r="H67" s="287"/>
+      <c r="I67" s="287"/>
       <c r="J67" s="22"/>
       <c r="K67" s="22"/>
-      <c r="L67" s="335" t="s">
+      <c r="L67" s="345" t="s">
         <v>149</v>
       </c>
-      <c r="M67" s="336"/>
+      <c r="M67" s="346"/>
       <c r="N67" s="186"/>
       <c r="O67" s="22"/>
       <c r="R67" s="22"/>
@@ -24891,28 +24941,28 @@
       <c r="AO69" s="22"/>
     </row>
     <row r="70" spans="1:45">
-      <c r="B70" s="344">
+      <c r="B70" s="351">
         <v>17</v>
       </c>
       <c r="C70" s="22"/>
       <c r="F70" s="53"/>
       <c r="G70" s="53"/>
-      <c r="H70" s="263" t="s">
+      <c r="H70" s="277" t="s">
         <v>146</v>
       </c>
-      <c r="I70" s="264"/>
+      <c r="I70" s="278"/>
       <c r="J70" s="187"/>
       <c r="K70" s="53"/>
-      <c r="L70" s="333" t="s">
+      <c r="L70" s="349" t="s">
         <v>206</v>
       </c>
-      <c r="M70" s="334"/>
+      <c r="M70" s="350"/>
       <c r="N70" s="184"/>
       <c r="O70" s="168"/>
-      <c r="P70" s="263" t="s">
+      <c r="P70" s="277" t="s">
         <v>324</v>
       </c>
-      <c r="Q70" s="264"/>
+      <c r="Q70" s="278"/>
       <c r="R70" s="142"/>
       <c r="S70" s="152"/>
       <c r="V70" s="133"/>
@@ -24925,40 +24975,40 @@
       <c r="AC70" s="133"/>
       <c r="AD70" s="186"/>
       <c r="AE70" s="22"/>
-      <c r="AF70" s="275"/>
-      <c r="AG70" s="275"/>
+      <c r="AF70" s="287"/>
+      <c r="AG70" s="287"/>
       <c r="AH70" s="22"/>
       <c r="AI70" s="22"/>
-      <c r="AJ70" s="275"/>
-      <c r="AK70" s="275"/>
+      <c r="AJ70" s="287"/>
+      <c r="AK70" s="287"/>
       <c r="AL70" s="22"/>
       <c r="AN70" s="22"/>
       <c r="AO70" s="22"/>
       <c r="AP70" s="186"/>
     </row>
     <row r="71" spans="1:45" ht="15.75" thickBot="1">
-      <c r="B71" s="345"/>
+      <c r="B71" s="352"/>
       <c r="C71" s="22"/>
       <c r="D71" s="133"/>
       <c r="E71" s="133"/>
       <c r="F71" s="53"/>
       <c r="G71" s="53"/>
-      <c r="H71" s="306" t="s">
+      <c r="H71" s="316" t="s">
         <v>250</v>
       </c>
-      <c r="I71" s="274"/>
+      <c r="I71" s="282"/>
       <c r="J71" s="187"/>
       <c r="K71" s="53"/>
-      <c r="L71" s="343" t="s">
+      <c r="L71" s="353" t="s">
         <v>251</v>
       </c>
-      <c r="M71" s="336"/>
+      <c r="M71" s="346"/>
       <c r="N71" s="187"/>
       <c r="O71" s="53"/>
-      <c r="P71" s="306" t="s">
+      <c r="P71" s="316" t="s">
         <v>148</v>
       </c>
-      <c r="Q71" s="274"/>
+      <c r="Q71" s="282"/>
       <c r="R71" s="186"/>
       <c r="S71" s="22"/>
       <c r="V71" s="133"/>
@@ -24971,12 +25021,12 @@
       <c r="AC71" s="133"/>
       <c r="AD71" s="186"/>
       <c r="AE71" s="22"/>
-      <c r="AF71" s="275"/>
-      <c r="AG71" s="275"/>
+      <c r="AF71" s="287"/>
+      <c r="AG71" s="287"/>
       <c r="AH71" s="22"/>
       <c r="AI71" s="22"/>
-      <c r="AJ71" s="275"/>
-      <c r="AK71" s="275"/>
+      <c r="AJ71" s="287"/>
+      <c r="AK71" s="287"/>
       <c r="AL71" s="22"/>
       <c r="AM71" s="22"/>
       <c r="AN71" s="22"/>
@@ -25081,32 +25131,32 @@
       <c r="AS73" s="22"/>
     </row>
     <row r="74" spans="1:45">
-      <c r="B74" s="327">
+      <c r="B74" s="347">
         <v>18</v>
       </c>
       <c r="C74" s="201"/>
-      <c r="D74" s="333" t="s">
+      <c r="D74" s="349" t="s">
         <v>205</v>
       </c>
-      <c r="E74" s="334"/>
+      <c r="E74" s="350"/>
       <c r="F74" s="53"/>
       <c r="G74" s="53"/>
-      <c r="H74" s="333" t="s">
+      <c r="H74" s="349" t="s">
         <v>331</v>
       </c>
-      <c r="I74" s="334"/>
+      <c r="I74" s="350"/>
       <c r="J74" s="53"/>
       <c r="K74" s="53"/>
-      <c r="L74" s="333" t="s">
+      <c r="L74" s="349" t="s">
         <v>335</v>
       </c>
-      <c r="M74" s="334"/>
+      <c r="M74" s="350"/>
       <c r="N74" s="52"/>
       <c r="O74" s="52"/>
-      <c r="P74" s="333" t="s">
+      <c r="P74" s="349" t="s">
         <v>336</v>
       </c>
-      <c r="Q74" s="334"/>
+      <c r="Q74" s="350"/>
       <c r="R74" s="186"/>
       <c r="S74" s="130"/>
       <c r="T74" s="186"/>
@@ -25121,36 +25171,36 @@
       <c r="AC74" s="133"/>
       <c r="AD74" s="30"/>
       <c r="AE74" s="22"/>
-      <c r="AF74" s="275"/>
-      <c r="AG74" s="275"/>
+      <c r="AF74" s="287"/>
+      <c r="AG74" s="287"/>
       <c r="AH74" s="22"/>
       <c r="AI74" s="22"/>
-      <c r="AJ74" s="275"/>
-      <c r="AK74" s="275"/>
+      <c r="AJ74" s="287"/>
+      <c r="AK74" s="287"/>
       <c r="AL74" s="22"/>
       <c r="AM74" s="22"/>
-      <c r="AN74" s="275"/>
-      <c r="AO74" s="275"/>
+      <c r="AN74" s="287"/>
+      <c r="AO74" s="287"/>
       <c r="AP74" s="186"/>
       <c r="AS74" s="22"/>
     </row>
     <row r="75" spans="1:45" ht="15.75" thickBot="1">
-      <c r="B75" s="328"/>
+      <c r="B75" s="348"/>
       <c r="C75" s="37"/>
-      <c r="D75" s="335"/>
-      <c r="E75" s="336"/>
+      <c r="D75" s="345"/>
+      <c r="E75" s="346"/>
       <c r="F75" s="53"/>
       <c r="G75" s="53"/>
-      <c r="H75" s="335"/>
-      <c r="I75" s="336"/>
+      <c r="H75" s="345"/>
+      <c r="I75" s="346"/>
       <c r="J75" s="53"/>
       <c r="K75" s="53"/>
-      <c r="L75" s="335"/>
-      <c r="M75" s="336"/>
+      <c r="L75" s="345"/>
+      <c r="M75" s="346"/>
       <c r="N75" s="52"/>
       <c r="O75" s="52"/>
-      <c r="P75" s="335"/>
-      <c r="Q75" s="336"/>
+      <c r="P75" s="345"/>
+      <c r="Q75" s="346"/>
       <c r="R75" s="186"/>
       <c r="S75" s="130"/>
       <c r="T75" s="188"/>
@@ -25165,16 +25215,16 @@
       <c r="AC75" s="133"/>
       <c r="AD75" s="30"/>
       <c r="AE75" s="22"/>
-      <c r="AF75" s="275"/>
-      <c r="AG75" s="275"/>
+      <c r="AF75" s="287"/>
+      <c r="AG75" s="287"/>
       <c r="AH75" s="22"/>
       <c r="AI75" s="22"/>
-      <c r="AJ75" s="275"/>
-      <c r="AK75" s="275"/>
+      <c r="AJ75" s="287"/>
+      <c r="AK75" s="287"/>
       <c r="AL75" s="22"/>
       <c r="AM75" s="22"/>
-      <c r="AN75" s="275"/>
-      <c r="AO75" s="275"/>
+      <c r="AN75" s="287"/>
+      <c r="AO75" s="287"/>
       <c r="AP75" s="186"/>
     </row>
     <row r="76" spans="1:45">
@@ -25251,22 +25301,22 @@
     </row>
     <row r="78" spans="1:45">
       <c r="A78" s="53"/>
-      <c r="B78" s="240"/>
+      <c r="B78" s="244"/>
       <c r="C78" s="53"/>
-      <c r="D78" s="240"/>
-      <c r="E78" s="240"/>
+      <c r="D78" s="244"/>
+      <c r="E78" s="244"/>
       <c r="F78" s="168"/>
       <c r="G78" s="168"/>
-      <c r="H78" s="240"/>
-      <c r="I78" s="240"/>
+      <c r="H78" s="244"/>
+      <c r="I78" s="244"/>
       <c r="J78" s="168"/>
       <c r="K78" s="168"/>
-      <c r="L78" s="240"/>
-      <c r="M78" s="240"/>
+      <c r="L78" s="244"/>
+      <c r="M78" s="244"/>
       <c r="N78" s="184"/>
       <c r="O78" s="184"/>
-      <c r="P78" s="240"/>
-      <c r="Q78" s="240"/>
+      <c r="P78" s="244"/>
+      <c r="Q78" s="244"/>
       <c r="R78" s="186"/>
       <c r="S78" s="130"/>
       <c r="U78" s="22"/>
@@ -25280,22 +25330,22 @@
     </row>
     <row r="79" spans="1:45">
       <c r="A79" s="53"/>
-      <c r="B79" s="240"/>
+      <c r="B79" s="244"/>
       <c r="C79" s="53"/>
-      <c r="D79" s="301"/>
-      <c r="E79" s="301"/>
+      <c r="D79" s="299"/>
+      <c r="E79" s="299"/>
       <c r="F79" s="53"/>
       <c r="G79" s="53"/>
-      <c r="H79" s="324"/>
-      <c r="I79" s="301"/>
+      <c r="H79" s="329"/>
+      <c r="I79" s="299"/>
       <c r="J79" s="53"/>
       <c r="K79" s="53"/>
-      <c r="L79" s="301"/>
-      <c r="M79" s="301"/>
+      <c r="L79" s="299"/>
+      <c r="M79" s="299"/>
       <c r="N79" s="187"/>
       <c r="O79" s="69"/>
-      <c r="P79" s="301"/>
-      <c r="Q79" s="301"/>
+      <c r="P79" s="299"/>
+      <c r="Q79" s="299"/>
       <c r="R79" s="186"/>
       <c r="S79" s="130"/>
       <c r="V79" s="133"/>
@@ -25416,15 +25466,111 @@
     </row>
   </sheetData>
   <mergeCells count="133">
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="AJ27:AK27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="AJ28:AK28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="AF70:AG70"/>
+    <mergeCell ref="AJ70:AK70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="AF71:AG71"/>
+    <mergeCell ref="P70:Q70"/>
     <mergeCell ref="AN74:AO74"/>
     <mergeCell ref="H75:I75"/>
     <mergeCell ref="P75:Q75"/>
@@ -25444,111 +25590,15 @@
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="B70:B71"/>
     <mergeCell ref="L70:M70"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="AF70:AG70"/>
-    <mergeCell ref="AJ70:AK70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="AF71:AG71"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="AJ27:AK27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="AJ28:AK28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="P79:Q79"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="65" orientation="portrait" r:id="rId1"/>
